--- a/SubRES_TMPL/SubRes_RES_HeatSav_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RES_HeatSav_Trans.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olex\(^_^)\ResLab\Modelling\TIMES\TIMES-DK\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D62CB-798F-449E-8FCE-9DAEC6C42BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="180" windowWidth="16605" windowHeight="6210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="2805" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="18" r:id="rId1"/>
@@ -28,12 +29,23 @@
     <definedName name="VARWSTBO">'[2]O&amp;M waste '!$D$5</definedName>
     <definedName name="VARWSTBP">'[2]O&amp;M waste '!$D$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="156">
   <si>
     <t>Individual</t>
   </si>
@@ -490,6 +502,18 @@
   <si>
     <t>Added AVA table for compatibility with STM</t>
   </si>
+  <si>
+    <t>DKISLBH</t>
+  </si>
+  <si>
+    <t>DKISL1</t>
+  </si>
+  <si>
+    <t>DKISL2</t>
+  </si>
+  <si>
+    <t>DKISL3</t>
+  </si>
 </sst>
 </file>
 
@@ -799,7 +823,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="64">
+  <fills count="66">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,6 +1165,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5076,7 +5112,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -5223,14 +5259,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1538" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="28" borderId="0" xfId="1538" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2578" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2578"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2578" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="22" xfId="2578" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5239,6 +5278,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="436" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="436" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="436" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="436" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5253,34 +5340,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5289,46 +5352,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="436" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="436" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="436" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="436" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2578" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2578"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2578" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="63" borderId="22" xfId="2578" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="2578" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="22" xfId="2578" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2580">
     <cellStyle name="20 % - Markeringsfarve1" xfId="1539" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9214,17 +9252,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" style="108" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" style="108" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="108" customWidth="1"/>
-    <col min="4" max="4" width="19.86328125" style="108" customWidth="1"/>
-    <col min="5" max="5" width="60.265625" style="108" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="108"/>
+    <col min="1" max="1" width="11.5703125" style="108" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="108" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="108" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="108" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" style="108" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
         <v>121</v>
       </c>
@@ -9241,7 +9279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="122">
         <v>42992</v>
       </c>
@@ -9259,7 +9297,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="122">
         <v>42814</v>
       </c>
@@ -9277,7 +9315,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="122">
         <v>42479</v>
       </c>
@@ -9288,7 +9326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="122">
         <v>42479</v>
       </c>
@@ -9302,7 +9340,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="122">
         <v>42264</v>
       </c>
@@ -9336,20 +9374,20 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="127"/>
+    <col min="1" max="1" width="9.140625" style="127"/>
     <col min="2" max="2" width="24" style="127" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.3984375" style="127" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="127"/>
+    <col min="3" max="3" width="138.42578125" style="127" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="126" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="128" t="s">
         <v>134</v>
       </c>
@@ -9357,15 +9395,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="128" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="128"/>
     </row>
-    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="128" t="s">
         <v>136</v>
       </c>
@@ -9373,18 +9411,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="128"/>
     </row>
-    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="129" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="128"/>
     </row>
-    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="130" t="s">
         <v>139</v>
       </c>
@@ -9392,7 +9430,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="132" t="s">
         <v>140</v>
       </c>
@@ -9416,52 +9454,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D6AC78-F220-49AE-89C1-010838484A04}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="167" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
       <c r="E2" s="108"/>
     </row>
-    <row r="3" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="170" t="s">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="D3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="171" t="s">
+      <c r="E3" s="172" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="173" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="173" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="173" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="171" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="108">
         <v>0</v>
       </c>
-      <c r="C4" s="168">
+      <c r="C4" s="135">
         <v>1</v>
       </c>
-      <c r="D4" s="168">
+      <c r="D4" s="135">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9476,24 +9539,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -9516,7 +9579,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -9555,7 +9618,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>13</v>
@@ -9594,7 +9657,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>13</v>
@@ -9633,7 +9696,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
@@ -9672,7 +9735,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
@@ -9711,7 +9774,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>13</v>
@@ -9750,7 +9813,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>13</v>
@@ -9789,7 +9852,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
@@ -9828,7 +9891,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
@@ -9867,7 +9930,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
@@ -9906,7 +9969,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>13</v>
@@ -9945,7 +10008,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>13</v>
@@ -9984,7 +10047,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>13</v>
@@ -10023,7 +10086,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
         <v>13</v>
@@ -10058,7 +10121,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
@@ -10095,7 +10158,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
@@ -10132,7 +10195,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
@@ -10169,7 +10232,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
@@ -10206,7 +10269,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
@@ -10243,7 +10306,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
@@ -10280,7 +10343,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
@@ -10317,7 +10380,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
@@ -10354,7 +10417,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
@@ -10391,7 +10454,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
@@ -10428,7 +10491,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
@@ -10465,7 +10528,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="16" t="s">
@@ -10502,7 +10565,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5" t="s">
@@ -10535,7 +10598,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5" t="s">
@@ -10568,7 +10631,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5" t="s">
@@ -10601,7 +10664,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
@@ -10634,7 +10697,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
@@ -10667,7 +10730,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
@@ -10700,7 +10763,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5" t="s">
@@ -10733,7 +10796,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5" t="s">
@@ -10766,7 +10829,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5" t="s">
@@ -10799,7 +10862,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5" t="s">
@@ -10832,7 +10895,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5" t="s">
@@ -10865,7 +10928,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="16" t="s">
@@ -10898,7 +10961,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
         <v>13</v>
@@ -10937,7 +11000,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
         <v>13</v>
@@ -10976,7 +11039,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
         <v>13</v>
@@ -11015,7 +11078,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
         <v>13</v>
@@ -11049,7 +11112,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
         <v>13</v>
@@ -11083,7 +11146,7 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
         <v>13</v>
@@ -11117,7 +11180,7 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
         <v>13</v>
@@ -11151,7 +11214,7 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
         <v>13</v>
@@ -11185,7 +11248,7 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
         <v>13</v>
@@ -11219,7 +11282,7 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>13</v>
@@ -11253,7 +11316,7 @@
       <c r="N51" s="6"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
         <v>13</v>
@@ -11287,7 +11350,7 @@
       <c r="N52" s="6"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
         <v>13</v>
@@ -11321,7 +11384,7 @@
       <c r="N53" s="6"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
         <v>13</v>
@@ -11351,7 +11414,7 @@
       <c r="N54" s="6"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
@@ -11383,7 +11446,7 @@
       <c r="N55" s="6"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5" t="s">
@@ -11415,7 +11478,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
@@ -11447,7 +11510,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5" t="s">
@@ -11479,7 +11542,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5" t="s">
@@ -11511,7 +11574,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5" t="s">
@@ -11543,7 +11606,7 @@
       <c r="N60" s="6"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5" t="s">
@@ -11574,7 +11637,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5" t="s">
@@ -11605,7 +11668,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5" t="s">
@@ -11636,7 +11699,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5" t="s">
@@ -11667,7 +11730,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5" t="s">
@@ -11698,7 +11761,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="16" t="s">
@@ -11729,7 +11792,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="5" t="s">
@@ -11762,7 +11825,7 @@
       <c r="O67" s="13"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5" t="s">
@@ -11796,7 +11859,7 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="108"/>
     </row>
-    <row r="69" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="5" t="s">
@@ -11830,7 +11893,7 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="108"/>
     </row>
-    <row r="70" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5" t="s">
@@ -11864,7 +11927,7 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="108"/>
     </row>
-    <row r="71" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="5" t="s">
@@ -11898,7 +11961,7 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="108"/>
     </row>
-    <row r="72" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5" t="s">
@@ -11932,7 +11995,7 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="108"/>
     </row>
-    <row r="73" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="5" t="s">
@@ -11966,7 +12029,7 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="108"/>
     </row>
-    <row r="74" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5" t="s">
@@ -12000,7 +12063,7 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="108"/>
     </row>
-    <row r="75" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="5" t="s">
@@ -12034,7 +12097,7 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="108"/>
     </row>
-    <row r="76" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="5" t="s">
@@ -12068,7 +12131,7 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="108"/>
     </row>
-    <row r="77" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="5" t="s">
@@ -12102,7 +12165,7 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="108"/>
     </row>
-    <row r="78" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="16" t="s">
@@ -12136,7 +12199,7 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="108"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
         <v>13</v>
@@ -12169,7 +12232,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
         <v>13</v>
@@ -12202,7 +12265,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
         <v>13</v>
@@ -12235,7 +12298,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="6" t="s">
         <v>13</v>
@@ -12268,7 +12331,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
         <v>13</v>
@@ -12301,7 +12364,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
         <v>13</v>
@@ -12334,7 +12397,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
         <v>13</v>
@@ -12367,7 +12430,7 @@
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="s">
         <v>13</v>
@@ -12400,7 +12463,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="s">
         <v>13</v>
@@ -12433,7 +12496,7 @@
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
         <v>13</v>
@@ -12466,7 +12529,7 @@
       <c r="M88" s="5"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
         <v>13</v>
@@ -12499,7 +12562,7 @@
       <c r="M89" s="5"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
         <v>13</v>
@@ -12532,7 +12595,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
         <v>13</v>
@@ -12561,7 +12624,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5" t="s">
@@ -12592,7 +12655,7 @@
       <c r="M92" s="5"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5" t="s">
@@ -12623,7 +12686,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5" t="s">
@@ -12654,7 +12717,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5" t="s">
@@ -12685,7 +12748,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5" t="s">
@@ -12716,7 +12779,7 @@
       <c r="M96" s="5"/>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="6"/>
       <c r="D97" s="5" t="s">
@@ -12747,7 +12810,7 @@
       <c r="M97" s="5"/>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5" t="s">
@@ -12778,7 +12841,7 @@
       <c r="M98" s="5"/>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5" t="s">
@@ -12809,7 +12872,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5" t="s">
@@ -12840,7 +12903,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5" t="s">
@@ -12871,7 +12934,7 @@
       <c r="M101" s="5"/>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5" t="s">
@@ -12902,7 +12965,7 @@
       <c r="M102" s="5"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="16" t="s">
@@ -12933,7 +12996,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="5" t="s">
@@ -12964,7 +13027,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D105" s="5" t="s">
         <v>52</v>
       </c>
@@ -12993,7 +13056,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D106" s="5" t="s">
         <v>52</v>
       </c>
@@ -13022,7 +13085,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D107" s="5" t="s">
         <v>52</v>
       </c>
@@ -13051,7 +13114,7 @@
       <c r="M107" s="5"/>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D108" s="5" t="s">
         <v>52</v>
       </c>
@@ -13080,7 +13143,7 @@
       <c r="M108" s="5"/>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D109" s="5" t="s">
         <v>52</v>
       </c>
@@ -13109,7 +13172,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D110" s="5" t="s">
         <v>52</v>
       </c>
@@ -13138,7 +13201,7 @@
       <c r="M110" s="5"/>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D111" s="5" t="s">
         <v>52</v>
       </c>
@@ -13167,7 +13230,7 @@
       <c r="M111" s="5"/>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D112" s="5" t="s">
         <v>52</v>
       </c>
@@ -13196,7 +13259,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D113" s="5" t="s">
         <v>52</v>
       </c>
@@ -13225,7 +13288,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D114" s="5" t="s">
         <v>52</v>
       </c>
@@ -13254,7 +13317,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
       <c r="D115" s="16" t="s">
@@ -13285,7 +13348,7 @@
       <c r="M115" s="5"/>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -13299,35 +13362,35 @@
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -13352,25 +13415,25 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="4"/>
-    <col min="2" max="2" width="25.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" customWidth="1"/>
     <col min="4" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="9.1328125" style="4"/>
-    <col min="25" max="25" width="7.265625" style="4" customWidth="1"/>
-    <col min="26" max="29" width="9.1328125" style="4"/>
-    <col min="30" max="30" width="12.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="4"/>
+    <col min="6" max="24" width="9.140625" style="4"/>
+    <col min="25" max="25" width="7.28515625" style="4" customWidth="1"/>
+    <col min="26" max="29" width="9.140625" style="4"/>
+    <col min="30" max="30" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
       <c r="B1" s="108"/>
       <c r="C1" s="108" t="s">
@@ -13401,7 +13464,7 @@
       <c r="Z1" s="108"/>
       <c r="AA1" s="108"/>
     </row>
-    <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="108"/>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -13430,127 +13493,127 @@
       <c r="Z2" s="108"/>
       <c r="AA2" s="108"/>
     </row>
-    <row r="3" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:35" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="108"/>
       <c r="B3" s="108"/>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="136"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="158"/>
       <c r="AA3" s="108"/>
-      <c r="AD3" s="137" t="s">
+      <c r="AD3" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="139"/>
-    </row>
-    <row r="4" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="142"/>
+    </row>
+    <row r="4" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="108"/>
       <c r="B4" s="108"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="142" t="s">
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="141"/>
-      <c r="X4" s="141"/>
-      <c r="Y4" s="141"/>
-      <c r="Z4" s="143"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="160"/>
+      <c r="Z4" s="162"/>
       <c r="AA4" s="108"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="20"/>
-      <c r="AF4" s="144" t="s">
+      <c r="AF4" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="AG4" s="145"/>
+      <c r="AG4" s="144"/>
       <c r="AH4" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AI4" s="22"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="108"/>
       <c r="B5" s="108"/>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="154" t="s">
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="146" t="s">
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="156" t="s">
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="154" t="s">
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="146" t="s">
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="147"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="170"/>
       <c r="AA5" s="108"/>
       <c r="AD5" s="23"/>
       <c r="AE5" s="6"/>
@@ -13567,59 +13630,59 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="108"/>
       <c r="B6" s="108"/>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149" t="s">
+      <c r="D6" s="153"/>
+      <c r="E6" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150" t="s">
+      <c r="F6" s="153"/>
+      <c r="G6" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149" t="s">
+      <c r="H6" s="153"/>
+      <c r="I6" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="151"/>
-      <c r="K6" s="149" t="s">
+      <c r="J6" s="155"/>
+      <c r="K6" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149" t="s">
+      <c r="L6" s="153"/>
+      <c r="M6" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="149"/>
+      <c r="N6" s="153"/>
       <c r="O6" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149" t="s">
+      <c r="P6" s="153"/>
+      <c r="Q6" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="149"/>
-      <c r="S6" s="150" t="s">
+      <c r="R6" s="153"/>
+      <c r="S6" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149" t="s">
+      <c r="T6" s="153"/>
+      <c r="U6" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="151"/>
-      <c r="W6" s="149" t="s">
+      <c r="V6" s="155"/>
+      <c r="W6" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="149" t="s">
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="157"/>
+      <c r="Z6" s="168"/>
       <c r="AA6" s="108"/>
-      <c r="AD6" s="158" t="s">
+      <c r="AD6" s="147" t="s">
         <v>2</v>
       </c>
       <c r="AE6" s="25" t="s">
@@ -13638,7 +13701,7 @@
         <v>21.315135762203379</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="108"/>
       <c r="B7" s="108"/>
       <c r="C7" s="28" t="s">
@@ -13714,7 +13777,7 @@
         <v>68</v>
       </c>
       <c r="AA7" s="108"/>
-      <c r="AD7" s="159"/>
+      <c r="AD7" s="148"/>
       <c r="AE7" s="25" t="s">
         <v>4</v>
       </c>
@@ -13731,8 +13794,8 @@
         <v>15.84696230373755</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="161" t="s">
+    <row r="8" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="138" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -13811,7 +13874,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AA8" s="108"/>
-      <c r="AD8" s="160"/>
+      <c r="AD8" s="149"/>
       <c r="AE8" s="25" t="s">
         <v>0</v>
       </c>
@@ -13828,8 +13891,8 @@
         <v>11.550181131908179</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="162"/>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="139"/>
       <c r="B9" s="124" t="s">
         <v>77</v>
       </c>
@@ -13906,7 +13969,7 @@
         <v>1498.8565458526366</v>
       </c>
       <c r="AA9" s="108"/>
-      <c r="AD9" s="158" t="s">
+      <c r="AD9" s="147" t="s">
         <v>1</v>
       </c>
       <c r="AE9" s="25" t="s">
@@ -13925,8 +13988,8 @@
         <v>3.2947212563397263</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="162"/>
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="139"/>
       <c r="B10" s="41" t="s">
         <v>71</v>
       </c>
@@ -14003,7 +14066,7 @@
         <v>25.784078898824173</v>
       </c>
       <c r="AA10" s="108"/>
-      <c r="AD10" s="159"/>
+      <c r="AD10" s="148"/>
       <c r="AE10" s="25" t="s">
         <v>4</v>
       </c>
@@ -14020,8 +14083,8 @@
         <v>5.1367738966410732</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="164" t="s">
+    <row r="11" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="145" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -14100,7 +14163,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AA11" s="108"/>
-      <c r="AD11" s="163"/>
+      <c r="AD11" s="151"/>
       <c r="AE11" s="57" t="s">
         <v>0</v>
       </c>
@@ -14117,8 +14180,8 @@
         <v>0.35546674720410998</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="162"/>
+    <row r="12" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="139"/>
       <c r="B12" s="124" t="s">
         <v>77</v>
       </c>
@@ -14196,8 +14259,8 @@
       </c>
       <c r="AA12" s="108"/>
     </row>
-    <row r="13" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="165"/>
+    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="146"/>
       <c r="B13" s="41" t="s">
         <v>71</v>
       </c>
@@ -14275,8 +14338,8 @@
       </c>
       <c r="AA13" s="108"/>
     </row>
-    <row r="14" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="162" t="s">
+    <row r="14" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="139" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -14355,17 +14418,17 @@
         <v>2.4694546524051571E-2</v>
       </c>
       <c r="AA14" s="108"/>
-      <c r="AD14" s="137" t="s">
+      <c r="AD14" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="138"/>
-      <c r="AG14" s="138"/>
-      <c r="AH14" s="138"/>
-      <c r="AI14" s="139"/>
-    </row>
-    <row r="15" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="162"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="141"/>
+      <c r="AG14" s="141"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="142"/>
+    </row>
+    <row r="15" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="139"/>
       <c r="B15" s="124" t="s">
         <v>77</v>
       </c>
@@ -14444,17 +14507,17 @@
       <c r="AA15" s="108"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="20"/>
-      <c r="AF15" s="144" t="s">
+      <c r="AF15" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="AG15" s="145"/>
+      <c r="AG15" s="144"/>
       <c r="AH15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AI15" s="22"/>
     </row>
-    <row r="16" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="166"/>
+    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="150"/>
       <c r="B16" s="41" t="s">
         <v>71</v>
       </c>
@@ -14546,7 +14609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
@@ -14574,7 +14637,7 @@
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="6"/>
-      <c r="AD17" s="158" t="s">
+      <c r="AD17" s="147" t="s">
         <v>2</v>
       </c>
       <c r="AE17" s="25" t="s">
@@ -14593,7 +14656,7 @@
         <v>8.1202636786615034</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="75"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
@@ -14621,7 +14684,7 @@
       <c r="Y18" s="76"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="6"/>
-      <c r="AD18" s="159"/>
+      <c r="AD18" s="148"/>
       <c r="AE18" s="25" t="s">
         <v>4</v>
       </c>
@@ -14638,37 +14701,37 @@
         <v>5.9452210330257413</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:35" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="108"/>
       <c r="B19" s="108"/>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="136"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="157"/>
+      <c r="U19" s="157"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="157"/>
+      <c r="X19" s="157"/>
+      <c r="Y19" s="157"/>
+      <c r="Z19" s="158"/>
       <c r="AA19" s="6"/>
-      <c r="AD19" s="160"/>
+      <c r="AD19" s="149"/>
       <c r="AE19" s="25" t="s">
         <v>0</v>
       </c>
@@ -14685,39 +14748,39 @@
         <v>4.4847162382110861</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="108"/>
       <c r="B20" s="108"/>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="142" t="s">
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="143"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="162"/>
       <c r="AA20" s="108"/>
-      <c r="AD20" s="158" t="s">
+      <c r="AD20" s="147" t="s">
         <v>1</v>
       </c>
       <c r="AE20" s="25" t="s">
@@ -14736,47 +14799,47 @@
         <v>1.148592335548104</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="108"/>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="154" t="s">
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="146" t="s">
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="156" t="s">
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="154" t="s">
+      <c r="P21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="164"/>
+      <c r="S21" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="T21" s="146"/>
-      <c r="U21" s="146"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="146" t="s">
+      <c r="T21" s="164"/>
+      <c r="U21" s="164"/>
+      <c r="V21" s="166"/>
+      <c r="W21" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="X21" s="146"/>
-      <c r="Y21" s="146"/>
-      <c r="Z21" s="147"/>
+      <c r="X21" s="164"/>
+      <c r="Y21" s="164"/>
+      <c r="Z21" s="170"/>
       <c r="AA21" s="108"/>
-      <c r="AD21" s="159"/>
+      <c r="AD21" s="148"/>
       <c r="AE21" s="25" t="s">
         <v>4</v>
       </c>
@@ -14793,59 +14856,59 @@
         <v>1.8422863010476525</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="108"/>
       <c r="B22" s="108"/>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149" t="s">
+      <c r="D22" s="153"/>
+      <c r="E22" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="149"/>
-      <c r="G22" s="150" t="s">
+      <c r="F22" s="153"/>
+      <c r="G22" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149" t="s">
+      <c r="H22" s="153"/>
+      <c r="I22" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="151"/>
-      <c r="K22" s="149" t="s">
+      <c r="J22" s="155"/>
+      <c r="K22" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="149"/>
-      <c r="M22" s="149" t="s">
+      <c r="L22" s="153"/>
+      <c r="M22" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="149"/>
+      <c r="N22" s="153"/>
       <c r="O22" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="149" t="s">
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="149"/>
-      <c r="S22" s="150" t="s">
+      <c r="R22" s="153"/>
+      <c r="S22" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="149"/>
-      <c r="U22" s="149" t="s">
+      <c r="T22" s="153"/>
+      <c r="U22" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="151"/>
-      <c r="W22" s="149" t="s">
+      <c r="V22" s="155"/>
+      <c r="W22" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="149" t="s">
+      <c r="X22" s="153"/>
+      <c r="Y22" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="Z22" s="157"/>
+      <c r="Z22" s="168"/>
       <c r="AA22" s="108"/>
-      <c r="AD22" s="163"/>
+      <c r="AD22" s="151"/>
       <c r="AE22" s="57" t="s">
         <v>0</v>
       </c>
@@ -14862,7 +14925,7 @@
         <v>0.11635913277974096</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="108"/>
       <c r="B23" s="108"/>
       <c r="C23" s="28" t="s">
@@ -14939,8 +15002,8 @@
       </c>
       <c r="AA23" s="108"/>
     </row>
-    <row r="24" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="161" t="s">
+    <row r="24" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="138" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -15020,8 +15083,8 @@
       </c>
       <c r="AA24" s="108"/>
     </row>
-    <row r="25" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="162"/>
+    <row r="25" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="139"/>
       <c r="B25" s="124" t="s">
         <v>77</v>
       </c>
@@ -15098,17 +15161,17 @@
         <v>5285.3643541100637</v>
       </c>
       <c r="AA25" s="108"/>
-      <c r="AD25" s="137" t="s">
+      <c r="AD25" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="138"/>
-      <c r="AG25" s="138"/>
-      <c r="AH25" s="138"/>
-      <c r="AI25" s="139"/>
-    </row>
-    <row r="26" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="162"/>
+      <c r="AE25" s="141"/>
+      <c r="AF25" s="141"/>
+      <c r="AG25" s="141"/>
+      <c r="AH25" s="141"/>
+      <c r="AI25" s="142"/>
+    </row>
+    <row r="26" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="139"/>
       <c r="B26" s="41" t="s">
         <v>71</v>
       </c>
@@ -15187,17 +15250,17 @@
       <c r="AA26" s="108"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="20"/>
-      <c r="AF26" s="144" t="s">
+      <c r="AF26" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="AG26" s="145"/>
+      <c r="AG26" s="144"/>
       <c r="AH26" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AI26" s="22"/>
     </row>
-    <row r="27" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="164" t="s">
+    <row r="27" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="145" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -15291,8 +15354,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="162"/>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="139"/>
       <c r="B28" s="124" t="s">
         <v>77</v>
       </c>
@@ -15369,7 +15432,7 @@
         <v>6167.6673132257747</v>
       </c>
       <c r="AA28" s="108"/>
-      <c r="AD28" s="158" t="s">
+      <c r="AD28" s="147" t="s">
         <v>2</v>
       </c>
       <c r="AE28" s="25" t="s">
@@ -15392,8 +15455,8 @@
         <v>0.38096232504700211</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="165"/>
+    <row r="29" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="146"/>
       <c r="B29" s="41" t="s">
         <v>71</v>
       </c>
@@ -15470,7 +15533,7 @@
         <v>21.650203815422461</v>
       </c>
       <c r="AA29" s="108"/>
-      <c r="AD29" s="159"/>
+      <c r="AD29" s="148"/>
       <c r="AE29" s="25" t="s">
         <v>4</v>
       </c>
@@ -15491,8 +15554,8 @@
         <v>0.3751647110073294</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="162" t="s">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="139" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -15571,7 +15634,7 @@
         <v>3.5494546524051582E-2</v>
       </c>
       <c r="AA30" s="108"/>
-      <c r="AD30" s="160"/>
+      <c r="AD30" s="149"/>
       <c r="AE30" s="25" t="s">
         <v>0</v>
       </c>
@@ -15592,8 +15655,8 @@
         <v>0.38828103100666927</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="162"/>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="139"/>
       <c r="B31" s="124" t="s">
         <v>77</v>
       </c>
@@ -15670,7 +15733,7 @@
         <v>22027.134242709195</v>
       </c>
       <c r="AA31" s="108"/>
-      <c r="AD31" s="158" t="s">
+      <c r="AD31" s="147" t="s">
         <v>1</v>
       </c>
       <c r="AE31" s="25" t="s">
@@ -15693,8 +15756,8 @@
         <v>0.34861593627624016</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="166"/>
+    <row r="32" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="150"/>
       <c r="B32" s="41" t="s">
         <v>71</v>
       </c>
@@ -15771,7 +15834,7 @@
         <v>32.948863965993311</v>
       </c>
       <c r="AA32" s="108"/>
-      <c r="AD32" s="159"/>
+      <c r="AD32" s="148"/>
       <c r="AE32" s="25" t="s">
         <v>4</v>
       </c>
@@ -15792,7 +15855,7 @@
         <v>0.35864656263191186</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="108"/>
       <c r="B33" s="108"/>
       <c r="C33" s="108"/>
@@ -15820,7 +15883,7 @@
       <c r="Y33" s="108"/>
       <c r="Z33" s="108"/>
       <c r="AA33" s="108"/>
-      <c r="AD33" s="163"/>
+      <c r="AD33" s="151"/>
       <c r="AE33" s="57" t="s">
         <v>0</v>
       </c>
@@ -15841,7 +15904,7 @@
         <v>0.3273418222518778</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C34" s="116"/>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -15850,7 +15913,7 @@
       <c r="H34" s="116"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C35" s="116"/>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -15859,7 +15922,7 @@
       <c r="H35" s="116"/>
       <c r="I35" s="116"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C36" s="116"/>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -15868,7 +15931,7 @@
       <c r="H36" s="116"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C37" s="119"/>
       <c r="D37" s="116"/>
       <c r="E37" s="116"/>
@@ -15877,7 +15940,7 @@
       <c r="H37" s="116"/>
       <c r="I37" s="116"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C38" s="116"/>
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
@@ -15886,7 +15949,7 @@
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C39" s="118"/>
       <c r="D39" s="118"/>
       <c r="E39" s="118"/>
@@ -15912,7 +15975,7 @@
       <c r="Y39" s="109"/>
       <c r="Z39" s="109"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C40" s="118"/>
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
@@ -15938,7 +16001,7 @@
       <c r="Y40" s="109"/>
       <c r="Z40" s="109"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C41" s="118"/>
       <c r="D41" s="118"/>
       <c r="E41" s="118"/>
@@ -15964,7 +16027,7 @@
       <c r="Y41" s="109"/>
       <c r="Z41" s="109"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C42" s="118"/>
       <c r="D42" s="118"/>
       <c r="E42" s="118"/>
@@ -15990,7 +16053,7 @@
       <c r="Y42" s="109"/>
       <c r="Z42" s="109"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C43" s="108"/>
       <c r="D43" s="108"/>
       <c r="E43" s="108"/>
@@ -16016,28 +16079,38 @@
       <c r="Y43" s="108"/>
       <c r="Z43" s="108"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="AD25:AI25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="AD31:AD33"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="AD14:AI14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="AD3:AI3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AD6:AD8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="O20:Z20"/>
     <mergeCell ref="AD20:AD22"/>
@@ -16054,33 +16127,23 @@
     <mergeCell ref="S21:V21"/>
     <mergeCell ref="W21:Z21"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AD6:AD8"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="AD3:AI3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="AD14:AI14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="AD25:AI25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="AD31:AD33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SubRES_TMPL/SubRes_RES_HeatSav_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RES_HeatSav_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bae57ad8ea7bb4f/OneDrive/GitHub^J Inc/EnergyIsland/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D62CB-798F-449E-8FCE-9DAEC6C42BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{998D62CB-798F-449E-8FCE-9DAEC6C42BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109ABED1-94AD-45FE-8AD8-A3D3691152BF}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2805" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52005" yWindow="5715" windowWidth="20760" windowHeight="12180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="18" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="157">
   <si>
     <t>Individual</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>DKISL3</t>
+  </si>
+  <si>
+    <t>MAR</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2409,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2580">
+  <cellStyleXfs count="2579">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3954,7 +3957,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="95">
@@ -5251,25 +5253,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1538" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1538"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1538" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="1538" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" xfId="1538" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1538" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" xfId="1538" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1537" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1537"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1537" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="1537" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" xfId="1537" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1537" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" xfId="1537" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2578" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2578"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2578" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2577" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2577"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2577" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="63" borderId="22" xfId="2578" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="63" borderId="22" xfId="2577" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="22" xfId="2577" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5278,54 +5286,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="436" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="436" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="436" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="436" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5340,10 +5300,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5352,78 +5336,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="436" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="436" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="65" borderId="22" xfId="2578" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="436" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="436" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2580">
-    <cellStyle name="20 % - Markeringsfarve1" xfId="1539" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20 % - Markeringsfarve1 2" xfId="1540" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20 % - Markeringsfarve2" xfId="1541" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20 % - Markeringsfarve2 2" xfId="1542" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20 % - Markeringsfarve3" xfId="1543" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20 % - Markeringsfarve3 2" xfId="1544" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20 % - Markeringsfarve4" xfId="1545" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20 % - Markeringsfarve4 2" xfId="1546" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20 % - Markeringsfarve5" xfId="1547" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20 % - Markeringsfarve5 2" xfId="1548" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20 % - Markeringsfarve6" xfId="1549" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20 % - Markeringsfarve6 2" xfId="1550" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+  <cellStyles count="2579">
+    <cellStyle name="20 % - Markeringsfarve1" xfId="1538" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20 % - Markeringsfarve1 2" xfId="1539" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20 % - Markeringsfarve2" xfId="1540" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20 % - Markeringsfarve2 2" xfId="1541" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20 % - Markeringsfarve3" xfId="1542" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20 % - Markeringsfarve3 2" xfId="1543" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20 % - Markeringsfarve4" xfId="1544" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20 % - Markeringsfarve4 2" xfId="1545" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20 % - Markeringsfarve5" xfId="1546" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20 % - Markeringsfarve5 2" xfId="1547" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20 % - Markeringsfarve6" xfId="1548" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20 % - Markeringsfarve6 2" xfId="1549" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% - Colore 1" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - Colore 1 2" xfId="1551" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Colore 1 2" xfId="1550" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% - Colore 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - Colore 2 2" xfId="1552" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Colore 2 2" xfId="1551" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="20% - Colore 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - Colore 3 2" xfId="1553" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Colore 3 2" xfId="1552" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% - Colore 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - Colore 4 2" xfId="1554" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Colore 4 2" xfId="1553" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="20% - Colore 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - Colore 5 2" xfId="1555" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Colore 5 2" xfId="1554" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="20% - Colore 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - Colore 6 2" xfId="1556" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="40 % - Markeringsfarve1" xfId="1557" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="40 % - Markeringsfarve1 2" xfId="1558" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="40 % - Markeringsfarve2" xfId="1559" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="40 % - Markeringsfarve2 2" xfId="1560" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="40 % - Markeringsfarve3" xfId="1561" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="40 % - Markeringsfarve3 2" xfId="1562" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="40 % - Markeringsfarve4" xfId="1563" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40 % - Markeringsfarve4 2" xfId="1564" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="40 % - Markeringsfarve5" xfId="1565" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="40 % - Markeringsfarve5 2" xfId="1566" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40 % - Markeringsfarve6" xfId="1567" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="40 % - Markeringsfarve6 2" xfId="1568" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Colore 6 2" xfId="1555" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40 % - Markeringsfarve1" xfId="1556" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40 % - Markeringsfarve1 2" xfId="1557" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40 % - Markeringsfarve2" xfId="1558" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40 % - Markeringsfarve2 2" xfId="1559" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40 % - Markeringsfarve3" xfId="1560" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40 % - Markeringsfarve3 2" xfId="1561" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40 % - Markeringsfarve4" xfId="1562" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40 % - Markeringsfarve4 2" xfId="1563" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40 % - Markeringsfarve5" xfId="1564" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40 % - Markeringsfarve5 2" xfId="1565" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40 % - Markeringsfarve6" xfId="1566" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40 % - Markeringsfarve6 2" xfId="1567" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="40% - Colore 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="40% - Colore 1 2" xfId="1569" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - Colore 1 2" xfId="1568" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="40% - Colore 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="40% - Colore 2 2" xfId="1570" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - Colore 2 2" xfId="1569" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="40% - Colore 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="40% - Colore 3 2" xfId="1571" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - Colore 3 2" xfId="1570" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="40% - Colore 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="40% - Colore 4 2" xfId="1572" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - Colore 4 2" xfId="1571" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="40% - Colore 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="40% - Colore 5 2" xfId="1573" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - Colore 5 2" xfId="1572" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="40% - Colore 6" xfId="13" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="40% - Colore 6 2" xfId="1574" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="40% - Colore 6 2" xfId="1573" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="5x indented GHG Textfiels" xfId="437" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="60 % - Markeringsfarve1" xfId="1575" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="60 % - Markeringsfarve2" xfId="1576" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="60 % - Markeringsfarve3" xfId="1577" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="60 % - Markeringsfarve4" xfId="1578" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="60 % - Markeringsfarve5" xfId="1579" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="60 % - Markeringsfarve6" xfId="1580" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="60 % - Markeringsfarve1" xfId="1574" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60 % - Markeringsfarve2" xfId="1575" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60 % - Markeringsfarve3" xfId="1576" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60 % - Markeringsfarve4" xfId="1577" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="60 % - Markeringsfarve5" xfId="1578" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="60 % - Markeringsfarve6" xfId="1579" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="60% - Colore 1" xfId="14" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="60% - Colore 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="60% - Colore 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -5433,12 +5435,12 @@
     <cellStyle name="AggOrange_CRFReport-template" xfId="438" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="AggOrange9_CRFReport-template" xfId="439" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Bad 2" xfId="440" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Bad 3" xfId="1581" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Bad 3" xfId="1580" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="Calcolo" xfId="20" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Calcolo 2" xfId="435" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Calcolo 2 2" xfId="1582" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Calcolo 3" xfId="1583" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Calculation 2" xfId="1584" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Calcolo 2 2" xfId="1581" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Calcolo 3" xfId="1582" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Calculation 2" xfId="1583" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Cella collegata" xfId="21" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Cella da controllare" xfId="22" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Colore 1" xfId="23" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
@@ -5451,1914 +5453,1913 @@
     <cellStyle name="Comma 2 2" xfId="441" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
     <cellStyle name="Comma 2 3" xfId="442" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Comma 2 3 2" xfId="443" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Comma 2 3 2 2" xfId="1585" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Comma 2 3 2 2" xfId="1584" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="Comma 2 4" xfId="444" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
     <cellStyle name="Comma 3" xfId="445" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="Comma 4" xfId="446" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Comma 4 2" xfId="1586" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Comma 4 2" xfId="1585" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
     <cellStyle name="Comma 5" xfId="447" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
     <cellStyle name="Comma 6" xfId="448" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
     <cellStyle name="Comma0 - Type3" xfId="449" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
     <cellStyle name="CustomizationCells" xfId="450" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="CustomizationCells 2" xfId="1536" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="CustomizationCells 2" xfId="1535" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="Euro" xfId="30" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
     <cellStyle name="Euro 10" xfId="31" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="Euro 10 2" xfId="451" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
     <cellStyle name="Euro 10 3" xfId="452" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
     <cellStyle name="Euro 10 3 2" xfId="453" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Euro 10 3 2 2" xfId="1587" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Euro 10 3 2 2" xfId="1586" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
     <cellStyle name="Euro 10 4" xfId="454" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Euro 10 4 2" xfId="1588" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Euro 10 4 2" xfId="1587" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
     <cellStyle name="Euro 10 5" xfId="455" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
     <cellStyle name="Euro 11" xfId="32" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
     <cellStyle name="Euro 11 2" xfId="456" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
     <cellStyle name="Euro 11 3" xfId="457" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
     <cellStyle name="Euro 11 3 2" xfId="458" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Euro 11 3 2 2" xfId="1589" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Euro 11 3 2 2" xfId="1588" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="Euro 11 4" xfId="459" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Euro 11 4 2" xfId="1590" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Euro 11 4 2" xfId="1589" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
     <cellStyle name="Euro 11 5" xfId="460" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
     <cellStyle name="Euro 12" xfId="33" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
     <cellStyle name="Euro 12 2" xfId="461" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="Euro 12 3" xfId="462" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
     <cellStyle name="Euro 12 3 2" xfId="463" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Euro 12 3 2 2" xfId="1591" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Euro 12 3 2 2" xfId="1590" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
     <cellStyle name="Euro 12 4" xfId="464" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Euro 12 4 2" xfId="1592" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Euro 12 4 2" xfId="1591" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
     <cellStyle name="Euro 12 5" xfId="465" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
     <cellStyle name="Euro 13" xfId="34" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="Euro 13 2" xfId="466" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="Euro 13 3" xfId="467" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
     <cellStyle name="Euro 13 3 2" xfId="468" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Euro 13 3 2 2" xfId="1593" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Euro 13 3 2 2" xfId="1592" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="Euro 13 4" xfId="469" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Euro 13 4 2" xfId="1594" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Euro 13 4 2" xfId="1593" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
     <cellStyle name="Euro 13 5" xfId="470" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
     <cellStyle name="Euro 14" xfId="35" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
     <cellStyle name="Euro 14 2" xfId="471" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
     <cellStyle name="Euro 14 3" xfId="472" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
     <cellStyle name="Euro 14 3 2" xfId="473" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Euro 14 3 2 2" xfId="1595" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Euro 14 3 2 2" xfId="1594" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
     <cellStyle name="Euro 14 4" xfId="474" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Euro 14 4 2" xfId="1596" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Euro 14 4 2" xfId="1595" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
     <cellStyle name="Euro 14 5" xfId="475" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
     <cellStyle name="Euro 15" xfId="36" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
     <cellStyle name="Euro 15 2" xfId="476" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="Euro 15 3" xfId="477" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
     <cellStyle name="Euro 15 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Euro 15 3 2 2" xfId="1597" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Euro 15 3 2 2" xfId="1596" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="Euro 15 4" xfId="479" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Euro 15 4 2" xfId="1598" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Euro 15 4 2" xfId="1597" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
     <cellStyle name="Euro 15 5" xfId="480" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
     <cellStyle name="Euro 16" xfId="37" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="Euro 16 2" xfId="481" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="Euro 16 3" xfId="482" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Euro 16 3 2" xfId="483" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Euro 16 3 2 2" xfId="1599" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Euro 16 3 2 2" xfId="1598" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
     <cellStyle name="Euro 16 4" xfId="484" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Euro 16 4 2" xfId="1600" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Euro 16 4 2" xfId="1599" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
     <cellStyle name="Euro 16 5" xfId="485" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
     <cellStyle name="Euro 17" xfId="38" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="Euro 17 2" xfId="486" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
     <cellStyle name="Euro 17 3" xfId="487" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
     <cellStyle name="Euro 17 3 2" xfId="488" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Euro 17 3 2 2" xfId="1601" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Euro 17 3 2 2" xfId="1600" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
     <cellStyle name="Euro 17 4" xfId="489" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Euro 17 4 2" xfId="1602" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Euro 17 4 2" xfId="1601" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="Euro 17 5" xfId="490" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
     <cellStyle name="Euro 18" xfId="39" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
     <cellStyle name="Euro 18 2" xfId="491" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
     <cellStyle name="Euro 18 3" xfId="492" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
     <cellStyle name="Euro 18 3 2" xfId="493" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Euro 18 3 2 2" xfId="1603" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Euro 18 3 2 2" xfId="1602" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Euro 18 4" xfId="494" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Euro 18 4 2" xfId="1604" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Euro 18 4 2" xfId="1603" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
     <cellStyle name="Euro 18 5" xfId="495" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
     <cellStyle name="Euro 19" xfId="40" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
     <cellStyle name="Euro 19 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
     <cellStyle name="Euro 19 3" xfId="497" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
     <cellStyle name="Euro 19 3 2" xfId="498" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Euro 19 3 2 2" xfId="1605" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Euro 19 3 2 2" xfId="1604" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
     <cellStyle name="Euro 19 4" xfId="499" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Euro 19 4 2" xfId="1606" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Euro 19 4 2" xfId="1605" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
     <cellStyle name="Euro 19 5" xfId="500" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
     <cellStyle name="Euro 2" xfId="41" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
     <cellStyle name="Euro 2 2" xfId="501" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
     <cellStyle name="Euro 2 3" xfId="502" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
     <cellStyle name="Euro 2 3 2" xfId="503" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="Euro 2 3 2 2" xfId="1607" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Euro 2 3 2 2" xfId="1606" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
     <cellStyle name="Euro 2 4" xfId="504" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="Euro 2 4 2" xfId="1608" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Euro 2 4 2" xfId="1607" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
     <cellStyle name="Euro 2 5" xfId="505" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
     <cellStyle name="Euro 20" xfId="42" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
     <cellStyle name="Euro 20 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
     <cellStyle name="Euro 20 3" xfId="507" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
     <cellStyle name="Euro 20 3 2" xfId="508" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="Euro 20 3 2 2" xfId="1609" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Euro 20 3 2 2" xfId="1608" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="Euro 20 4" xfId="509" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="Euro 20 4 2" xfId="1610" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Euro 20 4 2" xfId="1609" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
     <cellStyle name="Euro 20 5" xfId="510" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
     <cellStyle name="Euro 21" xfId="43" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Euro 21 2" xfId="511" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="Euro 21 3" xfId="512" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
     <cellStyle name="Euro 21 3 2" xfId="513" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Euro 21 3 2 2" xfId="1611" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Euro 21 3 2 2" xfId="1610" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
     <cellStyle name="Euro 21 4" xfId="514" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="Euro 21 4 2" xfId="1612" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Euro 21 4 2" xfId="1611" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
     <cellStyle name="Euro 21 5" xfId="515" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
     <cellStyle name="Euro 22" xfId="44" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
     <cellStyle name="Euro 22 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
     <cellStyle name="Euro 22 3" xfId="517" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
     <cellStyle name="Euro 22 3 2" xfId="518" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Euro 22 3 2 2" xfId="1613" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Euro 22 3 2 2" xfId="1612" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="Euro 22 4" xfId="519" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="Euro 22 4 2" xfId="1614" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Euro 22 4 2" xfId="1613" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
     <cellStyle name="Euro 22 5" xfId="520" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
     <cellStyle name="Euro 23" xfId="45" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
     <cellStyle name="Euro 23 2" xfId="521" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
     <cellStyle name="Euro 23 3" xfId="522" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
     <cellStyle name="Euro 23 3 2" xfId="523" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Euro 23 3 2 2" xfId="1615" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Euro 23 3 2 2" xfId="1614" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
     <cellStyle name="Euro 23 4" xfId="524" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Euro 23 4 2" xfId="1616" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Euro 23 4 2" xfId="1615" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
     <cellStyle name="Euro 23 5" xfId="525" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
     <cellStyle name="Euro 24" xfId="46" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
     <cellStyle name="Euro 24 2" xfId="526" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Euro 24 3" xfId="527" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
     <cellStyle name="Euro 24 3 2" xfId="528" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Euro 24 3 2 2" xfId="1617" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Euro 24 3 2 2" xfId="1616" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
     <cellStyle name="Euro 24 4" xfId="529" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="Euro 24 4 2" xfId="1618" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Euro 24 4 2" xfId="1617" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
     <cellStyle name="Euro 24 5" xfId="530" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
     <cellStyle name="Euro 25" xfId="47" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
     <cellStyle name="Euro 25 2" xfId="531" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
     <cellStyle name="Euro 25 3" xfId="532" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
     <cellStyle name="Euro 25 3 2" xfId="533" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Euro 25 3 2 2" xfId="1619" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Euro 25 3 2 2" xfId="1618" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
     <cellStyle name="Euro 25 4" xfId="534" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Euro 25 4 2" xfId="1620" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Euro 25 4 2" xfId="1619" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
     <cellStyle name="Euro 25 5" xfId="535" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
     <cellStyle name="Euro 26" xfId="48" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
     <cellStyle name="Euro 26 2" xfId="536" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="Euro 26 3" xfId="537" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
     <cellStyle name="Euro 26 3 2" xfId="538" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="Euro 26 3 2 2" xfId="1621" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Euro 26 3 2 2" xfId="1620" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
     <cellStyle name="Euro 26 4" xfId="539" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="Euro 26 4 2" xfId="1622" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Euro 26 4 2" xfId="1621" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Euro 26 5" xfId="540" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
     <cellStyle name="Euro 27" xfId="49" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
     <cellStyle name="Euro 27 2" xfId="541" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
     <cellStyle name="Euro 27 3" xfId="542" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
     <cellStyle name="Euro 27 3 2" xfId="543" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="Euro 27 3 2 2" xfId="1623" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Euro 27 3 2 2" xfId="1622" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
     <cellStyle name="Euro 27 4" xfId="544" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="Euro 27 4 2" xfId="1624" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Euro 27 4 2" xfId="1623" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
     <cellStyle name="Euro 27 5" xfId="545" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
     <cellStyle name="Euro 28" xfId="50" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
     <cellStyle name="Euro 28 2" xfId="546" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
     <cellStyle name="Euro 28 3" xfId="547" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
     <cellStyle name="Euro 28 3 2" xfId="548" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Euro 28 3 2 2" xfId="1625" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Euro 28 3 2 2" xfId="1624" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
     <cellStyle name="Euro 28 4" xfId="549" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="Euro 28 4 2" xfId="1626" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Euro 28 4 2" xfId="1625" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
     <cellStyle name="Euro 28 5" xfId="550" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
     <cellStyle name="Euro 29" xfId="51" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
     <cellStyle name="Euro 29 2" xfId="551" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
     <cellStyle name="Euro 29 3" xfId="552" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Euro 29 3 2" xfId="553" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="Euro 29 3 2 2" xfId="1627" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Euro 29 3 2 2" xfId="1626" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
     <cellStyle name="Euro 29 4" xfId="554" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="Euro 29 4 2" xfId="1628" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Euro 29 4 2" xfId="1627" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
     <cellStyle name="Euro 29 5" xfId="555" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
     <cellStyle name="Euro 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
     <cellStyle name="Euro 3 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="Euro 3 3" xfId="557" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
     <cellStyle name="Euro 3 3 2" xfId="558" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="Euro 3 3 2 2" xfId="1629" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Euro 3 3 2 2" xfId="1628" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
     <cellStyle name="Euro 3 4" xfId="559" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="Euro 3 4 2" xfId="1630" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Euro 3 4 2" xfId="1629" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
     <cellStyle name="Euro 3 5" xfId="560" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
     <cellStyle name="Euro 30" xfId="53" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
     <cellStyle name="Euro 30 2" xfId="561" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Euro 30 3" xfId="562" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Euro 30 3 2" xfId="563" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Euro 30 3 2 2" xfId="1631" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Euro 30 3 2 2" xfId="1630" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Euro 30 4" xfId="564" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="Euro 30 4 2" xfId="1632" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Euro 30 4 2" xfId="1631" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
     <cellStyle name="Euro 30 5" xfId="565" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Euro 31" xfId="54" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Euro 31 2" xfId="566" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
     <cellStyle name="Euro 31 3" xfId="567" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
     <cellStyle name="Euro 31 3 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="Euro 31 3 2 2" xfId="1633" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Euro 31 3 2 2" xfId="1632" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Euro 31 4" xfId="569" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="Euro 31 4 2" xfId="1634" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Euro 31 4 2" xfId="1633" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
     <cellStyle name="Euro 31 5" xfId="570" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
     <cellStyle name="Euro 32" xfId="55" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
     <cellStyle name="Euro 32 2" xfId="571" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
     <cellStyle name="Euro 32 3" xfId="572" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
     <cellStyle name="Euro 32 3 2" xfId="573" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="Euro 32 3 2 2" xfId="1635" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Euro 32 3 2 2" xfId="1634" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
     <cellStyle name="Euro 32 4" xfId="574" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="Euro 32 4 2" xfId="1636" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Euro 32 4 2" xfId="1635" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
     <cellStyle name="Euro 32 5" xfId="575" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
     <cellStyle name="Euro 33" xfId="56" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
     <cellStyle name="Euro 33 2" xfId="576" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
     <cellStyle name="Euro 33 3" xfId="577" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
     <cellStyle name="Euro 33 3 2" xfId="578" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Euro 33 3 2 2" xfId="1637" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Euro 33 3 2 2" xfId="1636" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
     <cellStyle name="Euro 33 4" xfId="579" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Euro 33 4 2" xfId="1638" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Euro 33 4 2" xfId="1637" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
     <cellStyle name="Euro 33 5" xfId="580" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
     <cellStyle name="Euro 34" xfId="57" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
     <cellStyle name="Euro 34 2" xfId="581" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
     <cellStyle name="Euro 34 3" xfId="582" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
     <cellStyle name="Euro 34 3 2" xfId="583" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Euro 34 3 2 2" xfId="1639" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Euro 34 3 2 2" xfId="1638" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
     <cellStyle name="Euro 34 4" xfId="584" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Euro 34 4 2" xfId="1640" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Euro 34 4 2" xfId="1639" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
     <cellStyle name="Euro 34 5" xfId="585" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
     <cellStyle name="Euro 35" xfId="58" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
     <cellStyle name="Euro 35 2" xfId="586" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
     <cellStyle name="Euro 35 3" xfId="587" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
     <cellStyle name="Euro 35 3 2" xfId="588" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Euro 35 3 2 2" xfId="1641" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Euro 35 3 2 2" xfId="1640" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
     <cellStyle name="Euro 35 4" xfId="589" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Euro 35 4 2" xfId="1642" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Euro 35 4 2" xfId="1641" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
     <cellStyle name="Euro 35 5" xfId="590" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
     <cellStyle name="Euro 36" xfId="59" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
     <cellStyle name="Euro 36 2" xfId="591" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
     <cellStyle name="Euro 36 3" xfId="592" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
     <cellStyle name="Euro 36 3 2" xfId="593" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Euro 36 3 2 2" xfId="1643" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Euro 36 3 2 2" xfId="1642" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
     <cellStyle name="Euro 36 4" xfId="594" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Euro 36 4 2" xfId="1644" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Euro 36 4 2" xfId="1643" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
     <cellStyle name="Euro 36 5" xfId="595" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
     <cellStyle name="Euro 37" xfId="60" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
     <cellStyle name="Euro 37 2" xfId="596" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
     <cellStyle name="Euro 37 3" xfId="597" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
     <cellStyle name="Euro 37 3 2" xfId="598" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Euro 37 3 2 2" xfId="1645" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Euro 37 3 2 2" xfId="1644" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
     <cellStyle name="Euro 37 4" xfId="599" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Euro 37 4 2" xfId="1646" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Euro 37 4 2" xfId="1645" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
     <cellStyle name="Euro 37 5" xfId="600" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
     <cellStyle name="Euro 38" xfId="61" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
     <cellStyle name="Euro 38 2" xfId="601" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
     <cellStyle name="Euro 38 3" xfId="602" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
     <cellStyle name="Euro 38 3 2" xfId="603" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Euro 38 3 2 2" xfId="1647" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Euro 38 3 2 2" xfId="1646" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
     <cellStyle name="Euro 38 4" xfId="604" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="Euro 38 4 2" xfId="1648" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Euro 38 4 2" xfId="1647" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
     <cellStyle name="Euro 38 5" xfId="605" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
     <cellStyle name="Euro 39" xfId="62" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
     <cellStyle name="Euro 39 2" xfId="606" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
     <cellStyle name="Euro 39 3" xfId="607" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
     <cellStyle name="Euro 39 3 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="Euro 39 3 2 2" xfId="1649" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Euro 39 3 2 2" xfId="1648" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
     <cellStyle name="Euro 39 4" xfId="609" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="Euro 39 4 2" xfId="1650" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Euro 39 4 2" xfId="1649" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
     <cellStyle name="Euro 39 5" xfId="610" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
     <cellStyle name="Euro 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
     <cellStyle name="Euro 4 2" xfId="611" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
     <cellStyle name="Euro 4 3" xfId="612" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
     <cellStyle name="Euro 4 3 2" xfId="613" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="Euro 4 3 2 2" xfId="1651" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Euro 4 3 2 2" xfId="1650" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
     <cellStyle name="Euro 4 4" xfId="614" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="Euro 4 4 2" xfId="1652" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Euro 4 4 2" xfId="1651" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
     <cellStyle name="Euro 4 5" xfId="615" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
     <cellStyle name="Euro 40" xfId="64" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
     <cellStyle name="Euro 40 2" xfId="616" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
     <cellStyle name="Euro 40 3" xfId="617" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
     <cellStyle name="Euro 40 3 2" xfId="618" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
-    <cellStyle name="Euro 40 3 2 2" xfId="1653" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Euro 40 3 2 2" xfId="1652" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
     <cellStyle name="Euro 40 4" xfId="619" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
-    <cellStyle name="Euro 40 4 2" xfId="1654" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Euro 40 4 2" xfId="1653" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
     <cellStyle name="Euro 40 5" xfId="620" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
     <cellStyle name="Euro 41" xfId="65" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
     <cellStyle name="Euro 41 2" xfId="621" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
     <cellStyle name="Euro 41 3" xfId="622" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
     <cellStyle name="Euro 41 3 2" xfId="623" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
-    <cellStyle name="Euro 41 3 2 2" xfId="1655" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Euro 41 3 2 2" xfId="1654" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
     <cellStyle name="Euro 41 4" xfId="624" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
-    <cellStyle name="Euro 41 4 2" xfId="1656" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Euro 41 4 2" xfId="1655" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
     <cellStyle name="Euro 41 5" xfId="625" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
     <cellStyle name="Euro 42" xfId="66" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
     <cellStyle name="Euro 42 2" xfId="626" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
     <cellStyle name="Euro 42 3" xfId="627" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
     <cellStyle name="Euro 42 3 2" xfId="628" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
-    <cellStyle name="Euro 42 3 2 2" xfId="1657" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Euro 42 3 2 2" xfId="1656" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
     <cellStyle name="Euro 42 4" xfId="629" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
-    <cellStyle name="Euro 42 4 2" xfId="1658" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Euro 42 4 2" xfId="1657" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
     <cellStyle name="Euro 42 5" xfId="630" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
     <cellStyle name="Euro 43" xfId="67" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
     <cellStyle name="Euro 43 2" xfId="631" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
     <cellStyle name="Euro 43 3" xfId="632" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
     <cellStyle name="Euro 43 3 2" xfId="633" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
-    <cellStyle name="Euro 43 3 2 2" xfId="1659" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Euro 43 3 2 2" xfId="1658" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
     <cellStyle name="Euro 43 4" xfId="634" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
-    <cellStyle name="Euro 43 4 2" xfId="1660" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Euro 43 4 2" xfId="1659" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
     <cellStyle name="Euro 43 5" xfId="635" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
     <cellStyle name="Euro 44" xfId="68" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
     <cellStyle name="Euro 44 2" xfId="636" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
     <cellStyle name="Euro 44 3" xfId="637" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
     <cellStyle name="Euro 44 3 2" xfId="638" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
-    <cellStyle name="Euro 44 3 2 2" xfId="1661" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Euro 44 3 2 2" xfId="1660" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
     <cellStyle name="Euro 44 4" xfId="639" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
-    <cellStyle name="Euro 44 4 2" xfId="1662" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Euro 44 4 2" xfId="1661" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
     <cellStyle name="Euro 44 5" xfId="640" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
     <cellStyle name="Euro 45" xfId="641" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
-    <cellStyle name="Euro 45 2" xfId="1663" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Euro 45 2" xfId="1662" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
     <cellStyle name="Euro 46" xfId="642" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
-    <cellStyle name="Euro 46 2" xfId="1664" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Euro 46 2" xfId="1663" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
     <cellStyle name="Euro 47" xfId="643" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
     <cellStyle name="Euro 47 2" xfId="644" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
-    <cellStyle name="Euro 47 2 2" xfId="1665" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Euro 47 2 2" xfId="1664" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
     <cellStyle name="Euro 48" xfId="645" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
     <cellStyle name="Euro 49" xfId="646" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
-    <cellStyle name="Euro 49 2" xfId="1666" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Euro 49 2" xfId="1665" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
     <cellStyle name="Euro 5" xfId="69" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
     <cellStyle name="Euro 5 2" xfId="647" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
     <cellStyle name="Euro 5 3" xfId="648" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
     <cellStyle name="Euro 5 3 2" xfId="649" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
-    <cellStyle name="Euro 5 3 2 2" xfId="1667" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Euro 5 3 2 2" xfId="1666" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
     <cellStyle name="Euro 5 4" xfId="650" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
-    <cellStyle name="Euro 5 4 2" xfId="1668" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Euro 5 4 2" xfId="1667" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
     <cellStyle name="Euro 5 5" xfId="651" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
     <cellStyle name="Euro 50" xfId="652" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
     <cellStyle name="Euro 6" xfId="70" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
     <cellStyle name="Euro 6 2" xfId="653" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
     <cellStyle name="Euro 6 3" xfId="654" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
     <cellStyle name="Euro 6 3 2" xfId="655" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
-    <cellStyle name="Euro 6 3 2 2" xfId="1669" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Euro 6 3 2 2" xfId="1668" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
     <cellStyle name="Euro 6 4" xfId="656" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
-    <cellStyle name="Euro 6 4 2" xfId="1670" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Euro 6 4 2" xfId="1669" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
     <cellStyle name="Euro 6 5" xfId="657" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
     <cellStyle name="Euro 7" xfId="71" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
     <cellStyle name="Euro 7 2" xfId="658" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
     <cellStyle name="Euro 7 3" xfId="659" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
     <cellStyle name="Euro 7 3 2" xfId="660" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
-    <cellStyle name="Euro 7 3 2 2" xfId="1671" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Euro 7 3 2 2" xfId="1670" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
     <cellStyle name="Euro 7 4" xfId="661" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
-    <cellStyle name="Euro 7 4 2" xfId="1672" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Euro 7 4 2" xfId="1671" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
     <cellStyle name="Euro 7 5" xfId="662" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
     <cellStyle name="Euro 8" xfId="72" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
     <cellStyle name="Euro 8 2" xfId="663" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
     <cellStyle name="Euro 8 3" xfId="664" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
     <cellStyle name="Euro 8 3 2" xfId="665" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
-    <cellStyle name="Euro 8 3 2 2" xfId="1673" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Euro 8 3 2 2" xfId="1672" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
     <cellStyle name="Euro 8 4" xfId="666" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
-    <cellStyle name="Euro 8 4 2" xfId="1674" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Euro 8 4 2" xfId="1673" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
     <cellStyle name="Euro 8 5" xfId="667" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
     <cellStyle name="Euro 9" xfId="73" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
     <cellStyle name="Euro 9 2" xfId="668" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
     <cellStyle name="Euro 9 3" xfId="669" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
     <cellStyle name="Euro 9 3 2" xfId="670" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
-    <cellStyle name="Euro 9 3 2 2" xfId="1675" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Euro 9 3 2 2" xfId="1674" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
     <cellStyle name="Euro 9 4" xfId="671" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
-    <cellStyle name="Euro 9 4 2" xfId="1676" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Euro 9 4 2" xfId="1675" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
     <cellStyle name="Euro 9 5" xfId="672" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
     <cellStyle name="Fixed2 - Type2" xfId="673" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
-    <cellStyle name="Good 2" xfId="1677" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Good 2" xfId="1676" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
     <cellStyle name="Hyperlink 2" xfId="674" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
     <cellStyle name="Input 2" xfId="74" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
     <cellStyle name="Input 2 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
-    <cellStyle name="Input 2 2 2" xfId="1678" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
-    <cellStyle name="Input 2 3" xfId="1679" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Input 2 2 2" xfId="1677" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Input 2 3" xfId="1678" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
     <cellStyle name="Input 3" xfId="675" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
-    <cellStyle name="Input 3 2" xfId="1680" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Input 3 2" xfId="1679" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
     <cellStyle name="InputCells" xfId="676" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
-    <cellStyle name="Komma 2" xfId="1681" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
-    <cellStyle name="Kontroller celle" xfId="1682" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
-    <cellStyle name="Markeringsfarve1" xfId="1683" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
-    <cellStyle name="Markeringsfarve2" xfId="1684" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
-    <cellStyle name="Markeringsfarve3" xfId="1685" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
-    <cellStyle name="Markeringsfarve4" xfId="1686" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
-    <cellStyle name="Markeringsfarve5" xfId="1687" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
-    <cellStyle name="Markeringsfarve6" xfId="1688" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Komma 2" xfId="1680" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Kontroller celle" xfId="1681" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Markeringsfarve1" xfId="1682" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Markeringsfarve2" xfId="1683" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Markeringsfarve3" xfId="1684" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Markeringsfarve4" xfId="1685" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Markeringsfarve5" xfId="1686" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Markeringsfarve6" xfId="1687" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
     <cellStyle name="Migliaia [0] 10" xfId="75" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
-    <cellStyle name="Migliaia [0] 10 2" xfId="1689" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
-    <cellStyle name="Migliaia [0] 10 2 2" xfId="1690" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
-    <cellStyle name="Migliaia [0] 10 3" xfId="1691" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Migliaia [0] 10 2" xfId="1688" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Migliaia [0] 10 2 2" xfId="1689" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Migliaia [0] 10 3" xfId="1690" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
     <cellStyle name="Migliaia [0] 11" xfId="76" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
-    <cellStyle name="Migliaia [0] 11 2" xfId="1692" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
-    <cellStyle name="Migliaia [0] 11 2 2" xfId="1693" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
-    <cellStyle name="Migliaia [0] 11 3" xfId="1694" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Migliaia [0] 11 2" xfId="1691" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Migliaia [0] 11 2 2" xfId="1692" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Migliaia [0] 11 3" xfId="1693" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
     <cellStyle name="Migliaia [0] 12" xfId="77" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
-    <cellStyle name="Migliaia [0] 12 2" xfId="1695" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="Migliaia [0] 12 2 2" xfId="1696" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
-    <cellStyle name="Migliaia [0] 12 3" xfId="1697" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Migliaia [0] 12 2" xfId="1694" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Migliaia [0] 12 2 2" xfId="1695" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Migliaia [0] 12 3" xfId="1696" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
     <cellStyle name="Migliaia [0] 13" xfId="78" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
-    <cellStyle name="Migliaia [0] 13 2" xfId="1698" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
-    <cellStyle name="Migliaia [0] 13 2 2" xfId="1699" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
-    <cellStyle name="Migliaia [0] 13 3" xfId="1700" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Migliaia [0] 13 2" xfId="1697" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Migliaia [0] 13 2 2" xfId="1698" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Migliaia [0] 13 3" xfId="1699" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
     <cellStyle name="Migliaia [0] 14" xfId="79" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
-    <cellStyle name="Migliaia [0] 14 2" xfId="1701" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
-    <cellStyle name="Migliaia [0] 14 2 2" xfId="1702" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
-    <cellStyle name="Migliaia [0] 14 3" xfId="1703" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Migliaia [0] 14 2" xfId="1700" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Migliaia [0] 14 2 2" xfId="1701" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Migliaia [0] 14 3" xfId="1702" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
     <cellStyle name="Migliaia [0] 15" xfId="80" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
-    <cellStyle name="Migliaia [0] 15 2" xfId="1704" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
-    <cellStyle name="Migliaia [0] 15 2 2" xfId="1705" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
-    <cellStyle name="Migliaia [0] 15 3" xfId="1706" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Migliaia [0] 15 2" xfId="1703" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Migliaia [0] 15 2 2" xfId="1704" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Migliaia [0] 15 3" xfId="1705" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
     <cellStyle name="Migliaia [0] 16" xfId="81" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
-    <cellStyle name="Migliaia [0] 16 2" xfId="1707" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
-    <cellStyle name="Migliaia [0] 16 2 2" xfId="1708" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
-    <cellStyle name="Migliaia [0] 16 3" xfId="1709" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Migliaia [0] 16 2" xfId="1706" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Migliaia [0] 16 2 2" xfId="1707" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Migliaia [0] 16 3" xfId="1708" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
     <cellStyle name="Migliaia [0] 17" xfId="82" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
-    <cellStyle name="Migliaia [0] 17 2" xfId="1710" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
-    <cellStyle name="Migliaia [0] 17 2 2" xfId="1711" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
-    <cellStyle name="Migliaia [0] 17 3" xfId="1712" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Migliaia [0] 17 2" xfId="1709" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Migliaia [0] 17 2 2" xfId="1710" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Migliaia [0] 17 3" xfId="1711" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
     <cellStyle name="Migliaia [0] 18" xfId="83" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
-    <cellStyle name="Migliaia [0] 18 2" xfId="1713" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
-    <cellStyle name="Migliaia [0] 18 2 2" xfId="1714" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
-    <cellStyle name="Migliaia [0] 18 3" xfId="1715" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Migliaia [0] 18 2" xfId="1712" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Migliaia [0] 18 2 2" xfId="1713" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Migliaia [0] 18 3" xfId="1714" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
     <cellStyle name="Migliaia [0] 19" xfId="84" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
-    <cellStyle name="Migliaia [0] 19 2" xfId="1716" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
-    <cellStyle name="Migliaia [0] 19 2 2" xfId="1717" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
-    <cellStyle name="Migliaia [0] 19 3" xfId="1718" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Migliaia [0] 19 2" xfId="1715" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Migliaia [0] 19 2 2" xfId="1716" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Migliaia [0] 19 3" xfId="1717" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
     <cellStyle name="Migliaia [0] 2" xfId="85" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
-    <cellStyle name="Migliaia [0] 2 2" xfId="1719" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
-    <cellStyle name="Migliaia [0] 2 2 2" xfId="1720" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
-    <cellStyle name="Migliaia [0] 2 3" xfId="1721" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Migliaia [0] 2 2" xfId="1718" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Migliaia [0] 2 2 2" xfId="1719" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Migliaia [0] 2 3" xfId="1720" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
     <cellStyle name="Migliaia [0] 20" xfId="86" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
-    <cellStyle name="Migliaia [0] 20 2" xfId="1722" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
-    <cellStyle name="Migliaia [0] 20 2 2" xfId="1723" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
-    <cellStyle name="Migliaia [0] 20 3" xfId="1724" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Migliaia [0] 20 2" xfId="1721" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Migliaia [0] 20 2 2" xfId="1722" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Migliaia [0] 20 3" xfId="1723" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
     <cellStyle name="Migliaia [0] 21" xfId="87" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
-    <cellStyle name="Migliaia [0] 21 2" xfId="1725" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
-    <cellStyle name="Migliaia [0] 21 2 2" xfId="1726" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
-    <cellStyle name="Migliaia [0] 21 3" xfId="1727" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Migliaia [0] 21 2" xfId="1724" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Migliaia [0] 21 2 2" xfId="1725" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Migliaia [0] 21 3" xfId="1726" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
     <cellStyle name="Migliaia [0] 22" xfId="88" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
-    <cellStyle name="Migliaia [0] 22 2" xfId="1728" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
-    <cellStyle name="Migliaia [0] 22 2 2" xfId="1729" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
-    <cellStyle name="Migliaia [0] 22 3" xfId="1730" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Migliaia [0] 22 2" xfId="1727" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Migliaia [0] 22 2 2" xfId="1728" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Migliaia [0] 22 3" xfId="1729" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
     <cellStyle name="Migliaia [0] 23" xfId="89" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
-    <cellStyle name="Migliaia [0] 23 2" xfId="1731" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
-    <cellStyle name="Migliaia [0] 23 2 2" xfId="1732" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
-    <cellStyle name="Migliaia [0] 23 3" xfId="1733" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Migliaia [0] 23 2" xfId="1730" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Migliaia [0] 23 2 2" xfId="1731" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Migliaia [0] 23 3" xfId="1732" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
     <cellStyle name="Migliaia [0] 24" xfId="90" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
-    <cellStyle name="Migliaia [0] 24 2" xfId="1734" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
-    <cellStyle name="Migliaia [0] 24 2 2" xfId="1735" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
-    <cellStyle name="Migliaia [0] 24 3" xfId="1736" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Migliaia [0] 24 2" xfId="1733" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Migliaia [0] 24 2 2" xfId="1734" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Migliaia [0] 24 3" xfId="1735" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
     <cellStyle name="Migliaia [0] 25" xfId="91" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
-    <cellStyle name="Migliaia [0] 25 2" xfId="1737" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
-    <cellStyle name="Migliaia [0] 25 2 2" xfId="1738" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
-    <cellStyle name="Migliaia [0] 25 3" xfId="1739" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Migliaia [0] 25 2" xfId="1736" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Migliaia [0] 25 2 2" xfId="1737" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Migliaia [0] 25 3" xfId="1738" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
     <cellStyle name="Migliaia [0] 26" xfId="92" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
-    <cellStyle name="Migliaia [0] 26 2" xfId="1740" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
-    <cellStyle name="Migliaia [0] 26 2 2" xfId="1741" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
-    <cellStyle name="Migliaia [0] 26 3" xfId="1742" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Migliaia [0] 26 2" xfId="1739" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Migliaia [0] 26 2 2" xfId="1740" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Migliaia [0] 26 3" xfId="1741" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
     <cellStyle name="Migliaia [0] 27" xfId="93" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
-    <cellStyle name="Migliaia [0] 27 2" xfId="1743" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
-    <cellStyle name="Migliaia [0] 27 2 2" xfId="1744" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
-    <cellStyle name="Migliaia [0] 27 3" xfId="1745" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Migliaia [0] 27 2" xfId="1742" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Migliaia [0] 27 2 2" xfId="1743" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Migliaia [0] 27 3" xfId="1744" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
     <cellStyle name="Migliaia [0] 28" xfId="94" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
-    <cellStyle name="Migliaia [0] 28 2" xfId="1746" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
-    <cellStyle name="Migliaia [0] 28 2 2" xfId="1747" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
-    <cellStyle name="Migliaia [0] 28 3" xfId="1748" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Migliaia [0] 28 2" xfId="1745" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Migliaia [0] 28 2 2" xfId="1746" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Migliaia [0] 28 3" xfId="1747" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
     <cellStyle name="Migliaia [0] 29" xfId="95" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
-    <cellStyle name="Migliaia [0] 29 2" xfId="1749" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
-    <cellStyle name="Migliaia [0] 29 2 2" xfId="1750" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
-    <cellStyle name="Migliaia [0] 29 3" xfId="1751" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Migliaia [0] 29 2" xfId="1748" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Migliaia [0] 29 2 2" xfId="1749" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Migliaia [0] 29 3" xfId="1750" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
     <cellStyle name="Migliaia [0] 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
-    <cellStyle name="Migliaia [0] 3 2" xfId="1752" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
-    <cellStyle name="Migliaia [0] 3 2 2" xfId="1753" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
-    <cellStyle name="Migliaia [0] 3 3" xfId="1754" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Migliaia [0] 3 2" xfId="1751" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Migliaia [0] 3 2 2" xfId="1752" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Migliaia [0] 3 3" xfId="1753" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
     <cellStyle name="Migliaia [0] 30" xfId="97" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
-    <cellStyle name="Migliaia [0] 30 2" xfId="1755" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
-    <cellStyle name="Migliaia [0] 30 2 2" xfId="1756" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
-    <cellStyle name="Migliaia [0] 30 3" xfId="1757" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Migliaia [0] 30 2" xfId="1754" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Migliaia [0] 30 2 2" xfId="1755" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Migliaia [0] 30 3" xfId="1756" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
     <cellStyle name="Migliaia [0] 31" xfId="98" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
-    <cellStyle name="Migliaia [0] 31 2" xfId="1758" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
-    <cellStyle name="Migliaia [0] 31 2 2" xfId="1759" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
-    <cellStyle name="Migliaia [0] 31 3" xfId="1760" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Migliaia [0] 31 2" xfId="1757" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Migliaia [0] 31 2 2" xfId="1758" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Migliaia [0] 31 3" xfId="1759" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
     <cellStyle name="Migliaia [0] 32" xfId="99" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
-    <cellStyle name="Migliaia [0] 32 2" xfId="1761" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
-    <cellStyle name="Migliaia [0] 32 2 2" xfId="1762" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
-    <cellStyle name="Migliaia [0] 32 3" xfId="1763" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Migliaia [0] 32 2" xfId="1760" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Migliaia [0] 32 2 2" xfId="1761" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Migliaia [0] 32 3" xfId="1762" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
     <cellStyle name="Migliaia [0] 33" xfId="100" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
-    <cellStyle name="Migliaia [0] 33 2" xfId="1764" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
-    <cellStyle name="Migliaia [0] 33 2 2" xfId="1765" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
-    <cellStyle name="Migliaia [0] 33 3" xfId="1766" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Migliaia [0] 33 2" xfId="1763" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Migliaia [0] 33 2 2" xfId="1764" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Migliaia [0] 33 3" xfId="1765" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
     <cellStyle name="Migliaia [0] 34" xfId="101" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
-    <cellStyle name="Migliaia [0] 34 2" xfId="1767" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
-    <cellStyle name="Migliaia [0] 34 2 2" xfId="1768" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
-    <cellStyle name="Migliaia [0] 34 3" xfId="1769" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Migliaia [0] 34 2" xfId="1766" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Migliaia [0] 34 2 2" xfId="1767" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Migliaia [0] 34 3" xfId="1768" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
     <cellStyle name="Migliaia [0] 35" xfId="102" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
-    <cellStyle name="Migliaia [0] 35 2" xfId="1770" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
-    <cellStyle name="Migliaia [0] 35 2 2" xfId="1771" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
-    <cellStyle name="Migliaia [0] 35 3" xfId="1772" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Migliaia [0] 35 2" xfId="1769" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Migliaia [0] 35 2 2" xfId="1770" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Migliaia [0] 35 3" xfId="1771" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
     <cellStyle name="Migliaia [0] 36" xfId="103" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
-    <cellStyle name="Migliaia [0] 36 2" xfId="1773" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
-    <cellStyle name="Migliaia [0] 36 2 2" xfId="1774" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
-    <cellStyle name="Migliaia [0] 36 3" xfId="1775" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Migliaia [0] 36 2" xfId="1772" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Migliaia [0] 36 2 2" xfId="1773" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Migliaia [0] 36 3" xfId="1774" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
     <cellStyle name="Migliaia [0] 37" xfId="104" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
-    <cellStyle name="Migliaia [0] 37 2" xfId="1776" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
-    <cellStyle name="Migliaia [0] 37 2 2" xfId="1777" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
-    <cellStyle name="Migliaia [0] 37 3" xfId="1778" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Migliaia [0] 37 2" xfId="1775" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Migliaia [0] 37 2 2" xfId="1776" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Migliaia [0] 37 3" xfId="1777" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
     <cellStyle name="Migliaia [0] 38" xfId="105" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
-    <cellStyle name="Migliaia [0] 38 2" xfId="1779" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
-    <cellStyle name="Migliaia [0] 38 2 2" xfId="1780" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
-    <cellStyle name="Migliaia [0] 38 3" xfId="1781" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Migliaia [0] 38 2" xfId="1778" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Migliaia [0] 38 2 2" xfId="1779" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Migliaia [0] 38 3" xfId="1780" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
     <cellStyle name="Migliaia [0] 39" xfId="106" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
-    <cellStyle name="Migliaia [0] 39 2" xfId="1782" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
-    <cellStyle name="Migliaia [0] 39 2 2" xfId="1783" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
-    <cellStyle name="Migliaia [0] 39 3" xfId="1784" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Migliaia [0] 39 2" xfId="1781" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Migliaia [0] 39 2 2" xfId="1782" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Migliaia [0] 39 3" xfId="1783" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
     <cellStyle name="Migliaia [0] 4" xfId="107" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
-    <cellStyle name="Migliaia [0] 4 2" xfId="1785" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
-    <cellStyle name="Migliaia [0] 4 2 2" xfId="1786" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
-    <cellStyle name="Migliaia [0] 4 3" xfId="1787" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Migliaia [0] 4 2" xfId="1784" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Migliaia [0] 4 2 2" xfId="1785" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Migliaia [0] 4 3" xfId="1786" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
     <cellStyle name="Migliaia [0] 40" xfId="108" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
-    <cellStyle name="Migliaia [0] 40 2" xfId="1788" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
-    <cellStyle name="Migliaia [0] 40 2 2" xfId="1789" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
-    <cellStyle name="Migliaia [0] 40 3" xfId="1790" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Migliaia [0] 40 2" xfId="1787" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Migliaia [0] 40 2 2" xfId="1788" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Migliaia [0] 40 3" xfId="1789" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
     <cellStyle name="Migliaia [0] 41" xfId="109" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
-    <cellStyle name="Migliaia [0] 41 2" xfId="1791" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
-    <cellStyle name="Migliaia [0] 41 2 2" xfId="1792" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
-    <cellStyle name="Migliaia [0] 41 3" xfId="1793" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Migliaia [0] 41 2" xfId="1790" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Migliaia [0] 41 2 2" xfId="1791" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Migliaia [0] 41 3" xfId="1792" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
     <cellStyle name="Migliaia [0] 42" xfId="110" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
-    <cellStyle name="Migliaia [0] 42 2" xfId="1794" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
-    <cellStyle name="Migliaia [0] 42 2 2" xfId="1795" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
-    <cellStyle name="Migliaia [0] 42 3" xfId="1796" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Migliaia [0] 42 2" xfId="1793" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Migliaia [0] 42 2 2" xfId="1794" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Migliaia [0] 42 3" xfId="1795" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
     <cellStyle name="Migliaia [0] 43" xfId="111" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
-    <cellStyle name="Migliaia [0] 43 2" xfId="1797" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
-    <cellStyle name="Migliaia [0] 43 2 2" xfId="1798" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
-    <cellStyle name="Migliaia [0] 43 3" xfId="1799" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Migliaia [0] 43 2" xfId="1796" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Migliaia [0] 43 2 2" xfId="1797" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Migliaia [0] 43 3" xfId="1798" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
     <cellStyle name="Migliaia [0] 44" xfId="112" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
-    <cellStyle name="Migliaia [0] 44 2" xfId="1800" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
-    <cellStyle name="Migliaia [0] 44 2 2" xfId="1801" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
-    <cellStyle name="Migliaia [0] 44 3" xfId="1802" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Migliaia [0] 44 2" xfId="1799" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Migliaia [0] 44 2 2" xfId="1800" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Migliaia [0] 44 3" xfId="1801" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
     <cellStyle name="Migliaia [0] 45" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
-    <cellStyle name="Migliaia [0] 45 2" xfId="1803" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
-    <cellStyle name="Migliaia [0] 45 2 2" xfId="1804" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
-    <cellStyle name="Migliaia [0] 45 3" xfId="1805" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Migliaia [0] 45 2" xfId="1802" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Migliaia [0] 45 2 2" xfId="1803" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Migliaia [0] 45 3" xfId="1804" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
     <cellStyle name="Migliaia [0] 46" xfId="114" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
-    <cellStyle name="Migliaia [0] 46 2" xfId="1806" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
-    <cellStyle name="Migliaia [0] 46 2 2" xfId="1807" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
-    <cellStyle name="Migliaia [0] 46 3" xfId="1808" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Migliaia [0] 46 2" xfId="1805" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Migliaia [0] 46 2 2" xfId="1806" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Migliaia [0] 46 3" xfId="1807" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
     <cellStyle name="Migliaia [0] 47" xfId="115" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
-    <cellStyle name="Migliaia [0] 47 2" xfId="1809" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
-    <cellStyle name="Migliaia [0] 47 2 2" xfId="1810" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
-    <cellStyle name="Migliaia [0] 47 3" xfId="1811" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Migliaia [0] 47 2" xfId="1808" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Migliaia [0] 47 2 2" xfId="1809" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Migliaia [0] 47 3" xfId="1810" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
     <cellStyle name="Migliaia [0] 48" xfId="116" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
-    <cellStyle name="Migliaia [0] 48 2" xfId="1812" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
-    <cellStyle name="Migliaia [0] 48 2 2" xfId="1813" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
-    <cellStyle name="Migliaia [0] 48 3" xfId="1814" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Migliaia [0] 48 2" xfId="1811" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Migliaia [0] 48 2 2" xfId="1812" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Migliaia [0] 48 3" xfId="1813" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
     <cellStyle name="Migliaia [0] 49" xfId="117" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
-    <cellStyle name="Migliaia [0] 49 2" xfId="1815" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
-    <cellStyle name="Migliaia [0] 49 2 2" xfId="1816" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
-    <cellStyle name="Migliaia [0] 49 3" xfId="1817" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Migliaia [0] 49 2" xfId="1814" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Migliaia [0] 49 2 2" xfId="1815" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Migliaia [0] 49 3" xfId="1816" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
     <cellStyle name="Migliaia [0] 5" xfId="118" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
-    <cellStyle name="Migliaia [0] 5 2" xfId="1818" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
-    <cellStyle name="Migliaia [0] 5 2 2" xfId="1819" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
-    <cellStyle name="Migliaia [0] 5 3" xfId="1820" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Migliaia [0] 5 2" xfId="1817" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Migliaia [0] 5 2 2" xfId="1818" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Migliaia [0] 5 3" xfId="1819" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
     <cellStyle name="Migliaia [0] 50" xfId="119" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
-    <cellStyle name="Migliaia [0] 50 2" xfId="1821" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
-    <cellStyle name="Migliaia [0] 50 2 2" xfId="1822" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
-    <cellStyle name="Migliaia [0] 50 3" xfId="1823" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Migliaia [0] 50 2" xfId="1820" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Migliaia [0] 50 2 2" xfId="1821" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Migliaia [0] 50 3" xfId="1822" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
     <cellStyle name="Migliaia [0] 51" xfId="120" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
-    <cellStyle name="Migliaia [0] 51 2" xfId="1824" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
-    <cellStyle name="Migliaia [0] 51 2 2" xfId="1825" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
-    <cellStyle name="Migliaia [0] 51 3" xfId="1826" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Migliaia [0] 51 2" xfId="1823" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Migliaia [0] 51 2 2" xfId="1824" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Migliaia [0] 51 3" xfId="1825" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
     <cellStyle name="Migliaia [0] 52" xfId="121" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
-    <cellStyle name="Migliaia [0] 52 2" xfId="1827" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
-    <cellStyle name="Migliaia [0] 52 2 2" xfId="1828" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
-    <cellStyle name="Migliaia [0] 52 3" xfId="1829" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Migliaia [0] 52 2" xfId="1826" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Migliaia [0] 52 2 2" xfId="1827" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Migliaia [0] 52 3" xfId="1828" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
     <cellStyle name="Migliaia [0] 53" xfId="122" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
-    <cellStyle name="Migliaia [0] 53 2" xfId="1830" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
-    <cellStyle name="Migliaia [0] 53 2 2" xfId="1831" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
-    <cellStyle name="Migliaia [0] 53 3" xfId="1832" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Migliaia [0] 53 2" xfId="1829" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Migliaia [0] 53 2 2" xfId="1830" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Migliaia [0] 53 3" xfId="1831" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
     <cellStyle name="Migliaia [0] 54" xfId="123" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
-    <cellStyle name="Migliaia [0] 54 2" xfId="1833" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
-    <cellStyle name="Migliaia [0] 54 2 2" xfId="1834" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
-    <cellStyle name="Migliaia [0] 54 3" xfId="1835" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Migliaia [0] 54 2" xfId="1832" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Migliaia [0] 54 2 2" xfId="1833" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Migliaia [0] 54 3" xfId="1834" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
     <cellStyle name="Migliaia [0] 55" xfId="124" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
-    <cellStyle name="Migliaia [0] 55 2" xfId="1836" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
-    <cellStyle name="Migliaia [0] 55 2 2" xfId="1837" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
-    <cellStyle name="Migliaia [0] 55 3" xfId="1838" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Migliaia [0] 55 2" xfId="1835" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Migliaia [0] 55 2 2" xfId="1836" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Migliaia [0] 55 3" xfId="1837" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
     <cellStyle name="Migliaia [0] 56" xfId="125" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
-    <cellStyle name="Migliaia [0] 56 2" xfId="1839" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
-    <cellStyle name="Migliaia [0] 56 2 2" xfId="1840" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
-    <cellStyle name="Migliaia [0] 56 3" xfId="1841" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Migliaia [0] 56 2" xfId="1838" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Migliaia [0] 56 2 2" xfId="1839" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Migliaia [0] 56 3" xfId="1840" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
     <cellStyle name="Migliaia [0] 57" xfId="126" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
-    <cellStyle name="Migliaia [0] 57 2" xfId="1842" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
-    <cellStyle name="Migliaia [0] 57 2 2" xfId="1843" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
-    <cellStyle name="Migliaia [0] 57 3" xfId="1844" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Migliaia [0] 57 2" xfId="1841" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Migliaia [0] 57 2 2" xfId="1842" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Migliaia [0] 57 3" xfId="1843" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
     <cellStyle name="Migliaia [0] 58" xfId="127" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
-    <cellStyle name="Migliaia [0] 58 2" xfId="1845" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
-    <cellStyle name="Migliaia [0] 58 2 2" xfId="1846" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
-    <cellStyle name="Migliaia [0] 58 3" xfId="1847" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Migliaia [0] 58 2" xfId="1844" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Migliaia [0] 58 2 2" xfId="1845" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Migliaia [0] 58 3" xfId="1846" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
     <cellStyle name="Migliaia [0] 59" xfId="128" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
-    <cellStyle name="Migliaia [0] 59 2" xfId="1848" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
-    <cellStyle name="Migliaia [0] 59 2 2" xfId="1849" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
-    <cellStyle name="Migliaia [0] 59 3" xfId="1850" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Migliaia [0] 59 2" xfId="1847" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Migliaia [0] 59 2 2" xfId="1848" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Migliaia [0] 59 3" xfId="1849" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
     <cellStyle name="Migliaia [0] 6" xfId="129" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
-    <cellStyle name="Migliaia [0] 6 2" xfId="1851" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
-    <cellStyle name="Migliaia [0] 6 2 2" xfId="1852" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
-    <cellStyle name="Migliaia [0] 6 3" xfId="1853" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Migliaia [0] 6 2" xfId="1850" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Migliaia [0] 6 2 2" xfId="1851" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Migliaia [0] 6 3" xfId="1852" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
     <cellStyle name="Migliaia [0] 7" xfId="130" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
-    <cellStyle name="Migliaia [0] 7 2" xfId="1854" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
-    <cellStyle name="Migliaia [0] 7 2 2" xfId="1855" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
-    <cellStyle name="Migliaia [0] 7 3" xfId="1856" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Migliaia [0] 7 2" xfId="1853" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Migliaia [0] 7 2 2" xfId="1854" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Migliaia [0] 7 3" xfId="1855" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
     <cellStyle name="Migliaia [0] 8" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
-    <cellStyle name="Migliaia [0] 8 2" xfId="1857" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
-    <cellStyle name="Migliaia [0] 8 2 2" xfId="1858" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
-    <cellStyle name="Migliaia [0] 8 3" xfId="1859" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Migliaia [0] 8 2" xfId="1856" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Migliaia [0] 8 2 2" xfId="1857" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Migliaia [0] 8 3" xfId="1858" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
     <cellStyle name="Migliaia [0] 9" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
-    <cellStyle name="Migliaia [0] 9 2" xfId="1860" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
-    <cellStyle name="Migliaia [0] 9 2 2" xfId="1861" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
-    <cellStyle name="Migliaia [0] 9 3" xfId="1862" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Migliaia [0] 9 2" xfId="1859" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Migliaia [0] 9 2 2" xfId="1860" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Migliaia [0] 9 3" xfId="1861" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
     <cellStyle name="Migliaia 10" xfId="133" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
     <cellStyle name="Migliaia 10 2" xfId="677" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
-    <cellStyle name="Migliaia 10 2 2" xfId="1863" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Migliaia 10 2 2" xfId="1862" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
     <cellStyle name="Migliaia 10 3" xfId="678" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
     <cellStyle name="Migliaia 10 3 2" xfId="679" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
-    <cellStyle name="Migliaia 10 3 2 2" xfId="1864" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Migliaia 10 3 2 2" xfId="1863" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
     <cellStyle name="Migliaia 10 4" xfId="680" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
-    <cellStyle name="Migliaia 10 4 2" xfId="1865" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Migliaia 10 4 2" xfId="1864" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
     <cellStyle name="Migliaia 10 5" xfId="681" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
     <cellStyle name="Migliaia 11" xfId="134" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
     <cellStyle name="Migliaia 11 2" xfId="682" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
-    <cellStyle name="Migliaia 11 2 2" xfId="1866" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Migliaia 11 2 2" xfId="1865" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
     <cellStyle name="Migliaia 11 3" xfId="683" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
     <cellStyle name="Migliaia 11 3 2" xfId="684" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
-    <cellStyle name="Migliaia 11 3 2 2" xfId="1867" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Migliaia 11 3 2 2" xfId="1866" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
     <cellStyle name="Migliaia 11 4" xfId="685" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
-    <cellStyle name="Migliaia 11 4 2" xfId="1868" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Migliaia 11 4 2" xfId="1867" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
     <cellStyle name="Migliaia 11 5" xfId="686" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
     <cellStyle name="Migliaia 12" xfId="135" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
     <cellStyle name="Migliaia 12 2" xfId="687" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
-    <cellStyle name="Migliaia 12 2 2" xfId="1869" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Migliaia 12 2 2" xfId="1868" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
     <cellStyle name="Migliaia 12 3" xfId="688" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
     <cellStyle name="Migliaia 12 3 2" xfId="689" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
-    <cellStyle name="Migliaia 12 3 2 2" xfId="1870" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Migliaia 12 3 2 2" xfId="1869" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
     <cellStyle name="Migliaia 12 4" xfId="690" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
-    <cellStyle name="Migliaia 12 4 2" xfId="1871" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Migliaia 12 4 2" xfId="1870" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
     <cellStyle name="Migliaia 12 5" xfId="691" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
     <cellStyle name="Migliaia 13" xfId="136" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
     <cellStyle name="Migliaia 13 2" xfId="692" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
-    <cellStyle name="Migliaia 13 2 2" xfId="1872" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Migliaia 13 2 2" xfId="1871" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
     <cellStyle name="Migliaia 13 3" xfId="693" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
     <cellStyle name="Migliaia 13 3 2" xfId="694" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
-    <cellStyle name="Migliaia 13 3 2 2" xfId="1873" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Migliaia 13 3 2 2" xfId="1872" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
     <cellStyle name="Migliaia 13 4" xfId="695" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
-    <cellStyle name="Migliaia 13 4 2" xfId="1874" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Migliaia 13 4 2" xfId="1873" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
     <cellStyle name="Migliaia 13 5" xfId="696" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
     <cellStyle name="Migliaia 14" xfId="137" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
     <cellStyle name="Migliaia 14 2" xfId="697" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
-    <cellStyle name="Migliaia 14 2 2" xfId="1875" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Migliaia 14 2 2" xfId="1874" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
     <cellStyle name="Migliaia 14 3" xfId="698" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
     <cellStyle name="Migliaia 14 3 2" xfId="699" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
-    <cellStyle name="Migliaia 14 3 2 2" xfId="1876" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Migliaia 14 3 2 2" xfId="1875" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
     <cellStyle name="Migliaia 14 4" xfId="700" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
-    <cellStyle name="Migliaia 14 4 2" xfId="1877" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Migliaia 14 4 2" xfId="1876" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
     <cellStyle name="Migliaia 14 5" xfId="701" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
     <cellStyle name="Migliaia 15" xfId="138" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
     <cellStyle name="Migliaia 15 2" xfId="702" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
-    <cellStyle name="Migliaia 15 2 2" xfId="1878" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Migliaia 15 2 2" xfId="1877" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
     <cellStyle name="Migliaia 15 3" xfId="703" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
     <cellStyle name="Migliaia 15 3 2" xfId="704" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
-    <cellStyle name="Migliaia 15 3 2 2" xfId="1879" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Migliaia 15 3 2 2" xfId="1878" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
     <cellStyle name="Migliaia 15 4" xfId="705" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
-    <cellStyle name="Migliaia 15 4 2" xfId="1880" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Migliaia 15 4 2" xfId="1879" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
     <cellStyle name="Migliaia 15 5" xfId="706" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
     <cellStyle name="Migliaia 16" xfId="139" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
     <cellStyle name="Migliaia 16 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
-    <cellStyle name="Migliaia 16 2 2" xfId="1881" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Migliaia 16 2 2" xfId="1880" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
     <cellStyle name="Migliaia 16 3" xfId="708" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
     <cellStyle name="Migliaia 16 3 2" xfId="709" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
-    <cellStyle name="Migliaia 16 3 2 2" xfId="1882" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Migliaia 16 3 2 2" xfId="1881" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
     <cellStyle name="Migliaia 16 4" xfId="710" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
-    <cellStyle name="Migliaia 16 4 2" xfId="1883" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Migliaia 16 4 2" xfId="1882" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
     <cellStyle name="Migliaia 16 5" xfId="711" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
     <cellStyle name="Migliaia 17" xfId="140" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
     <cellStyle name="Migliaia 17 2" xfId="712" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
-    <cellStyle name="Migliaia 17 2 2" xfId="1884" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Migliaia 17 2 2" xfId="1883" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
     <cellStyle name="Migliaia 17 3" xfId="713" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
     <cellStyle name="Migliaia 17 3 2" xfId="714" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
-    <cellStyle name="Migliaia 17 3 2 2" xfId="1885" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Migliaia 17 3 2 2" xfId="1884" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
     <cellStyle name="Migliaia 17 4" xfId="715" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
-    <cellStyle name="Migliaia 17 4 2" xfId="1886" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Migliaia 17 4 2" xfId="1885" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
     <cellStyle name="Migliaia 17 5" xfId="716" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
     <cellStyle name="Migliaia 18" xfId="141" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
     <cellStyle name="Migliaia 18 2" xfId="717" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
-    <cellStyle name="Migliaia 18 2 2" xfId="1887" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Migliaia 18 2 2" xfId="1886" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
     <cellStyle name="Migliaia 18 3" xfId="718" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
     <cellStyle name="Migliaia 18 3 2" xfId="719" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
-    <cellStyle name="Migliaia 18 3 2 2" xfId="1888" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Migliaia 18 3 2 2" xfId="1887" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
     <cellStyle name="Migliaia 18 4" xfId="720" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
-    <cellStyle name="Migliaia 18 4 2" xfId="1889" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Migliaia 18 4 2" xfId="1888" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
     <cellStyle name="Migliaia 18 5" xfId="721" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
     <cellStyle name="Migliaia 19" xfId="142" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
     <cellStyle name="Migliaia 19 2" xfId="722" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
-    <cellStyle name="Migliaia 19 2 2" xfId="1890" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Migliaia 19 2 2" xfId="1889" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
     <cellStyle name="Migliaia 19 3" xfId="723" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
     <cellStyle name="Migliaia 19 3 2" xfId="724" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
-    <cellStyle name="Migliaia 19 3 2 2" xfId="1891" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Migliaia 19 3 2 2" xfId="1890" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
     <cellStyle name="Migliaia 19 4" xfId="725" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
-    <cellStyle name="Migliaia 19 4 2" xfId="1892" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Migliaia 19 4 2" xfId="1891" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
     <cellStyle name="Migliaia 19 5" xfId="726" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="Migliaia 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
     <cellStyle name="Migliaia 2 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
-    <cellStyle name="Migliaia 2 2 2" xfId="1893" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
-    <cellStyle name="Migliaia 2 2 2 2" xfId="1894" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
-    <cellStyle name="Migliaia 2 2 3" xfId="1895" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Migliaia 2 2 2" xfId="1892" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Migliaia 2 2 2 2" xfId="1893" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Migliaia 2 2 3" xfId="1894" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
     <cellStyle name="Migliaia 2 3" xfId="145" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
-    <cellStyle name="Migliaia 2 3 2" xfId="1896" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
-    <cellStyle name="Migliaia 2 3 2 2" xfId="1897" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
-    <cellStyle name="Migliaia 2 3 3" xfId="1898" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Migliaia 2 3 2" xfId="1895" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Migliaia 2 3 2 2" xfId="1896" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Migliaia 2 3 3" xfId="1897" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Migliaia 2 4" xfId="727" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
     <cellStyle name="Migliaia 2 4 2" xfId="728" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
-    <cellStyle name="Migliaia 2 4 2 2" xfId="1899" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Migliaia 2 4 2 2" xfId="1898" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
     <cellStyle name="Migliaia 2 5" xfId="729" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
-    <cellStyle name="Migliaia 2 5 2" xfId="1900" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Migliaia 2 5 2" xfId="1899" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
     <cellStyle name="Migliaia 2 6" xfId="730" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
     <cellStyle name="Migliaia 2_Domestico_reg&amp;naz" xfId="146" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
     <cellStyle name="Migliaia 20" xfId="147" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
     <cellStyle name="Migliaia 20 2" xfId="731" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
-    <cellStyle name="Migliaia 20 2 2" xfId="1901" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Migliaia 20 2 2" xfId="1900" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
     <cellStyle name="Migliaia 20 3" xfId="732" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
     <cellStyle name="Migliaia 20 3 2" xfId="733" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
-    <cellStyle name="Migliaia 20 3 2 2" xfId="1902" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Migliaia 20 3 2 2" xfId="1901" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
     <cellStyle name="Migliaia 20 4" xfId="734" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
-    <cellStyle name="Migliaia 20 4 2" xfId="1903" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Migliaia 20 4 2" xfId="1902" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
     <cellStyle name="Migliaia 20 5" xfId="735" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
     <cellStyle name="Migliaia 21" xfId="148" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
     <cellStyle name="Migliaia 21 2" xfId="736" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
-    <cellStyle name="Migliaia 21 2 2" xfId="1904" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Migliaia 21 2 2" xfId="1903" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
     <cellStyle name="Migliaia 21 3" xfId="737" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
     <cellStyle name="Migliaia 21 3 2" xfId="738" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
-    <cellStyle name="Migliaia 21 3 2 2" xfId="1905" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Migliaia 21 3 2 2" xfId="1904" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
     <cellStyle name="Migliaia 21 4" xfId="739" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
-    <cellStyle name="Migliaia 21 4 2" xfId="1906" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Migliaia 21 4 2" xfId="1905" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
     <cellStyle name="Migliaia 21 5" xfId="740" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
     <cellStyle name="Migliaia 22" xfId="149" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
     <cellStyle name="Migliaia 22 2" xfId="741" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
-    <cellStyle name="Migliaia 22 2 2" xfId="1907" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Migliaia 22 2 2" xfId="1906" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
     <cellStyle name="Migliaia 22 3" xfId="742" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
     <cellStyle name="Migliaia 22 3 2" xfId="743" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
-    <cellStyle name="Migliaia 22 3 2 2" xfId="1908" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Migliaia 22 3 2 2" xfId="1907" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
     <cellStyle name="Migliaia 22 4" xfId="744" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
-    <cellStyle name="Migliaia 22 4 2" xfId="1909" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Migliaia 22 4 2" xfId="1908" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
     <cellStyle name="Migliaia 22 5" xfId="745" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
     <cellStyle name="Migliaia 23" xfId="150" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
     <cellStyle name="Migliaia 23 2" xfId="746" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
-    <cellStyle name="Migliaia 23 2 2" xfId="1910" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Migliaia 23 2 2" xfId="1909" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
     <cellStyle name="Migliaia 23 3" xfId="747" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
     <cellStyle name="Migliaia 23 3 2" xfId="748" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
-    <cellStyle name="Migliaia 23 3 2 2" xfId="1911" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Migliaia 23 3 2 2" xfId="1910" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
     <cellStyle name="Migliaia 23 4" xfId="749" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
-    <cellStyle name="Migliaia 23 4 2" xfId="1912" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Migliaia 23 4 2" xfId="1911" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
     <cellStyle name="Migliaia 23 5" xfId="750" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
     <cellStyle name="Migliaia 24" xfId="151" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
     <cellStyle name="Migliaia 24 2" xfId="751" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
-    <cellStyle name="Migliaia 24 2 2" xfId="1913" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Migliaia 24 2 2" xfId="1912" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
     <cellStyle name="Migliaia 24 3" xfId="752" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
     <cellStyle name="Migliaia 24 3 2" xfId="753" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
-    <cellStyle name="Migliaia 24 3 2 2" xfId="1914" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Migliaia 24 3 2 2" xfId="1913" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
     <cellStyle name="Migliaia 24 4" xfId="754" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
-    <cellStyle name="Migliaia 24 4 2" xfId="1915" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Migliaia 24 4 2" xfId="1914" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
     <cellStyle name="Migliaia 24 5" xfId="755" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
     <cellStyle name="Migliaia 25" xfId="152" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
     <cellStyle name="Migliaia 25 2" xfId="756" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
-    <cellStyle name="Migliaia 25 2 2" xfId="1916" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Migliaia 25 2 2" xfId="1915" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
     <cellStyle name="Migliaia 25 3" xfId="757" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
     <cellStyle name="Migliaia 25 3 2" xfId="758" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
-    <cellStyle name="Migliaia 25 3 2 2" xfId="1917" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Migliaia 25 3 2 2" xfId="1916" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
     <cellStyle name="Migliaia 25 4" xfId="759" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
-    <cellStyle name="Migliaia 25 4 2" xfId="1918" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Migliaia 25 4 2" xfId="1917" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
     <cellStyle name="Migliaia 25 5" xfId="760" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
     <cellStyle name="Migliaia 26" xfId="153" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
     <cellStyle name="Migliaia 26 2" xfId="761" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
-    <cellStyle name="Migliaia 26 2 2" xfId="1919" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Migliaia 26 2 2" xfId="1918" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
     <cellStyle name="Migliaia 26 3" xfId="762" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
     <cellStyle name="Migliaia 26 3 2" xfId="763" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
-    <cellStyle name="Migliaia 26 3 2 2" xfId="1920" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Migliaia 26 3 2 2" xfId="1919" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
     <cellStyle name="Migliaia 26 4" xfId="764" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
-    <cellStyle name="Migliaia 26 4 2" xfId="1921" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Migliaia 26 4 2" xfId="1920" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
     <cellStyle name="Migliaia 26 5" xfId="765" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
     <cellStyle name="Migliaia 27" xfId="154" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
     <cellStyle name="Migliaia 27 2" xfId="766" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
-    <cellStyle name="Migliaia 27 2 2" xfId="1922" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Migliaia 27 2 2" xfId="1921" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
     <cellStyle name="Migliaia 27 3" xfId="767" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
     <cellStyle name="Migliaia 27 3 2" xfId="768" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
-    <cellStyle name="Migliaia 27 3 2 2" xfId="1923" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Migliaia 27 3 2 2" xfId="1922" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
     <cellStyle name="Migliaia 27 4" xfId="769" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
-    <cellStyle name="Migliaia 27 4 2" xfId="1924" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Migliaia 27 4 2" xfId="1923" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
     <cellStyle name="Migliaia 27 5" xfId="770" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
     <cellStyle name="Migliaia 28" xfId="155" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
     <cellStyle name="Migliaia 28 2" xfId="771" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
-    <cellStyle name="Migliaia 28 2 2" xfId="1925" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Migliaia 28 2 2" xfId="1924" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
     <cellStyle name="Migliaia 28 3" xfId="772" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
     <cellStyle name="Migliaia 28 3 2" xfId="773" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
-    <cellStyle name="Migliaia 28 3 2 2" xfId="1926" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Migliaia 28 3 2 2" xfId="1925" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
     <cellStyle name="Migliaia 28 4" xfId="774" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
-    <cellStyle name="Migliaia 28 4 2" xfId="1927" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Migliaia 28 4 2" xfId="1926" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
     <cellStyle name="Migliaia 28 5" xfId="775" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
     <cellStyle name="Migliaia 29" xfId="156" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
     <cellStyle name="Migliaia 29 2" xfId="776" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
-    <cellStyle name="Migliaia 29 2 2" xfId="1928" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Migliaia 29 2 2" xfId="1927" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
     <cellStyle name="Migliaia 29 3" xfId="777" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
     <cellStyle name="Migliaia 29 3 2" xfId="778" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
-    <cellStyle name="Migliaia 29 3 2 2" xfId="1929" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Migliaia 29 3 2 2" xfId="1928" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
     <cellStyle name="Migliaia 29 4" xfId="779" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
-    <cellStyle name="Migliaia 29 4 2" xfId="1930" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Migliaia 29 4 2" xfId="1929" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
     <cellStyle name="Migliaia 29 5" xfId="780" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
     <cellStyle name="Migliaia 3" xfId="157" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
     <cellStyle name="Migliaia 3 2" xfId="781" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
-    <cellStyle name="Migliaia 3 2 2" xfId="1931" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Migliaia 3 2 2" xfId="1930" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
     <cellStyle name="Migliaia 3 3" xfId="782" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
     <cellStyle name="Migliaia 3 3 2" xfId="783" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
-    <cellStyle name="Migliaia 3 3 2 2" xfId="1932" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Migliaia 3 3 2 2" xfId="1931" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
     <cellStyle name="Migliaia 3 4" xfId="784" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
-    <cellStyle name="Migliaia 3 4 2" xfId="1933" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Migliaia 3 4 2" xfId="1932" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
     <cellStyle name="Migliaia 3 5" xfId="785" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
     <cellStyle name="Migliaia 30" xfId="158" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
     <cellStyle name="Migliaia 30 2" xfId="786" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
-    <cellStyle name="Migliaia 30 2 2" xfId="1934" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Migliaia 30 2 2" xfId="1933" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
     <cellStyle name="Migliaia 30 3" xfId="787" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
     <cellStyle name="Migliaia 30 3 2" xfId="788" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
-    <cellStyle name="Migliaia 30 3 2 2" xfId="1935" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Migliaia 30 3 2 2" xfId="1934" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
     <cellStyle name="Migliaia 30 4" xfId="789" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
-    <cellStyle name="Migliaia 30 4 2" xfId="1936" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Migliaia 30 4 2" xfId="1935" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
     <cellStyle name="Migliaia 30 5" xfId="790" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
     <cellStyle name="Migliaia 31" xfId="159" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
     <cellStyle name="Migliaia 31 2" xfId="791" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
-    <cellStyle name="Migliaia 31 2 2" xfId="1937" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Migliaia 31 2 2" xfId="1936" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
     <cellStyle name="Migliaia 31 3" xfId="792" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
     <cellStyle name="Migliaia 31 3 2" xfId="793" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
-    <cellStyle name="Migliaia 31 3 2 2" xfId="1938" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Migliaia 31 3 2 2" xfId="1937" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
     <cellStyle name="Migliaia 31 4" xfId="794" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
-    <cellStyle name="Migliaia 31 4 2" xfId="1939" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Migliaia 31 4 2" xfId="1938" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
     <cellStyle name="Migliaia 31 5" xfId="795" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
     <cellStyle name="Migliaia 32" xfId="160" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
     <cellStyle name="Migliaia 32 2" xfId="796" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
-    <cellStyle name="Migliaia 32 2 2" xfId="1940" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Migliaia 32 2 2" xfId="1939" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
     <cellStyle name="Migliaia 32 3" xfId="797" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
     <cellStyle name="Migliaia 32 3 2" xfId="798" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
-    <cellStyle name="Migliaia 32 3 2 2" xfId="1941" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Migliaia 32 3 2 2" xfId="1940" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
     <cellStyle name="Migliaia 32 4" xfId="799" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
-    <cellStyle name="Migliaia 32 4 2" xfId="1942" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Migliaia 32 4 2" xfId="1941" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
     <cellStyle name="Migliaia 32 5" xfId="800" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
     <cellStyle name="Migliaia 33" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
     <cellStyle name="Migliaia 33 2" xfId="801" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
-    <cellStyle name="Migliaia 33 2 2" xfId="1943" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Migliaia 33 2 2" xfId="1942" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
     <cellStyle name="Migliaia 33 3" xfId="802" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
     <cellStyle name="Migliaia 33 3 2" xfId="803" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
-    <cellStyle name="Migliaia 33 3 2 2" xfId="1944" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Migliaia 33 3 2 2" xfId="1943" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
     <cellStyle name="Migliaia 33 4" xfId="804" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
-    <cellStyle name="Migliaia 33 4 2" xfId="1945" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Migliaia 33 4 2" xfId="1944" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
     <cellStyle name="Migliaia 33 5" xfId="805" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
     <cellStyle name="Migliaia 34" xfId="162" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
     <cellStyle name="Migliaia 34 2" xfId="806" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
-    <cellStyle name="Migliaia 34 2 2" xfId="1946" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Migliaia 34 2 2" xfId="1945" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
     <cellStyle name="Migliaia 34 3" xfId="807" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
     <cellStyle name="Migliaia 34 3 2" xfId="808" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
-    <cellStyle name="Migliaia 34 3 2 2" xfId="1947" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Migliaia 34 3 2 2" xfId="1946" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
     <cellStyle name="Migliaia 34 4" xfId="809" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
-    <cellStyle name="Migliaia 34 4 2" xfId="1948" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Migliaia 34 4 2" xfId="1947" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
     <cellStyle name="Migliaia 34 5" xfId="810" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
     <cellStyle name="Migliaia 35" xfId="163" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
     <cellStyle name="Migliaia 35 2" xfId="811" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
-    <cellStyle name="Migliaia 35 2 2" xfId="1949" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Migliaia 35 2 2" xfId="1948" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
     <cellStyle name="Migliaia 35 3" xfId="812" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
     <cellStyle name="Migliaia 35 3 2" xfId="813" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
-    <cellStyle name="Migliaia 35 3 2 2" xfId="1950" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Migliaia 35 3 2 2" xfId="1949" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
     <cellStyle name="Migliaia 35 4" xfId="814" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
-    <cellStyle name="Migliaia 35 4 2" xfId="1951" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Migliaia 35 4 2" xfId="1950" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
     <cellStyle name="Migliaia 35 5" xfId="815" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
     <cellStyle name="Migliaia 36" xfId="164" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
     <cellStyle name="Migliaia 36 2" xfId="816" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
-    <cellStyle name="Migliaia 36 2 2" xfId="1952" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Migliaia 36 2 2" xfId="1951" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
     <cellStyle name="Migliaia 36 3" xfId="817" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
     <cellStyle name="Migliaia 36 3 2" xfId="818" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
-    <cellStyle name="Migliaia 36 3 2 2" xfId="1953" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Migliaia 36 3 2 2" xfId="1952" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
     <cellStyle name="Migliaia 36 4" xfId="819" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
-    <cellStyle name="Migliaia 36 4 2" xfId="1954" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Migliaia 36 4 2" xfId="1953" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
     <cellStyle name="Migliaia 36 5" xfId="820" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
     <cellStyle name="Migliaia 37" xfId="165" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
     <cellStyle name="Migliaia 37 2" xfId="821" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
-    <cellStyle name="Migliaia 37 2 2" xfId="1955" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Migliaia 37 2 2" xfId="1954" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
     <cellStyle name="Migliaia 37 3" xfId="822" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
     <cellStyle name="Migliaia 37 3 2" xfId="823" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
-    <cellStyle name="Migliaia 37 3 2 2" xfId="1956" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Migliaia 37 3 2 2" xfId="1955" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
     <cellStyle name="Migliaia 37 4" xfId="824" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
-    <cellStyle name="Migliaia 37 4 2" xfId="1957" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Migliaia 37 4 2" xfId="1956" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
     <cellStyle name="Migliaia 37 5" xfId="825" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
     <cellStyle name="Migliaia 38" xfId="166" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
     <cellStyle name="Migliaia 38 2" xfId="826" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
-    <cellStyle name="Migliaia 38 2 2" xfId="1958" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Migliaia 38 2 2" xfId="1957" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
     <cellStyle name="Migliaia 38 3" xfId="827" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
     <cellStyle name="Migliaia 38 3 2" xfId="828" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
-    <cellStyle name="Migliaia 38 3 2 2" xfId="1959" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Migliaia 38 3 2 2" xfId="1958" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
     <cellStyle name="Migliaia 38 4" xfId="829" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
-    <cellStyle name="Migliaia 38 4 2" xfId="1960" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Migliaia 38 4 2" xfId="1959" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
     <cellStyle name="Migliaia 38 5" xfId="830" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
     <cellStyle name="Migliaia 39" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
     <cellStyle name="Migliaia 39 2" xfId="831" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
-    <cellStyle name="Migliaia 39 2 2" xfId="1961" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Migliaia 39 2 2" xfId="1960" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
     <cellStyle name="Migliaia 39 3" xfId="832" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
     <cellStyle name="Migliaia 39 3 2" xfId="833" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
-    <cellStyle name="Migliaia 39 3 2 2" xfId="1962" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Migliaia 39 3 2 2" xfId="1961" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
     <cellStyle name="Migliaia 39 4" xfId="834" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
-    <cellStyle name="Migliaia 39 4 2" xfId="1963" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Migliaia 39 4 2" xfId="1962" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
     <cellStyle name="Migliaia 39 5" xfId="835" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
     <cellStyle name="Migliaia 4" xfId="168" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
     <cellStyle name="Migliaia 4 2" xfId="836" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
-    <cellStyle name="Migliaia 4 2 2" xfId="1964" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Migliaia 4 2 2" xfId="1963" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
     <cellStyle name="Migliaia 4 3" xfId="837" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
     <cellStyle name="Migliaia 4 3 2" xfId="838" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
-    <cellStyle name="Migliaia 4 3 2 2" xfId="1965" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Migliaia 4 3 2 2" xfId="1964" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
     <cellStyle name="Migliaia 4 4" xfId="839" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
-    <cellStyle name="Migliaia 4 4 2" xfId="1966" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Migliaia 4 4 2" xfId="1965" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
     <cellStyle name="Migliaia 4 5" xfId="840" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
     <cellStyle name="Migliaia 40" xfId="169" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
     <cellStyle name="Migliaia 40 2" xfId="841" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
-    <cellStyle name="Migliaia 40 2 2" xfId="1967" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Migliaia 40 2 2" xfId="1966" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
     <cellStyle name="Migliaia 40 3" xfId="842" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
     <cellStyle name="Migliaia 40 3 2" xfId="843" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
-    <cellStyle name="Migliaia 40 3 2 2" xfId="1968" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Migliaia 40 3 2 2" xfId="1967" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
     <cellStyle name="Migliaia 40 4" xfId="844" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
-    <cellStyle name="Migliaia 40 4 2" xfId="1969" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Migliaia 40 4 2" xfId="1968" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
     <cellStyle name="Migliaia 40 5" xfId="845" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
     <cellStyle name="Migliaia 41" xfId="170" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
     <cellStyle name="Migliaia 41 2" xfId="846" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
-    <cellStyle name="Migliaia 41 2 2" xfId="1970" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Migliaia 41 2 2" xfId="1969" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
     <cellStyle name="Migliaia 41 3" xfId="847" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
     <cellStyle name="Migliaia 41 3 2" xfId="848" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
-    <cellStyle name="Migliaia 41 3 2 2" xfId="1971" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Migliaia 41 3 2 2" xfId="1970" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
     <cellStyle name="Migliaia 41 4" xfId="849" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
-    <cellStyle name="Migliaia 41 4 2" xfId="1972" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Migliaia 41 4 2" xfId="1971" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
     <cellStyle name="Migliaia 41 5" xfId="850" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
     <cellStyle name="Migliaia 42" xfId="171" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
     <cellStyle name="Migliaia 42 2" xfId="851" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
-    <cellStyle name="Migliaia 42 2 2" xfId="1973" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Migliaia 42 2 2" xfId="1972" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
     <cellStyle name="Migliaia 42 3" xfId="852" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
     <cellStyle name="Migliaia 42 3 2" xfId="853" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
-    <cellStyle name="Migliaia 42 3 2 2" xfId="1974" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Migliaia 42 3 2 2" xfId="1973" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
     <cellStyle name="Migliaia 42 4" xfId="854" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
-    <cellStyle name="Migliaia 42 4 2" xfId="1975" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Migliaia 42 4 2" xfId="1974" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
     <cellStyle name="Migliaia 42 5" xfId="855" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
     <cellStyle name="Migliaia 43" xfId="172" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
     <cellStyle name="Migliaia 43 2" xfId="856" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
-    <cellStyle name="Migliaia 43 2 2" xfId="1976" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Migliaia 43 2 2" xfId="1975" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
     <cellStyle name="Migliaia 43 3" xfId="857" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
     <cellStyle name="Migliaia 43 3 2" xfId="858" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
-    <cellStyle name="Migliaia 43 3 2 2" xfId="1977" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Migliaia 43 3 2 2" xfId="1976" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
     <cellStyle name="Migliaia 43 4" xfId="859" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
-    <cellStyle name="Migliaia 43 4 2" xfId="1978" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Migliaia 43 4 2" xfId="1977" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
     <cellStyle name="Migliaia 43 5" xfId="860" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
     <cellStyle name="Migliaia 44" xfId="173" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
     <cellStyle name="Migliaia 44 2" xfId="861" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
-    <cellStyle name="Migliaia 44 2 2" xfId="1979" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Migliaia 44 2 2" xfId="1978" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
     <cellStyle name="Migliaia 44 3" xfId="862" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
     <cellStyle name="Migliaia 44 3 2" xfId="863" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
-    <cellStyle name="Migliaia 44 3 2 2" xfId="1980" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Migliaia 44 3 2 2" xfId="1979" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
     <cellStyle name="Migliaia 44 4" xfId="864" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
-    <cellStyle name="Migliaia 44 4 2" xfId="1981" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Migliaia 44 4 2" xfId="1980" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
     <cellStyle name="Migliaia 44 5" xfId="865" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
     <cellStyle name="Migliaia 45" xfId="174" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
     <cellStyle name="Migliaia 45 2" xfId="866" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
-    <cellStyle name="Migliaia 45 2 2" xfId="1982" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Migliaia 45 2 2" xfId="1981" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
     <cellStyle name="Migliaia 45 3" xfId="867" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
     <cellStyle name="Migliaia 45 3 2" xfId="868" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
-    <cellStyle name="Migliaia 45 3 2 2" xfId="1983" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Migliaia 45 3 2 2" xfId="1982" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
     <cellStyle name="Migliaia 45 4" xfId="869" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
-    <cellStyle name="Migliaia 45 4 2" xfId="1984" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Migliaia 45 4 2" xfId="1983" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
     <cellStyle name="Migliaia 45 5" xfId="870" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
     <cellStyle name="Migliaia 46" xfId="175" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
     <cellStyle name="Migliaia 46 2" xfId="871" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
-    <cellStyle name="Migliaia 46 2 2" xfId="1985" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Migliaia 46 2 2" xfId="1984" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
     <cellStyle name="Migliaia 46 3" xfId="872" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
     <cellStyle name="Migliaia 46 3 2" xfId="873" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
-    <cellStyle name="Migliaia 46 3 2 2" xfId="1986" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Migliaia 46 3 2 2" xfId="1985" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
     <cellStyle name="Migliaia 46 4" xfId="874" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
-    <cellStyle name="Migliaia 46 4 2" xfId="1987" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Migliaia 46 4 2" xfId="1986" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
     <cellStyle name="Migliaia 46 5" xfId="875" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
     <cellStyle name="Migliaia 47" xfId="176" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
     <cellStyle name="Migliaia 47 2" xfId="876" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
-    <cellStyle name="Migliaia 47 2 2" xfId="1988" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Migliaia 47 2 2" xfId="1987" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
     <cellStyle name="Migliaia 47 3" xfId="877" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
     <cellStyle name="Migliaia 47 3 2" xfId="878" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
-    <cellStyle name="Migliaia 47 3 2 2" xfId="1989" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Migliaia 47 3 2 2" xfId="1988" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
     <cellStyle name="Migliaia 47 4" xfId="879" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
-    <cellStyle name="Migliaia 47 4 2" xfId="1990" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Migliaia 47 4 2" xfId="1989" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
     <cellStyle name="Migliaia 47 5" xfId="880" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
     <cellStyle name="Migliaia 48" xfId="177" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
     <cellStyle name="Migliaia 48 2" xfId="881" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
-    <cellStyle name="Migliaia 48 2 2" xfId="1991" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Migliaia 48 2 2" xfId="1990" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
     <cellStyle name="Migliaia 48 3" xfId="882" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
     <cellStyle name="Migliaia 48 3 2" xfId="883" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
-    <cellStyle name="Migliaia 48 3 2 2" xfId="1992" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Migliaia 48 3 2 2" xfId="1991" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
     <cellStyle name="Migliaia 48 4" xfId="884" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
-    <cellStyle name="Migliaia 48 4 2" xfId="1993" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Migliaia 48 4 2" xfId="1992" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
     <cellStyle name="Migliaia 48 5" xfId="885" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
     <cellStyle name="Migliaia 49" xfId="178" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
     <cellStyle name="Migliaia 49 2" xfId="886" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
-    <cellStyle name="Migliaia 49 2 2" xfId="1994" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Migliaia 49 2 2" xfId="1993" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
     <cellStyle name="Migliaia 49 3" xfId="887" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
     <cellStyle name="Migliaia 49 3 2" xfId="888" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
-    <cellStyle name="Migliaia 49 3 2 2" xfId="1995" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Migliaia 49 3 2 2" xfId="1994" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
     <cellStyle name="Migliaia 49 4" xfId="889" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
-    <cellStyle name="Migliaia 49 4 2" xfId="1996" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Migliaia 49 4 2" xfId="1995" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
     <cellStyle name="Migliaia 49 5" xfId="890" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
     <cellStyle name="Migliaia 5" xfId="179" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
     <cellStyle name="Migliaia 5 2" xfId="891" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
-    <cellStyle name="Migliaia 5 2 2" xfId="1997" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Migliaia 5 2 2" xfId="1996" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
     <cellStyle name="Migliaia 5 3" xfId="892" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
     <cellStyle name="Migliaia 5 3 2" xfId="893" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
-    <cellStyle name="Migliaia 5 3 2 2" xfId="1998" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Migliaia 5 3 2 2" xfId="1997" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
     <cellStyle name="Migliaia 5 4" xfId="894" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
-    <cellStyle name="Migliaia 5 4 2" xfId="1999" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Migliaia 5 4 2" xfId="1998" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
     <cellStyle name="Migliaia 5 5" xfId="895" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
     <cellStyle name="Migliaia 50" xfId="180" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
     <cellStyle name="Migliaia 50 2" xfId="896" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
-    <cellStyle name="Migliaia 50 2 2" xfId="2000" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Migliaia 50 2 2" xfId="1999" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
     <cellStyle name="Migliaia 50 3" xfId="897" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
     <cellStyle name="Migliaia 50 3 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
-    <cellStyle name="Migliaia 50 3 2 2" xfId="2001" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Migliaia 50 3 2 2" xfId="2000" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
     <cellStyle name="Migliaia 50 4" xfId="899" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
-    <cellStyle name="Migliaia 50 4 2" xfId="2002" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Migliaia 50 4 2" xfId="2001" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
     <cellStyle name="Migliaia 50 5" xfId="900" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
     <cellStyle name="Migliaia 51" xfId="181" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
     <cellStyle name="Migliaia 51 2" xfId="901" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
-    <cellStyle name="Migliaia 51 2 2" xfId="2003" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Migliaia 51 2 2" xfId="2002" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
     <cellStyle name="Migliaia 51 3" xfId="902" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
     <cellStyle name="Migliaia 51 3 2" xfId="903" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
-    <cellStyle name="Migliaia 51 3 2 2" xfId="2004" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Migliaia 51 3 2 2" xfId="2003" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
     <cellStyle name="Migliaia 51 4" xfId="904" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
-    <cellStyle name="Migliaia 51 4 2" xfId="2005" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Migliaia 51 4 2" xfId="2004" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
     <cellStyle name="Migliaia 51 5" xfId="905" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
     <cellStyle name="Migliaia 52" xfId="182" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
     <cellStyle name="Migliaia 52 2" xfId="906" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
-    <cellStyle name="Migliaia 52 2 2" xfId="2006" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Migliaia 52 2 2" xfId="2005" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
     <cellStyle name="Migliaia 52 3" xfId="907" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
     <cellStyle name="Migliaia 52 3 2" xfId="908" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
-    <cellStyle name="Migliaia 52 3 2 2" xfId="2007" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Migliaia 52 3 2 2" xfId="2006" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
     <cellStyle name="Migliaia 52 4" xfId="909" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
-    <cellStyle name="Migliaia 52 4 2" xfId="2008" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Migliaia 52 4 2" xfId="2007" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
     <cellStyle name="Migliaia 52 5" xfId="910" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
     <cellStyle name="Migliaia 53" xfId="183" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
     <cellStyle name="Migliaia 53 2" xfId="911" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
-    <cellStyle name="Migliaia 53 2 2" xfId="2009" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Migliaia 53 2 2" xfId="2008" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
     <cellStyle name="Migliaia 53 3" xfId="912" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
     <cellStyle name="Migliaia 53 3 2" xfId="913" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
-    <cellStyle name="Migliaia 53 3 2 2" xfId="2010" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Migliaia 53 3 2 2" xfId="2009" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
     <cellStyle name="Migliaia 53 4" xfId="914" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
-    <cellStyle name="Migliaia 53 4 2" xfId="2011" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Migliaia 53 4 2" xfId="2010" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
     <cellStyle name="Migliaia 53 5" xfId="915" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
     <cellStyle name="Migliaia 54" xfId="184" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
     <cellStyle name="Migliaia 54 2" xfId="916" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
-    <cellStyle name="Migliaia 54 2 2" xfId="2012" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Migliaia 54 2 2" xfId="2011" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
     <cellStyle name="Migliaia 54 3" xfId="917" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
     <cellStyle name="Migliaia 54 3 2" xfId="918" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
-    <cellStyle name="Migliaia 54 3 2 2" xfId="2013" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Migliaia 54 3 2 2" xfId="2012" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
     <cellStyle name="Migliaia 54 4" xfId="919" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
-    <cellStyle name="Migliaia 54 4 2" xfId="2014" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Migliaia 54 4 2" xfId="2013" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
     <cellStyle name="Migliaia 54 5" xfId="920" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
     <cellStyle name="Migliaia 55" xfId="185" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
     <cellStyle name="Migliaia 55 2" xfId="921" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
-    <cellStyle name="Migliaia 55 2 2" xfId="2015" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Migliaia 55 2 2" xfId="2014" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
     <cellStyle name="Migliaia 55 3" xfId="922" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
     <cellStyle name="Migliaia 55 3 2" xfId="923" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
-    <cellStyle name="Migliaia 55 3 2 2" xfId="2016" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Migliaia 55 3 2 2" xfId="2015" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
     <cellStyle name="Migliaia 55 4" xfId="924" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
-    <cellStyle name="Migliaia 55 4 2" xfId="2017" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Migliaia 55 4 2" xfId="2016" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
     <cellStyle name="Migliaia 55 5" xfId="925" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
     <cellStyle name="Migliaia 56" xfId="186" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
     <cellStyle name="Migliaia 56 2" xfId="926" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
-    <cellStyle name="Migliaia 56 2 2" xfId="2018" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Migliaia 56 2 2" xfId="2017" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
     <cellStyle name="Migliaia 56 3" xfId="927" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
     <cellStyle name="Migliaia 56 3 2" xfId="928" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
-    <cellStyle name="Migliaia 56 3 2 2" xfId="2019" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Migliaia 56 3 2 2" xfId="2018" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
     <cellStyle name="Migliaia 56 4" xfId="929" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
-    <cellStyle name="Migliaia 56 4 2" xfId="2020" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Migliaia 56 4 2" xfId="2019" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
     <cellStyle name="Migliaia 56 5" xfId="930" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
     <cellStyle name="Migliaia 57" xfId="187" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
     <cellStyle name="Migliaia 57 2" xfId="931" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
-    <cellStyle name="Migliaia 57 2 2" xfId="2021" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Migliaia 57 2 2" xfId="2020" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
     <cellStyle name="Migliaia 57 3" xfId="932" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
     <cellStyle name="Migliaia 57 3 2" xfId="933" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
-    <cellStyle name="Migliaia 57 3 2 2" xfId="2022" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Migliaia 57 3 2 2" xfId="2021" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
     <cellStyle name="Migliaia 57 4" xfId="934" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
-    <cellStyle name="Migliaia 57 4 2" xfId="2023" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Migliaia 57 4 2" xfId="2022" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
     <cellStyle name="Migliaia 57 5" xfId="935" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
     <cellStyle name="Migliaia 58" xfId="188" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
     <cellStyle name="Migliaia 58 2" xfId="936" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
-    <cellStyle name="Migliaia 58 2 2" xfId="2024" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Migliaia 58 2 2" xfId="2023" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
     <cellStyle name="Migliaia 58 3" xfId="937" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
     <cellStyle name="Migliaia 58 3 2" xfId="938" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
-    <cellStyle name="Migliaia 58 3 2 2" xfId="2025" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Migliaia 58 3 2 2" xfId="2024" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
     <cellStyle name="Migliaia 58 4" xfId="939" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
-    <cellStyle name="Migliaia 58 4 2" xfId="2026" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Migliaia 58 4 2" xfId="2025" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
     <cellStyle name="Migliaia 58 5" xfId="940" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
     <cellStyle name="Migliaia 59" xfId="189" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
     <cellStyle name="Migliaia 59 2" xfId="941" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
-    <cellStyle name="Migliaia 59 2 2" xfId="2027" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Migliaia 59 2 2" xfId="2026" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
     <cellStyle name="Migliaia 59 3" xfId="942" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
     <cellStyle name="Migliaia 59 3 2" xfId="943" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
-    <cellStyle name="Migliaia 59 3 2 2" xfId="2028" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Migliaia 59 3 2 2" xfId="2027" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
     <cellStyle name="Migliaia 59 4" xfId="944" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
-    <cellStyle name="Migliaia 59 4 2" xfId="2029" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Migliaia 59 4 2" xfId="2028" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
     <cellStyle name="Migliaia 59 5" xfId="945" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
     <cellStyle name="Migliaia 6" xfId="190" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
     <cellStyle name="Migliaia 6 2" xfId="946" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
-    <cellStyle name="Migliaia 6 2 2" xfId="2030" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Migliaia 6 2 2" xfId="2029" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
     <cellStyle name="Migliaia 6 3" xfId="947" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
     <cellStyle name="Migliaia 6 3 2" xfId="948" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
-    <cellStyle name="Migliaia 6 3 2 2" xfId="2031" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Migliaia 6 3 2 2" xfId="2030" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
     <cellStyle name="Migliaia 6 4" xfId="949" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
-    <cellStyle name="Migliaia 6 4 2" xfId="2032" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Migliaia 6 4 2" xfId="2031" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
     <cellStyle name="Migliaia 6 5" xfId="950" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
     <cellStyle name="Migliaia 60" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
     <cellStyle name="Migliaia 60 2" xfId="951" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
-    <cellStyle name="Migliaia 60 2 2" xfId="2033" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Migliaia 60 2 2" xfId="2032" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
     <cellStyle name="Migliaia 60 3" xfId="952" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
     <cellStyle name="Migliaia 60 3 2" xfId="953" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
-    <cellStyle name="Migliaia 60 3 2 2" xfId="2034" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Migliaia 60 3 2 2" xfId="2033" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
     <cellStyle name="Migliaia 60 4" xfId="954" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
-    <cellStyle name="Migliaia 60 4 2" xfId="2035" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Migliaia 60 4 2" xfId="2034" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
     <cellStyle name="Migliaia 60 5" xfId="955" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
     <cellStyle name="Migliaia 61" xfId="192" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
     <cellStyle name="Migliaia 61 2" xfId="956" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
-    <cellStyle name="Migliaia 61 2 2" xfId="2036" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Migliaia 61 2 2" xfId="2035" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
     <cellStyle name="Migliaia 61 3" xfId="957" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
     <cellStyle name="Migliaia 61 3 2" xfId="958" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
-    <cellStyle name="Migliaia 61 3 2 2" xfId="2037" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Migliaia 61 3 2 2" xfId="2036" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
     <cellStyle name="Migliaia 61 4" xfId="959" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
-    <cellStyle name="Migliaia 61 4 2" xfId="2038" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Migliaia 61 4 2" xfId="2037" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
     <cellStyle name="Migliaia 61 5" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
     <cellStyle name="Migliaia 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
     <cellStyle name="Migliaia 7 2" xfId="961" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
-    <cellStyle name="Migliaia 7 2 2" xfId="2039" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Migliaia 7 2 2" xfId="2038" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
     <cellStyle name="Migliaia 7 3" xfId="962" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
     <cellStyle name="Migliaia 7 3 2" xfId="963" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
-    <cellStyle name="Migliaia 7 3 2 2" xfId="2040" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Migliaia 7 3 2 2" xfId="2039" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
     <cellStyle name="Migliaia 7 4" xfId="964" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
-    <cellStyle name="Migliaia 7 4 2" xfId="2041" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Migliaia 7 4 2" xfId="2040" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
     <cellStyle name="Migliaia 7 5" xfId="965" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
     <cellStyle name="Migliaia 8" xfId="194" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
     <cellStyle name="Migliaia 8 2" xfId="966" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
-    <cellStyle name="Migliaia 8 2 2" xfId="2042" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Migliaia 8 2 2" xfId="2041" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
     <cellStyle name="Migliaia 8 3" xfId="967" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
     <cellStyle name="Migliaia 8 3 2" xfId="968" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
-    <cellStyle name="Migliaia 8 3 2 2" xfId="2043" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Migliaia 8 3 2 2" xfId="2042" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
     <cellStyle name="Migliaia 8 4" xfId="969" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
-    <cellStyle name="Migliaia 8 4 2" xfId="2044" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Migliaia 8 4 2" xfId="2043" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
     <cellStyle name="Migliaia 8 5" xfId="970" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
     <cellStyle name="Migliaia 9" xfId="195" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
     <cellStyle name="Migliaia 9 2" xfId="971" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
-    <cellStyle name="Migliaia 9 2 2" xfId="2045" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Migliaia 9 2 2" xfId="2044" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
     <cellStyle name="Migliaia 9 3" xfId="972" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
     <cellStyle name="Migliaia 9 3 2" xfId="973" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
-    <cellStyle name="Migliaia 9 3 2 2" xfId="2046" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Migliaia 9 3 2 2" xfId="2045" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
     <cellStyle name="Migliaia 9 4" xfId="974" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
-    <cellStyle name="Migliaia 9 4 2" xfId="2047" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Migliaia 9 4 2" xfId="2046" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
     <cellStyle name="Migliaia 9 5" xfId="975" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
-    <cellStyle name="Neutral 2" xfId="2048" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Neutral 2" xfId="2047" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
     <cellStyle name="Neutrale" xfId="196" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="197" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
-    <cellStyle name="Normal 10 2" xfId="2049" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
-    <cellStyle name="Normal 11" xfId="1538" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
-    <cellStyle name="Normal 12" xfId="2050" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
-    <cellStyle name="Normal 12 2" xfId="2051" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
-    <cellStyle name="Normal 13" xfId="2052" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
-    <cellStyle name="Normal 14" xfId="2053" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
-    <cellStyle name="Normal 15" xfId="2054" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
-    <cellStyle name="Normal 16" xfId="2055" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
-    <cellStyle name="Normal 16 2" xfId="2056" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
-    <cellStyle name="Normal 16 3" xfId="2057" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
-    <cellStyle name="Normal 17" xfId="2058" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
-    <cellStyle name="Normal 17 2" xfId="2059" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
-    <cellStyle name="Normal 18" xfId="2060" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
-    <cellStyle name="Normal 18 2" xfId="2061" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
-    <cellStyle name="Normal 19" xfId="2062" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
-    <cellStyle name="Normal 19 2" xfId="2063" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
-    <cellStyle name="Normal 19 3" xfId="2064" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Normal 10 2" xfId="2048" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Normal 11" xfId="1537" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Normal 12" xfId="2049" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Normal 12 2" xfId="2050" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Normal 13" xfId="2051" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Normal 14" xfId="2052" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Normal 15" xfId="2053" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Normal 16" xfId="2054" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Normal 16 2" xfId="2055" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Normal 16 3" xfId="2056" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Normal 17" xfId="2057" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Normal 17 2" xfId="2058" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Normal 18" xfId="2059" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Normal 18 2" xfId="2060" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Normal 19" xfId="2061" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Normal 19 2" xfId="2062" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Normal 19 3" xfId="2063" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
     <cellStyle name="Normal 2 2" xfId="436" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="2065" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="2066" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="2067" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="2068" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="2069" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="2070" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="2071" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
-    <cellStyle name="Normal 2 2 3 2 2" xfId="2072" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
-    <cellStyle name="Normal 2 2 3 3" xfId="2073" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="2074" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="2075" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
-    <cellStyle name="Normal 2 2 5" xfId="2076" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="2064" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="2065" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="2066" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="2067" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="2068" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="2069" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="2070" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Normal 2 2 3 2 2" xfId="2071" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Normal 2 2 3 3" xfId="2072" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="2073" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="2074" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="2075" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
     <cellStyle name="Normal 2 3" xfId="976" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
     <cellStyle name="Normal 2 4" xfId="977" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="2077" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="2078" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
-    <cellStyle name="Normal 2 4 3" xfId="2079" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
-    <cellStyle name="Normal 2 5" xfId="2080" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
-    <cellStyle name="Normal 2_Plants" xfId="2081" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
-    <cellStyle name="Normal 20" xfId="2082" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
-    <cellStyle name="Normal 21" xfId="2083" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
-    <cellStyle name="Normal 22" xfId="2084" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
-    <cellStyle name="Normal 23" xfId="2085" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
-    <cellStyle name="Normal 24" xfId="2086" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
-    <cellStyle name="Normal 25" xfId="2087" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
-    <cellStyle name="Normal 26" xfId="2088" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
-    <cellStyle name="Normal 27" xfId="2089" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
-    <cellStyle name="Normal 28" xfId="2090" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
-    <cellStyle name="Normal 29" xfId="2091" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
-    <cellStyle name="Normal 29 2" xfId="2092" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="2076" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="2077" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Normal 2 4 3" xfId="2078" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Normal 2 5" xfId="2079" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Normal 2_Plants" xfId="2080" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Normal 20" xfId="2081" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Normal 21" xfId="2082" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Normal 22" xfId="2083" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Normal 23" xfId="2084" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Normal 24" xfId="2085" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Normal 25" xfId="2086" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Normal 26" xfId="2087" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Normal 27" xfId="2088" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Normal 28" xfId="2089" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Normal 29" xfId="2090" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Normal 29 2" xfId="2091" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
     <cellStyle name="Normal 3" xfId="429" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
-    <cellStyle name="Normal 3 10" xfId="2093" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
-    <cellStyle name="Normal 3 11" xfId="2094" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
-    <cellStyle name="Normal 3 12" xfId="2095" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
-    <cellStyle name="Normal 3 13" xfId="2096" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
-    <cellStyle name="Normal 3 14" xfId="2097" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
-    <cellStyle name="Normal 3 15" xfId="2098" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
-    <cellStyle name="Normal 3 16" xfId="2099" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Normal 3 10" xfId="2092" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Normal 3 11" xfId="2093" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Normal 3 12" xfId="2094" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Normal 3 13" xfId="2095" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Normal 3 14" xfId="2096" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Normal 3 15" xfId="2097" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Normal 3 16" xfId="2098" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
     <cellStyle name="Normal 3 2" xfId="978" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="2100" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="2101" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
-    <cellStyle name="Normal 3 2 2 3" xfId="2102" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
-    <cellStyle name="Normal 3 2 2 3 2" xfId="2103" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
-    <cellStyle name="Normal 3 2 2 4" xfId="2104" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="2105" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
-    <cellStyle name="Normal 3 2 3 2" xfId="2106" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
-    <cellStyle name="Normal 3 2 3 2 2" xfId="2107" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
-    <cellStyle name="Normal 3 2 3 3" xfId="2108" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
-    <cellStyle name="Normal 3 2 4" xfId="2109" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="2110" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
-    <cellStyle name="Normal 3 2 5" xfId="2111" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="2099" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="2100" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Normal 3 2 2 3" xfId="2101" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Normal 3 2 2 3 2" xfId="2102" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Normal 3 2 2 4" xfId="2103" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="2104" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Normal 3 2 3 2" xfId="2105" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Normal 3 2 3 2 2" xfId="2106" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Normal 3 2 3 3" xfId="2107" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="2108" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="2109" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Normal 3 2 5" xfId="2110" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
     <cellStyle name="Normal 3 3" xfId="979" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="2112" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="2113" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
-    <cellStyle name="Normal 3 3 2 2 2" xfId="2114" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
-    <cellStyle name="Normal 3 3 2 3" xfId="2115" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="2116" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
-    <cellStyle name="Normal 3 3 3 2" xfId="2117" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
-    <cellStyle name="Normal 3 3 4" xfId="2118" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
-    <cellStyle name="Normal 3 4" xfId="1535" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="2119" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
-    <cellStyle name="Normal 3 5" xfId="2120" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
-    <cellStyle name="Normal 3 6" xfId="2121" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
-    <cellStyle name="Normal 3 6 2" xfId="2122" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
-    <cellStyle name="Normal 3 7" xfId="2123" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
-    <cellStyle name="Normal 3 8" xfId="2124" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
-    <cellStyle name="Normal 3 9" xfId="2125" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
-    <cellStyle name="Normal 30" xfId="2579" xr:uid="{F8FB20AD-7A4A-4AFF-ACD6-354872FB65C0}"/>
-    <cellStyle name="Normal 31" xfId="2126" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
-    <cellStyle name="Normal 32" xfId="2127" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
-    <cellStyle name="Normal 33" xfId="2128" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
-    <cellStyle name="Normal 34" xfId="2129" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
-    <cellStyle name="Normal 35" xfId="2578" xr:uid="{B2E4DCF3-5114-4548-870A-166FDEDF4733}"/>
+    <cellStyle name="Normal 3 3 2" xfId="2111" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="2112" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Normal 3 3 2 2 2" xfId="2113" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Normal 3 3 2 3" xfId="2114" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="2115" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Normal 3 3 3 2" xfId="2116" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Normal 3 3 4" xfId="2117" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Normal 3 4" xfId="1534" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="2118" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Normal 3 5" xfId="2119" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Normal 3 6" xfId="2120" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Normal 3 6 2" xfId="2121" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Normal 3 7" xfId="2122" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Normal 3 8" xfId="2123" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Normal 3 9" xfId="2124" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Normal 30" xfId="2578" xr:uid="{F8FB20AD-7A4A-4AFF-ACD6-354872FB65C0}"/>
+    <cellStyle name="Normal 31" xfId="2125" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Normal 32" xfId="2126" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Normal 33" xfId="2127" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Normal 34" xfId="2128" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Normal 35" xfId="2577" xr:uid="{B2E4DCF3-5114-4548-870A-166FDEDF4733}"/>
     <cellStyle name="Normal 4" xfId="980" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
-    <cellStyle name="Normal 4 10" xfId="2130" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
-    <cellStyle name="Normal 4 11" xfId="2131" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
-    <cellStyle name="Normal 4 12" xfId="2132" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
-    <cellStyle name="Normal 4 13" xfId="2133" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
-    <cellStyle name="Normal 4 14" xfId="2134" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
-    <cellStyle name="Normal 4 15" xfId="2135" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
-    <cellStyle name="Normal 4 2" xfId="2136" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
-    <cellStyle name="Normal 4 3" xfId="2137" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
-    <cellStyle name="Normal 4 4" xfId="2138" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
-    <cellStyle name="Normal 4 5" xfId="2139" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
-    <cellStyle name="Normal 4 6" xfId="2140" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
-    <cellStyle name="Normal 4 7" xfId="2141" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
-    <cellStyle name="Normal 4 8" xfId="2142" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
-    <cellStyle name="Normal 4 9" xfId="2143" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Normal 4 10" xfId="2129" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Normal 4 11" xfId="2130" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Normal 4 12" xfId="2131" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Normal 4 13" xfId="2132" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Normal 4 14" xfId="2133" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Normal 4 15" xfId="2134" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Normal 4 2" xfId="2135" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Normal 4 3" xfId="2136" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Normal 4 4" xfId="2137" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Normal 4 5" xfId="2138" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Normal 4 6" xfId="2139" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Normal 4 7" xfId="2140" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Normal 4 8" xfId="2141" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Normal 4 9" xfId="2142" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
     <cellStyle name="Normal 5" xfId="981" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
-    <cellStyle name="Normal 5 2" xfId="2144" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
-    <cellStyle name="Normal 5 2 2" xfId="2145" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="2146" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
-    <cellStyle name="Normal 5 2 2 3" xfId="2147" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
-    <cellStyle name="Normal 5 2 3" xfId="2148" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="2149" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
-    <cellStyle name="Normal 5 3" xfId="2150" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Normal 5 2" xfId="2143" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="2144" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="2145" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Normal 5 2 2 3" xfId="2146" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="2147" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="2148" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Normal 5 3" xfId="2149" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
     <cellStyle name="Normal 6" xfId="982" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
-    <cellStyle name="Normal 6 2" xfId="2151" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
-    <cellStyle name="Normal 6 2 2" xfId="2152" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
-    <cellStyle name="Normal 6 2 3" xfId="2153" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
-    <cellStyle name="Normal 6 2 3 2" xfId="2154" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
-    <cellStyle name="Normal 6 2 4" xfId="2155" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
-    <cellStyle name="Normal 6 3" xfId="2156" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
-    <cellStyle name="Normal 6 3 2" xfId="2157" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
-    <cellStyle name="Normal 6 3 2 2" xfId="2158" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
-    <cellStyle name="Normal 6 3 2 2 2" xfId="2159" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
-    <cellStyle name="Normal 6 3 2 3" xfId="2160" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
-    <cellStyle name="Normal 6 4" xfId="2161" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
-    <cellStyle name="Normal 6 4 2" xfId="2162" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
-    <cellStyle name="Normal 6 5" xfId="2163" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Normal 6 2" xfId="2150" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="2151" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Normal 6 2 3" xfId="2152" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Normal 6 2 3 2" xfId="2153" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Normal 6 2 4" xfId="2154" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Normal 6 3" xfId="2155" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="2156" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Normal 6 3 2 2" xfId="2157" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Normal 6 3 2 2 2" xfId="2158" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Normal 6 3 2 3" xfId="2159" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Normal 6 4" xfId="2160" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Normal 6 4 2" xfId="2161" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Normal 6 5" xfId="2162" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
     <cellStyle name="Normal 7" xfId="983" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
-    <cellStyle name="Normal 7 2" xfId="2164" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
-    <cellStyle name="Normal 7 3" xfId="2165" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
-    <cellStyle name="Normal 7 3 2" xfId="2166" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
-    <cellStyle name="Normal 7 3 2 2" xfId="2167" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
-    <cellStyle name="Normal 7 3 3" xfId="2168" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Normal 7 2" xfId="2163" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Normal 7 3" xfId="2164" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Normal 7 3 2" xfId="2165" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Normal 7 3 2 2" xfId="2166" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Normal 7 3 3" xfId="2167" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
     <cellStyle name="Normal 8" xfId="984" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
-    <cellStyle name="Normal 8 2" xfId="2169" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
-    <cellStyle name="Normal 8 2 2" xfId="2170" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
-    <cellStyle name="Normal 8 2 2 2" xfId="2171" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
-    <cellStyle name="Normal 8 2 2 2 2" xfId="2172" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
-    <cellStyle name="Normal 8 2 2 3" xfId="2173" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
-    <cellStyle name="Normal 8 3" xfId="2174" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Normal 8 2" xfId="2168" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Normal 8 2 2" xfId="2169" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Normal 8 2 2 2" xfId="2170" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Normal 8 2 2 2 2" xfId="2171" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Normal 8 2 2 3" xfId="2172" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Normal 8 3" xfId="2173" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
     <cellStyle name="Normal 9" xfId="985" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
-    <cellStyle name="Normal 9 2" xfId="2175" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
-    <cellStyle name="Normal 9 2 2" xfId="2176" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Normal 9 2" xfId="2174" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Normal 9 2 2" xfId="2175" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
     <cellStyle name="Normal GHG Numbers (0.00)" xfId="986" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
-    <cellStyle name="Normal GHG Numbers (0.00) 2" xfId="1537" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
-    <cellStyle name="Normal GHG Numbers (0.00) 3" xfId="2177" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Normal GHG Numbers (0.00) 2" xfId="1536" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Normal GHG Numbers (0.00) 3" xfId="2176" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
     <cellStyle name="Normal GHG Textfiels Bold" xfId="987" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
     <cellStyle name="Normal GHG-Shade" xfId="988" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
     <cellStyle name="Normale 10" xfId="198" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
     <cellStyle name="Normale 10 2" xfId="199" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
-    <cellStyle name="Normale 10 2 2" xfId="2178" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Normale 10 2 2" xfId="2177" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
     <cellStyle name="Normale 10 3" xfId="200" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
-    <cellStyle name="Normale 10 3 2" xfId="2179" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
-    <cellStyle name="Normale 10 4" xfId="2180" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Normale 10 3 2" xfId="2178" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Normale 10 4" xfId="2179" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
     <cellStyle name="Normale 10_EDEN industria 2008 rev" xfId="201" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
     <cellStyle name="Normale 11" xfId="202" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
     <cellStyle name="Normale 11 2" xfId="203" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
-    <cellStyle name="Normale 11 2 2" xfId="2181" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Normale 11 2 2" xfId="2180" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
     <cellStyle name="Normale 11 3" xfId="204" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
-    <cellStyle name="Normale 11 3 2" xfId="2182" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
-    <cellStyle name="Normale 11 4" xfId="2183" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Normale 11 3 2" xfId="2181" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Normale 11 4" xfId="2182" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
     <cellStyle name="Normale 11_EDEN industria 2008 rev" xfId="205" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
     <cellStyle name="Normale 12" xfId="206" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
     <cellStyle name="Normale 12 2" xfId="207" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
-    <cellStyle name="Normale 12 2 2" xfId="2184" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Normale 12 2 2" xfId="2183" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
     <cellStyle name="Normale 12 3" xfId="208" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
-    <cellStyle name="Normale 12 3 2" xfId="2185" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
-    <cellStyle name="Normale 12 4" xfId="2186" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Normale 12 3 2" xfId="2184" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Normale 12 4" xfId="2185" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
     <cellStyle name="Normale 12_EDEN industria 2008 rev" xfId="209" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
     <cellStyle name="Normale 13" xfId="210" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
     <cellStyle name="Normale 13 2" xfId="211" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
-    <cellStyle name="Normale 13 2 2" xfId="2187" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Normale 13 2 2" xfId="2186" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
     <cellStyle name="Normale 13 3" xfId="212" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
-    <cellStyle name="Normale 13 3 2" xfId="2188" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
-    <cellStyle name="Normale 13 4" xfId="2189" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Normale 13 3 2" xfId="2187" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Normale 13 4" xfId="2188" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
     <cellStyle name="Normale 13_EDEN industria 2008 rev" xfId="213" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
     <cellStyle name="Normale 14" xfId="214" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
     <cellStyle name="Normale 14 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
-    <cellStyle name="Normale 14 2 2" xfId="2190" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Normale 14 2 2" xfId="2189" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
     <cellStyle name="Normale 14 3" xfId="216" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
-    <cellStyle name="Normale 14 3 2" xfId="2191" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
-    <cellStyle name="Normale 14 4" xfId="2192" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Normale 14 3 2" xfId="2190" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Normale 14 4" xfId="2191" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
     <cellStyle name="Normale 14_EDEN industria 2008 rev" xfId="217" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
     <cellStyle name="Normale 15" xfId="218" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
     <cellStyle name="Normale 15 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
-    <cellStyle name="Normale 15 2 2" xfId="2193" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Normale 15 2 2" xfId="2192" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
     <cellStyle name="Normale 15 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
-    <cellStyle name="Normale 15 3 2" xfId="2194" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
-    <cellStyle name="Normale 15 4" xfId="2195" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Normale 15 3 2" xfId="2193" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Normale 15 4" xfId="2194" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
     <cellStyle name="Normale 15_EDEN industria 2008 rev" xfId="221" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
     <cellStyle name="Normale 16" xfId="222" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
-    <cellStyle name="Normale 16 2" xfId="2196" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Normale 16 2" xfId="2195" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
     <cellStyle name="Normale 17" xfId="223" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
-    <cellStyle name="Normale 17 2" xfId="2197" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Normale 17 2" xfId="2196" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
     <cellStyle name="Normale 18" xfId="224" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
-    <cellStyle name="Normale 18 2" xfId="2198" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Normale 18 2" xfId="2197" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
     <cellStyle name="Normale 19" xfId="225" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
-    <cellStyle name="Normale 19 2" xfId="2199" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Normale 19 2" xfId="2198" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
     <cellStyle name="Normale 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
     <cellStyle name="Normale 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
-    <cellStyle name="Normale 2 2 2" xfId="2200" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
-    <cellStyle name="Normale 2 3" xfId="2201" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Normale 2 2 2" xfId="2199" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Normale 2 3" xfId="2200" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
     <cellStyle name="Normale 2_EDEN industria 2008 rev" xfId="228" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
     <cellStyle name="Normale 20" xfId="229" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
-    <cellStyle name="Normale 20 2" xfId="2202" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Normale 20 2" xfId="2201" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
     <cellStyle name="Normale 21" xfId="230" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
-    <cellStyle name="Normale 21 2" xfId="2203" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Normale 21 2" xfId="2202" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
     <cellStyle name="Normale 22" xfId="231" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
-    <cellStyle name="Normale 22 2" xfId="2204" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Normale 22 2" xfId="2203" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
     <cellStyle name="Normale 23" xfId="232" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
-    <cellStyle name="Normale 23 2" xfId="2205" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Normale 23 2" xfId="2204" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
     <cellStyle name="Normale 24" xfId="233" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
-    <cellStyle name="Normale 24 2" xfId="2206" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Normale 24 2" xfId="2205" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
     <cellStyle name="Normale 25" xfId="234" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
-    <cellStyle name="Normale 25 2" xfId="2207" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Normale 25 2" xfId="2206" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
     <cellStyle name="Normale 26" xfId="235" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
-    <cellStyle name="Normale 26 2" xfId="2208" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Normale 26 2" xfId="2207" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
     <cellStyle name="Normale 27" xfId="236" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
-    <cellStyle name="Normale 27 2" xfId="2209" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Normale 27 2" xfId="2208" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
     <cellStyle name="Normale 28" xfId="237" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
-    <cellStyle name="Normale 28 2" xfId="2210" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Normale 28 2" xfId="2209" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
     <cellStyle name="Normale 29" xfId="238" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
-    <cellStyle name="Normale 29 2" xfId="2211" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Normale 29 2" xfId="2210" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
     <cellStyle name="Normale 3" xfId="239" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
     <cellStyle name="Normale 3 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
-    <cellStyle name="Normale 3 2 2" xfId="2212" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Normale 3 2 2" xfId="2211" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
     <cellStyle name="Normale 3 3" xfId="241" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
-    <cellStyle name="Normale 3 3 2" xfId="2213" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
-    <cellStyle name="Normale 3 4" xfId="2214" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Normale 3 3 2" xfId="2212" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Normale 3 4" xfId="2213" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
     <cellStyle name="Normale 3_EDEN industria 2008 rev" xfId="242" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
     <cellStyle name="Normale 30" xfId="243" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
-    <cellStyle name="Normale 30 2" xfId="2215" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Normale 30 2" xfId="2214" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
     <cellStyle name="Normale 31" xfId="244" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
-    <cellStyle name="Normale 31 2" xfId="2216" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Normale 31 2" xfId="2215" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
     <cellStyle name="Normale 32" xfId="245" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
-    <cellStyle name="Normale 32 2" xfId="2217" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Normale 32 2" xfId="2216" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
     <cellStyle name="Normale 33" xfId="246" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
-    <cellStyle name="Normale 33 2" xfId="2218" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Normale 33 2" xfId="2217" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
     <cellStyle name="Normale 34" xfId="247" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
-    <cellStyle name="Normale 34 2" xfId="2219" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Normale 34 2" xfId="2218" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
     <cellStyle name="Normale 35" xfId="248" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
-    <cellStyle name="Normale 35 2" xfId="2220" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Normale 35 2" xfId="2219" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
     <cellStyle name="Normale 36" xfId="249" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
-    <cellStyle name="Normale 36 2" xfId="2221" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Normale 36 2" xfId="2220" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
     <cellStyle name="Normale 37" xfId="250" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
-    <cellStyle name="Normale 37 2" xfId="2222" xr:uid="{00000000-0005-0000-0000-0000D6050000}"/>
+    <cellStyle name="Normale 37 2" xfId="2221" xr:uid="{00000000-0005-0000-0000-0000D6050000}"/>
     <cellStyle name="Normale 38" xfId="251" xr:uid="{00000000-0005-0000-0000-0000D7050000}"/>
-    <cellStyle name="Normale 38 2" xfId="2223" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
+    <cellStyle name="Normale 38 2" xfId="2222" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
     <cellStyle name="Normale 39" xfId="252" xr:uid="{00000000-0005-0000-0000-0000D9050000}"/>
-    <cellStyle name="Normale 39 2" xfId="2224" xr:uid="{00000000-0005-0000-0000-0000DA050000}"/>
+    <cellStyle name="Normale 39 2" xfId="2223" xr:uid="{00000000-0005-0000-0000-0000DA050000}"/>
     <cellStyle name="Normale 4" xfId="253" xr:uid="{00000000-0005-0000-0000-0000DB050000}"/>
     <cellStyle name="Normale 4 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000DC050000}"/>
-    <cellStyle name="Normale 4 2 2" xfId="2225" xr:uid="{00000000-0005-0000-0000-0000DD050000}"/>
+    <cellStyle name="Normale 4 2 2" xfId="2224" xr:uid="{00000000-0005-0000-0000-0000DD050000}"/>
     <cellStyle name="Normale 4 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000DE050000}"/>
-    <cellStyle name="Normale 4 3 2" xfId="2226" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
-    <cellStyle name="Normale 4 4" xfId="2227" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
+    <cellStyle name="Normale 4 3 2" xfId="2225" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
+    <cellStyle name="Normale 4 4" xfId="2226" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
     <cellStyle name="Normale 4_EDEN industria 2008 rev" xfId="256" xr:uid="{00000000-0005-0000-0000-0000E1050000}"/>
     <cellStyle name="Normale 40" xfId="257" xr:uid="{00000000-0005-0000-0000-0000E2050000}"/>
-    <cellStyle name="Normale 40 2" xfId="2228" xr:uid="{00000000-0005-0000-0000-0000E3050000}"/>
+    <cellStyle name="Normale 40 2" xfId="2227" xr:uid="{00000000-0005-0000-0000-0000E3050000}"/>
     <cellStyle name="Normale 41" xfId="258" xr:uid="{00000000-0005-0000-0000-0000E4050000}"/>
-    <cellStyle name="Normale 41 2" xfId="2229" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
+    <cellStyle name="Normale 41 2" xfId="2228" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
     <cellStyle name="Normale 42" xfId="259" xr:uid="{00000000-0005-0000-0000-0000E6050000}"/>
-    <cellStyle name="Normale 42 2" xfId="2230" xr:uid="{00000000-0005-0000-0000-0000E7050000}"/>
+    <cellStyle name="Normale 42 2" xfId="2229" xr:uid="{00000000-0005-0000-0000-0000E7050000}"/>
     <cellStyle name="Normale 43" xfId="260" xr:uid="{00000000-0005-0000-0000-0000E8050000}"/>
-    <cellStyle name="Normale 43 2" xfId="2231" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
+    <cellStyle name="Normale 43 2" xfId="2230" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
     <cellStyle name="Normale 44" xfId="261" xr:uid="{00000000-0005-0000-0000-0000EA050000}"/>
-    <cellStyle name="Normale 44 2" xfId="2232" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
+    <cellStyle name="Normale 44 2" xfId="2231" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
     <cellStyle name="Normale 45" xfId="262" xr:uid="{00000000-0005-0000-0000-0000EC050000}"/>
-    <cellStyle name="Normale 45 2" xfId="2233" xr:uid="{00000000-0005-0000-0000-0000ED050000}"/>
+    <cellStyle name="Normale 45 2" xfId="2232" xr:uid="{00000000-0005-0000-0000-0000ED050000}"/>
     <cellStyle name="Normale 46" xfId="263" xr:uid="{00000000-0005-0000-0000-0000EE050000}"/>
-    <cellStyle name="Normale 46 2" xfId="2234" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
+    <cellStyle name="Normale 46 2" xfId="2233" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
     <cellStyle name="Normale 47" xfId="264" xr:uid="{00000000-0005-0000-0000-0000F0050000}"/>
-    <cellStyle name="Normale 47 2" xfId="2235" xr:uid="{00000000-0005-0000-0000-0000F1050000}"/>
+    <cellStyle name="Normale 47 2" xfId="2234" xr:uid="{00000000-0005-0000-0000-0000F1050000}"/>
     <cellStyle name="Normale 48" xfId="265" xr:uid="{00000000-0005-0000-0000-0000F2050000}"/>
-    <cellStyle name="Normale 48 2" xfId="2236" xr:uid="{00000000-0005-0000-0000-0000F3050000}"/>
+    <cellStyle name="Normale 48 2" xfId="2235" xr:uid="{00000000-0005-0000-0000-0000F3050000}"/>
     <cellStyle name="Normale 49" xfId="266" xr:uid="{00000000-0005-0000-0000-0000F4050000}"/>
-    <cellStyle name="Normale 49 2" xfId="2237" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
+    <cellStyle name="Normale 49 2" xfId="2236" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
     <cellStyle name="Normale 5" xfId="267" xr:uid="{00000000-0005-0000-0000-0000F6050000}"/>
     <cellStyle name="Normale 5 2" xfId="268" xr:uid="{00000000-0005-0000-0000-0000F7050000}"/>
-    <cellStyle name="Normale 5 2 2" xfId="2238" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
+    <cellStyle name="Normale 5 2 2" xfId="2237" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
     <cellStyle name="Normale 5 3" xfId="269" xr:uid="{00000000-0005-0000-0000-0000F9050000}"/>
-    <cellStyle name="Normale 5 3 2" xfId="2239" xr:uid="{00000000-0005-0000-0000-0000FA050000}"/>
-    <cellStyle name="Normale 5 4" xfId="2240" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
+    <cellStyle name="Normale 5 3 2" xfId="2238" xr:uid="{00000000-0005-0000-0000-0000FA050000}"/>
+    <cellStyle name="Normale 5 4" xfId="2239" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
     <cellStyle name="Normale 5_EDEN industria 2008 rev" xfId="270" xr:uid="{00000000-0005-0000-0000-0000FC050000}"/>
     <cellStyle name="Normale 50" xfId="271" xr:uid="{00000000-0005-0000-0000-0000FD050000}"/>
-    <cellStyle name="Normale 50 2" xfId="2241" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
+    <cellStyle name="Normale 50 2" xfId="2240" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
     <cellStyle name="Normale 51" xfId="272" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
-    <cellStyle name="Normale 51 2" xfId="2242" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
+    <cellStyle name="Normale 51 2" xfId="2241" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
     <cellStyle name="Normale 52" xfId="273" xr:uid="{00000000-0005-0000-0000-000001060000}"/>
-    <cellStyle name="Normale 52 2" xfId="2243" xr:uid="{00000000-0005-0000-0000-000002060000}"/>
+    <cellStyle name="Normale 52 2" xfId="2242" xr:uid="{00000000-0005-0000-0000-000002060000}"/>
     <cellStyle name="Normale 53" xfId="274" xr:uid="{00000000-0005-0000-0000-000003060000}"/>
-    <cellStyle name="Normale 53 2" xfId="2244" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
+    <cellStyle name="Normale 53 2" xfId="2243" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
     <cellStyle name="Normale 54" xfId="275" xr:uid="{00000000-0005-0000-0000-000005060000}"/>
-    <cellStyle name="Normale 54 2" xfId="2245" xr:uid="{00000000-0005-0000-0000-000006060000}"/>
+    <cellStyle name="Normale 54 2" xfId="2244" xr:uid="{00000000-0005-0000-0000-000006060000}"/>
     <cellStyle name="Normale 55" xfId="276" xr:uid="{00000000-0005-0000-0000-000007060000}"/>
-    <cellStyle name="Normale 55 2" xfId="2246" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
+    <cellStyle name="Normale 55 2" xfId="2245" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
     <cellStyle name="Normale 56" xfId="277" xr:uid="{00000000-0005-0000-0000-000009060000}"/>
-    <cellStyle name="Normale 56 2" xfId="2247" xr:uid="{00000000-0005-0000-0000-00000A060000}"/>
+    <cellStyle name="Normale 56 2" xfId="2246" xr:uid="{00000000-0005-0000-0000-00000A060000}"/>
     <cellStyle name="Normale 57" xfId="278" xr:uid="{00000000-0005-0000-0000-00000B060000}"/>
-    <cellStyle name="Normale 57 2" xfId="2248" xr:uid="{00000000-0005-0000-0000-00000C060000}"/>
+    <cellStyle name="Normale 57 2" xfId="2247" xr:uid="{00000000-0005-0000-0000-00000C060000}"/>
     <cellStyle name="Normale 58" xfId="279" xr:uid="{00000000-0005-0000-0000-00000D060000}"/>
-    <cellStyle name="Normale 58 2" xfId="2249" xr:uid="{00000000-0005-0000-0000-00000E060000}"/>
+    <cellStyle name="Normale 58 2" xfId="2248" xr:uid="{00000000-0005-0000-0000-00000E060000}"/>
     <cellStyle name="Normale 59" xfId="280" xr:uid="{00000000-0005-0000-0000-00000F060000}"/>
-    <cellStyle name="Normale 59 2" xfId="2250" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
+    <cellStyle name="Normale 59 2" xfId="2249" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
     <cellStyle name="Normale 6" xfId="281" xr:uid="{00000000-0005-0000-0000-000011060000}"/>
     <cellStyle name="Normale 6 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000012060000}"/>
-    <cellStyle name="Normale 6 2 2" xfId="2251" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
+    <cellStyle name="Normale 6 2 2" xfId="2250" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
     <cellStyle name="Normale 6 3" xfId="283" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
-    <cellStyle name="Normale 6 3 2" xfId="2252" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
-    <cellStyle name="Normale 6 4" xfId="2253" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
+    <cellStyle name="Normale 6 3 2" xfId="2251" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
+    <cellStyle name="Normale 6 4" xfId="2252" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
     <cellStyle name="Normale 6_EDEN industria 2008 rev" xfId="284" xr:uid="{00000000-0005-0000-0000-000017060000}"/>
     <cellStyle name="Normale 60" xfId="285" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
-    <cellStyle name="Normale 60 2" xfId="2254" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
+    <cellStyle name="Normale 60 2" xfId="2253" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
     <cellStyle name="Normale 61" xfId="286" xr:uid="{00000000-0005-0000-0000-00001A060000}"/>
-    <cellStyle name="Normale 61 2" xfId="2255" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
+    <cellStyle name="Normale 61 2" xfId="2254" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
     <cellStyle name="Normale 62" xfId="287" xr:uid="{00000000-0005-0000-0000-00001C060000}"/>
-    <cellStyle name="Normale 62 2" xfId="2256" xr:uid="{00000000-0005-0000-0000-00001D060000}"/>
+    <cellStyle name="Normale 62 2" xfId="2255" xr:uid="{00000000-0005-0000-0000-00001D060000}"/>
     <cellStyle name="Normale 63" xfId="288" xr:uid="{00000000-0005-0000-0000-00001E060000}"/>
-    <cellStyle name="Normale 63 2" xfId="2257" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
+    <cellStyle name="Normale 63 2" xfId="2256" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
     <cellStyle name="Normale 64" xfId="289" xr:uid="{00000000-0005-0000-0000-000020060000}"/>
-    <cellStyle name="Normale 64 2" xfId="2258" xr:uid="{00000000-0005-0000-0000-000021060000}"/>
+    <cellStyle name="Normale 64 2" xfId="2257" xr:uid="{00000000-0005-0000-0000-000021060000}"/>
     <cellStyle name="Normale 65" xfId="290" xr:uid="{00000000-0005-0000-0000-000022060000}"/>
-    <cellStyle name="Normale 65 2" xfId="2259" xr:uid="{00000000-0005-0000-0000-000023060000}"/>
+    <cellStyle name="Normale 65 2" xfId="2258" xr:uid="{00000000-0005-0000-0000-000023060000}"/>
     <cellStyle name="Normale 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000024060000}"/>
     <cellStyle name="Normale 7 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000025060000}"/>
-    <cellStyle name="Normale 7 2 2" xfId="2260" xr:uid="{00000000-0005-0000-0000-000026060000}"/>
+    <cellStyle name="Normale 7 2 2" xfId="2259" xr:uid="{00000000-0005-0000-0000-000026060000}"/>
     <cellStyle name="Normale 7 3" xfId="293" xr:uid="{00000000-0005-0000-0000-000027060000}"/>
-    <cellStyle name="Normale 7 3 2" xfId="2261" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
-    <cellStyle name="Normale 7 4" xfId="2262" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
+    <cellStyle name="Normale 7 3 2" xfId="2260" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
+    <cellStyle name="Normale 7 4" xfId="2261" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
     <cellStyle name="Normale 7_EDEN industria 2008 rev" xfId="294" xr:uid="{00000000-0005-0000-0000-00002A060000}"/>
     <cellStyle name="Normale 8" xfId="295" xr:uid="{00000000-0005-0000-0000-00002B060000}"/>
     <cellStyle name="Normale 8 2" xfId="296" xr:uid="{00000000-0005-0000-0000-00002C060000}"/>
-    <cellStyle name="Normale 8 2 2" xfId="2263" xr:uid="{00000000-0005-0000-0000-00002D060000}"/>
+    <cellStyle name="Normale 8 2 2" xfId="2262" xr:uid="{00000000-0005-0000-0000-00002D060000}"/>
     <cellStyle name="Normale 8 3" xfId="297" xr:uid="{00000000-0005-0000-0000-00002E060000}"/>
-    <cellStyle name="Normale 8 3 2" xfId="2264" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
-    <cellStyle name="Normale 8 4" xfId="2265" xr:uid="{00000000-0005-0000-0000-000030060000}"/>
+    <cellStyle name="Normale 8 3 2" xfId="2263" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
+    <cellStyle name="Normale 8 4" xfId="2264" xr:uid="{00000000-0005-0000-0000-000030060000}"/>
     <cellStyle name="Normale 8_EDEN industria 2008 rev" xfId="298" xr:uid="{00000000-0005-0000-0000-000031060000}"/>
     <cellStyle name="Normale 9" xfId="299" xr:uid="{00000000-0005-0000-0000-000032060000}"/>
     <cellStyle name="Normale 9 2" xfId="300" xr:uid="{00000000-0005-0000-0000-000033060000}"/>
-    <cellStyle name="Normale 9 2 2" xfId="2266" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
+    <cellStyle name="Normale 9 2 2" xfId="2265" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
     <cellStyle name="Normale 9 3" xfId="301" xr:uid="{00000000-0005-0000-0000-000035060000}"/>
-    <cellStyle name="Normale 9 3 2" xfId="2267" xr:uid="{00000000-0005-0000-0000-000036060000}"/>
-    <cellStyle name="Normale 9 4" xfId="2268" xr:uid="{00000000-0005-0000-0000-000037060000}"/>
+    <cellStyle name="Normale 9 3 2" xfId="2266" xr:uid="{00000000-0005-0000-0000-000036060000}"/>
+    <cellStyle name="Normale 9 4" xfId="2267" xr:uid="{00000000-0005-0000-0000-000037060000}"/>
     <cellStyle name="Normale 9_EDEN industria 2008 rev" xfId="302" xr:uid="{00000000-0005-0000-0000-000038060000}"/>
     <cellStyle name="Normale_B2020" xfId="989" xr:uid="{00000000-0005-0000-0000-000039060000}"/>
     <cellStyle name="Nota" xfId="303" xr:uid="{00000000-0005-0000-0000-00003A060000}"/>
     <cellStyle name="Nota 2" xfId="433" xr:uid="{00000000-0005-0000-0000-00003B060000}"/>
-    <cellStyle name="Nota 2 2" xfId="2269" xr:uid="{00000000-0005-0000-0000-00003C060000}"/>
+    <cellStyle name="Nota 2 2" xfId="2268" xr:uid="{00000000-0005-0000-0000-00003C060000}"/>
     <cellStyle name="Nota 3" xfId="432" xr:uid="{00000000-0005-0000-0000-00003D060000}"/>
     <cellStyle name="Nota 3 2" xfId="990" xr:uid="{00000000-0005-0000-0000-00003E060000}"/>
-    <cellStyle name="Nota 3 2 2" xfId="2270" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
-    <cellStyle name="Nota 3 2 2 2" xfId="2271" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
-    <cellStyle name="Nota 3 2 3" xfId="2272" xr:uid="{00000000-0005-0000-0000-000041060000}"/>
-    <cellStyle name="Nota 3 3" xfId="2273" xr:uid="{00000000-0005-0000-0000-000042060000}"/>
+    <cellStyle name="Nota 3 2 2" xfId="2269" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
+    <cellStyle name="Nota 3 2 2 2" xfId="2270" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
+    <cellStyle name="Nota 3 2 3" xfId="2271" xr:uid="{00000000-0005-0000-0000-000041060000}"/>
+    <cellStyle name="Nota 3 3" xfId="2272" xr:uid="{00000000-0005-0000-0000-000042060000}"/>
     <cellStyle name="Nota 4" xfId="991" xr:uid="{00000000-0005-0000-0000-000043060000}"/>
-    <cellStyle name="Nota 4 2" xfId="2274" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
-    <cellStyle name="Nota 4 2 2" xfId="2275" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
-    <cellStyle name="Nota 4 3" xfId="2276" xr:uid="{00000000-0005-0000-0000-000046060000}"/>
+    <cellStyle name="Nota 4 2" xfId="2273" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
+    <cellStyle name="Nota 4 2 2" xfId="2274" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
+    <cellStyle name="Nota 4 3" xfId="2275" xr:uid="{00000000-0005-0000-0000-000046060000}"/>
     <cellStyle name="Nota 5" xfId="992" xr:uid="{00000000-0005-0000-0000-000047060000}"/>
-    <cellStyle name="Nota 5 2" xfId="2277" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
-    <cellStyle name="Nota 6" xfId="2278" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
-    <cellStyle name="Note 2" xfId="2279" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
-    <cellStyle name="Note 2 2" xfId="2280" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
-    <cellStyle name="Note 2 2 2" xfId="2281" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
-    <cellStyle name="Note 2 3" xfId="2282" xr:uid="{00000000-0005-0000-0000-00004D060000}"/>
+    <cellStyle name="Nota 5 2" xfId="2276" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
+    <cellStyle name="Nota 6" xfId="2277" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
+    <cellStyle name="Note 2" xfId="2278" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
+    <cellStyle name="Note 2 2" xfId="2279" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
+    <cellStyle name="Note 2 2 2" xfId="2280" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
+    <cellStyle name="Note 2 3" xfId="2281" xr:uid="{00000000-0005-0000-0000-00004D060000}"/>
     <cellStyle name="Nuovo" xfId="304" xr:uid="{00000000-0005-0000-0000-00004E060000}"/>
     <cellStyle name="Nuovo 10" xfId="305" xr:uid="{00000000-0005-0000-0000-00004F060000}"/>
     <cellStyle name="Nuovo 10 2" xfId="993" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
     <cellStyle name="Nuovo 10 3" xfId="994" xr:uid="{00000000-0005-0000-0000-000051060000}"/>
     <cellStyle name="Nuovo 10 3 2" xfId="995" xr:uid="{00000000-0005-0000-0000-000052060000}"/>
-    <cellStyle name="Nuovo 10 3 2 2" xfId="2283" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
+    <cellStyle name="Nuovo 10 3 2 2" xfId="2282" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
     <cellStyle name="Nuovo 10 4" xfId="996" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
-    <cellStyle name="Nuovo 10 4 2" xfId="2284" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
+    <cellStyle name="Nuovo 10 4 2" xfId="2283" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
     <cellStyle name="Nuovo 10 5" xfId="997" xr:uid="{00000000-0005-0000-0000-000056060000}"/>
     <cellStyle name="Nuovo 11" xfId="306" xr:uid="{00000000-0005-0000-0000-000057060000}"/>
     <cellStyle name="Nuovo 11 2" xfId="998" xr:uid="{00000000-0005-0000-0000-000058060000}"/>
     <cellStyle name="Nuovo 11 3" xfId="999" xr:uid="{00000000-0005-0000-0000-000059060000}"/>
     <cellStyle name="Nuovo 11 3 2" xfId="1000" xr:uid="{00000000-0005-0000-0000-00005A060000}"/>
-    <cellStyle name="Nuovo 11 3 2 2" xfId="2285" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
+    <cellStyle name="Nuovo 11 3 2 2" xfId="2284" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
     <cellStyle name="Nuovo 11 4" xfId="1001" xr:uid="{00000000-0005-0000-0000-00005C060000}"/>
-    <cellStyle name="Nuovo 11 4 2" xfId="2286" xr:uid="{00000000-0005-0000-0000-00005D060000}"/>
+    <cellStyle name="Nuovo 11 4 2" xfId="2285" xr:uid="{00000000-0005-0000-0000-00005D060000}"/>
     <cellStyle name="Nuovo 11 5" xfId="1002" xr:uid="{00000000-0005-0000-0000-00005E060000}"/>
     <cellStyle name="Nuovo 12" xfId="307" xr:uid="{00000000-0005-0000-0000-00005F060000}"/>
     <cellStyle name="Nuovo 12 2" xfId="1003" xr:uid="{00000000-0005-0000-0000-000060060000}"/>
     <cellStyle name="Nuovo 12 3" xfId="1004" xr:uid="{00000000-0005-0000-0000-000061060000}"/>
     <cellStyle name="Nuovo 12 3 2" xfId="1005" xr:uid="{00000000-0005-0000-0000-000062060000}"/>
-    <cellStyle name="Nuovo 12 3 2 2" xfId="2287" xr:uid="{00000000-0005-0000-0000-000063060000}"/>
+    <cellStyle name="Nuovo 12 3 2 2" xfId="2286" xr:uid="{00000000-0005-0000-0000-000063060000}"/>
     <cellStyle name="Nuovo 12 4" xfId="1006" xr:uid="{00000000-0005-0000-0000-000064060000}"/>
-    <cellStyle name="Nuovo 12 4 2" xfId="2288" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
+    <cellStyle name="Nuovo 12 4 2" xfId="2287" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
     <cellStyle name="Nuovo 12 5" xfId="1007" xr:uid="{00000000-0005-0000-0000-000066060000}"/>
     <cellStyle name="Nuovo 13" xfId="308" xr:uid="{00000000-0005-0000-0000-000067060000}"/>
     <cellStyle name="Nuovo 13 2" xfId="1008" xr:uid="{00000000-0005-0000-0000-000068060000}"/>
     <cellStyle name="Nuovo 13 3" xfId="1009" xr:uid="{00000000-0005-0000-0000-000069060000}"/>
     <cellStyle name="Nuovo 13 3 2" xfId="1010" xr:uid="{00000000-0005-0000-0000-00006A060000}"/>
-    <cellStyle name="Nuovo 13 3 2 2" xfId="2289" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
+    <cellStyle name="Nuovo 13 3 2 2" xfId="2288" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
     <cellStyle name="Nuovo 13 4" xfId="1011" xr:uid="{00000000-0005-0000-0000-00006C060000}"/>
-    <cellStyle name="Nuovo 13 4 2" xfId="2290" xr:uid="{00000000-0005-0000-0000-00006D060000}"/>
+    <cellStyle name="Nuovo 13 4 2" xfId="2289" xr:uid="{00000000-0005-0000-0000-00006D060000}"/>
     <cellStyle name="Nuovo 13 5" xfId="1012" xr:uid="{00000000-0005-0000-0000-00006E060000}"/>
     <cellStyle name="Nuovo 14" xfId="309" xr:uid="{00000000-0005-0000-0000-00006F060000}"/>
     <cellStyle name="Nuovo 14 2" xfId="1013" xr:uid="{00000000-0005-0000-0000-000070060000}"/>
     <cellStyle name="Nuovo 14 3" xfId="1014" xr:uid="{00000000-0005-0000-0000-000071060000}"/>
     <cellStyle name="Nuovo 14 3 2" xfId="1015" xr:uid="{00000000-0005-0000-0000-000072060000}"/>
-    <cellStyle name="Nuovo 14 3 2 2" xfId="2291" xr:uid="{00000000-0005-0000-0000-000073060000}"/>
+    <cellStyle name="Nuovo 14 3 2 2" xfId="2290" xr:uid="{00000000-0005-0000-0000-000073060000}"/>
     <cellStyle name="Nuovo 14 4" xfId="1016" xr:uid="{00000000-0005-0000-0000-000074060000}"/>
-    <cellStyle name="Nuovo 14 4 2" xfId="2292" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
+    <cellStyle name="Nuovo 14 4 2" xfId="2291" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
     <cellStyle name="Nuovo 14 5" xfId="1017" xr:uid="{00000000-0005-0000-0000-000076060000}"/>
     <cellStyle name="Nuovo 15" xfId="310" xr:uid="{00000000-0005-0000-0000-000077060000}"/>
     <cellStyle name="Nuovo 15 2" xfId="1018" xr:uid="{00000000-0005-0000-0000-000078060000}"/>
     <cellStyle name="Nuovo 15 3" xfId="1019" xr:uid="{00000000-0005-0000-0000-000079060000}"/>
     <cellStyle name="Nuovo 15 3 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-00007A060000}"/>
-    <cellStyle name="Nuovo 15 3 2 2" xfId="2293" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
+    <cellStyle name="Nuovo 15 3 2 2" xfId="2292" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
     <cellStyle name="Nuovo 15 4" xfId="1021" xr:uid="{00000000-0005-0000-0000-00007C060000}"/>
-    <cellStyle name="Nuovo 15 4 2" xfId="2294" xr:uid="{00000000-0005-0000-0000-00007D060000}"/>
+    <cellStyle name="Nuovo 15 4 2" xfId="2293" xr:uid="{00000000-0005-0000-0000-00007D060000}"/>
     <cellStyle name="Nuovo 15 5" xfId="1022" xr:uid="{00000000-0005-0000-0000-00007E060000}"/>
     <cellStyle name="Nuovo 16" xfId="311" xr:uid="{00000000-0005-0000-0000-00007F060000}"/>
     <cellStyle name="Nuovo 16 2" xfId="1023" xr:uid="{00000000-0005-0000-0000-000080060000}"/>
     <cellStyle name="Nuovo 16 3" xfId="1024" xr:uid="{00000000-0005-0000-0000-000081060000}"/>
     <cellStyle name="Nuovo 16 3 2" xfId="1025" xr:uid="{00000000-0005-0000-0000-000082060000}"/>
-    <cellStyle name="Nuovo 16 3 2 2" xfId="2295" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
+    <cellStyle name="Nuovo 16 3 2 2" xfId="2294" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
     <cellStyle name="Nuovo 16 4" xfId="1026" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
-    <cellStyle name="Nuovo 16 4 2" xfId="2296" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
+    <cellStyle name="Nuovo 16 4 2" xfId="2295" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
     <cellStyle name="Nuovo 16 5" xfId="1027" xr:uid="{00000000-0005-0000-0000-000086060000}"/>
     <cellStyle name="Nuovo 17" xfId="312" xr:uid="{00000000-0005-0000-0000-000087060000}"/>
     <cellStyle name="Nuovo 17 2" xfId="1028" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
     <cellStyle name="Nuovo 17 3" xfId="1029" xr:uid="{00000000-0005-0000-0000-000089060000}"/>
     <cellStyle name="Nuovo 17 3 2" xfId="1030" xr:uid="{00000000-0005-0000-0000-00008A060000}"/>
-    <cellStyle name="Nuovo 17 3 2 2" xfId="2297" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
+    <cellStyle name="Nuovo 17 3 2 2" xfId="2296" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
     <cellStyle name="Nuovo 17 4" xfId="1031" xr:uid="{00000000-0005-0000-0000-00008C060000}"/>
-    <cellStyle name="Nuovo 17 4 2" xfId="2298" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
+    <cellStyle name="Nuovo 17 4 2" xfId="2297" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
     <cellStyle name="Nuovo 17 5" xfId="1032" xr:uid="{00000000-0005-0000-0000-00008E060000}"/>
     <cellStyle name="Nuovo 18" xfId="313" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
     <cellStyle name="Nuovo 18 2" xfId="1033" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
     <cellStyle name="Nuovo 18 3" xfId="1034" xr:uid="{00000000-0005-0000-0000-000091060000}"/>
     <cellStyle name="Nuovo 18 3 2" xfId="1035" xr:uid="{00000000-0005-0000-0000-000092060000}"/>
-    <cellStyle name="Nuovo 18 3 2 2" xfId="2299" xr:uid="{00000000-0005-0000-0000-000093060000}"/>
+    <cellStyle name="Nuovo 18 3 2 2" xfId="2298" xr:uid="{00000000-0005-0000-0000-000093060000}"/>
     <cellStyle name="Nuovo 18 4" xfId="1036" xr:uid="{00000000-0005-0000-0000-000094060000}"/>
-    <cellStyle name="Nuovo 18 4 2" xfId="2300" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
+    <cellStyle name="Nuovo 18 4 2" xfId="2299" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
     <cellStyle name="Nuovo 18 5" xfId="1037" xr:uid="{00000000-0005-0000-0000-000096060000}"/>
     <cellStyle name="Nuovo 19" xfId="314" xr:uid="{00000000-0005-0000-0000-000097060000}"/>
     <cellStyle name="Nuovo 19 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-000098060000}"/>
     <cellStyle name="Nuovo 19 3" xfId="1039" xr:uid="{00000000-0005-0000-0000-000099060000}"/>
     <cellStyle name="Nuovo 19 3 2" xfId="1040" xr:uid="{00000000-0005-0000-0000-00009A060000}"/>
-    <cellStyle name="Nuovo 19 3 2 2" xfId="2301" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
+    <cellStyle name="Nuovo 19 3 2 2" xfId="2300" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
     <cellStyle name="Nuovo 19 4" xfId="1041" xr:uid="{00000000-0005-0000-0000-00009C060000}"/>
-    <cellStyle name="Nuovo 19 4 2" xfId="2302" xr:uid="{00000000-0005-0000-0000-00009D060000}"/>
+    <cellStyle name="Nuovo 19 4 2" xfId="2301" xr:uid="{00000000-0005-0000-0000-00009D060000}"/>
     <cellStyle name="Nuovo 19 5" xfId="1042" xr:uid="{00000000-0005-0000-0000-00009E060000}"/>
     <cellStyle name="Nuovo 2" xfId="315" xr:uid="{00000000-0005-0000-0000-00009F060000}"/>
     <cellStyle name="Nuovo 2 2" xfId="1043" xr:uid="{00000000-0005-0000-0000-0000A0060000}"/>
     <cellStyle name="Nuovo 2 3" xfId="1044" xr:uid="{00000000-0005-0000-0000-0000A1060000}"/>
     <cellStyle name="Nuovo 2 3 2" xfId="1045" xr:uid="{00000000-0005-0000-0000-0000A2060000}"/>
-    <cellStyle name="Nuovo 2 3 2 2" xfId="2303" xr:uid="{00000000-0005-0000-0000-0000A3060000}"/>
+    <cellStyle name="Nuovo 2 3 2 2" xfId="2302" xr:uid="{00000000-0005-0000-0000-0000A3060000}"/>
     <cellStyle name="Nuovo 2 4" xfId="1046" xr:uid="{00000000-0005-0000-0000-0000A4060000}"/>
-    <cellStyle name="Nuovo 2 4 2" xfId="2304" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
+    <cellStyle name="Nuovo 2 4 2" xfId="2303" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
     <cellStyle name="Nuovo 2 5" xfId="1047" xr:uid="{00000000-0005-0000-0000-0000A6060000}"/>
     <cellStyle name="Nuovo 20" xfId="316" xr:uid="{00000000-0005-0000-0000-0000A7060000}"/>
     <cellStyle name="Nuovo 20 2" xfId="1048" xr:uid="{00000000-0005-0000-0000-0000A8060000}"/>
     <cellStyle name="Nuovo 20 3" xfId="1049" xr:uid="{00000000-0005-0000-0000-0000A9060000}"/>
     <cellStyle name="Nuovo 20 3 2" xfId="1050" xr:uid="{00000000-0005-0000-0000-0000AA060000}"/>
-    <cellStyle name="Nuovo 20 3 2 2" xfId="2305" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
+    <cellStyle name="Nuovo 20 3 2 2" xfId="2304" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
     <cellStyle name="Nuovo 20 4" xfId="1051" xr:uid="{00000000-0005-0000-0000-0000AC060000}"/>
-    <cellStyle name="Nuovo 20 4 2" xfId="2306" xr:uid="{00000000-0005-0000-0000-0000AD060000}"/>
+    <cellStyle name="Nuovo 20 4 2" xfId="2305" xr:uid="{00000000-0005-0000-0000-0000AD060000}"/>
     <cellStyle name="Nuovo 20 5" xfId="1052" xr:uid="{00000000-0005-0000-0000-0000AE060000}"/>
     <cellStyle name="Nuovo 21" xfId="317" xr:uid="{00000000-0005-0000-0000-0000AF060000}"/>
     <cellStyle name="Nuovo 21 2" xfId="1053" xr:uid="{00000000-0005-0000-0000-0000B0060000}"/>
     <cellStyle name="Nuovo 21 3" xfId="1054" xr:uid="{00000000-0005-0000-0000-0000B1060000}"/>
     <cellStyle name="Nuovo 21 3 2" xfId="1055" xr:uid="{00000000-0005-0000-0000-0000B2060000}"/>
-    <cellStyle name="Nuovo 21 3 2 2" xfId="2307" xr:uid="{00000000-0005-0000-0000-0000B3060000}"/>
+    <cellStyle name="Nuovo 21 3 2 2" xfId="2306" xr:uid="{00000000-0005-0000-0000-0000B3060000}"/>
     <cellStyle name="Nuovo 21 4" xfId="1056" xr:uid="{00000000-0005-0000-0000-0000B4060000}"/>
-    <cellStyle name="Nuovo 21 4 2" xfId="2308" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
+    <cellStyle name="Nuovo 21 4 2" xfId="2307" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
     <cellStyle name="Nuovo 21 5" xfId="1057" xr:uid="{00000000-0005-0000-0000-0000B6060000}"/>
     <cellStyle name="Nuovo 22" xfId="318" xr:uid="{00000000-0005-0000-0000-0000B7060000}"/>
     <cellStyle name="Nuovo 22 2" xfId="1058" xr:uid="{00000000-0005-0000-0000-0000B8060000}"/>
     <cellStyle name="Nuovo 22 3" xfId="1059" xr:uid="{00000000-0005-0000-0000-0000B9060000}"/>
     <cellStyle name="Nuovo 22 3 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-0000BA060000}"/>
-    <cellStyle name="Nuovo 22 3 2 2" xfId="2309" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
+    <cellStyle name="Nuovo 22 3 2 2" xfId="2308" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
     <cellStyle name="Nuovo 22 4" xfId="1061" xr:uid="{00000000-0005-0000-0000-0000BC060000}"/>
-    <cellStyle name="Nuovo 22 4 2" xfId="2310" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
+    <cellStyle name="Nuovo 22 4 2" xfId="2309" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
     <cellStyle name="Nuovo 22 5" xfId="1062" xr:uid="{00000000-0005-0000-0000-0000BE060000}"/>
     <cellStyle name="Nuovo 23" xfId="319" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
     <cellStyle name="Nuovo 23 2" xfId="1063" xr:uid="{00000000-0005-0000-0000-0000C0060000}"/>
     <cellStyle name="Nuovo 23 3" xfId="1064" xr:uid="{00000000-0005-0000-0000-0000C1060000}"/>
     <cellStyle name="Nuovo 23 3 2" xfId="1065" xr:uid="{00000000-0005-0000-0000-0000C2060000}"/>
-    <cellStyle name="Nuovo 23 3 2 2" xfId="2311" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
+    <cellStyle name="Nuovo 23 3 2 2" xfId="2310" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
     <cellStyle name="Nuovo 23 4" xfId="1066" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
-    <cellStyle name="Nuovo 23 4 2" xfId="2312" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
+    <cellStyle name="Nuovo 23 4 2" xfId="2311" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
     <cellStyle name="Nuovo 23 5" xfId="1067" xr:uid="{00000000-0005-0000-0000-0000C6060000}"/>
     <cellStyle name="Nuovo 24" xfId="320" xr:uid="{00000000-0005-0000-0000-0000C7060000}"/>
     <cellStyle name="Nuovo 24 2" xfId="1068" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
     <cellStyle name="Nuovo 24 3" xfId="1069" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
     <cellStyle name="Nuovo 24 3 2" xfId="1070" xr:uid="{00000000-0005-0000-0000-0000CA060000}"/>
-    <cellStyle name="Nuovo 24 3 2 2" xfId="2313" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
+    <cellStyle name="Nuovo 24 3 2 2" xfId="2312" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
     <cellStyle name="Nuovo 24 4" xfId="1071" xr:uid="{00000000-0005-0000-0000-0000CC060000}"/>
-    <cellStyle name="Nuovo 24 4 2" xfId="2314" xr:uid="{00000000-0005-0000-0000-0000CD060000}"/>
+    <cellStyle name="Nuovo 24 4 2" xfId="2313" xr:uid="{00000000-0005-0000-0000-0000CD060000}"/>
     <cellStyle name="Nuovo 24 5" xfId="1072" xr:uid="{00000000-0005-0000-0000-0000CE060000}"/>
     <cellStyle name="Nuovo 25" xfId="321" xr:uid="{00000000-0005-0000-0000-0000CF060000}"/>
     <cellStyle name="Nuovo 25 2" xfId="1073" xr:uid="{00000000-0005-0000-0000-0000D0060000}"/>
     <cellStyle name="Nuovo 25 3" xfId="1074" xr:uid="{00000000-0005-0000-0000-0000D1060000}"/>
     <cellStyle name="Nuovo 25 3 2" xfId="1075" xr:uid="{00000000-0005-0000-0000-0000D2060000}"/>
-    <cellStyle name="Nuovo 25 3 2 2" xfId="2315" xr:uid="{00000000-0005-0000-0000-0000D3060000}"/>
+    <cellStyle name="Nuovo 25 3 2 2" xfId="2314" xr:uid="{00000000-0005-0000-0000-0000D3060000}"/>
     <cellStyle name="Nuovo 25 4" xfId="1076" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
-    <cellStyle name="Nuovo 25 4 2" xfId="2316" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
+    <cellStyle name="Nuovo 25 4 2" xfId="2315" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
     <cellStyle name="Nuovo 25 5" xfId="1077" xr:uid="{00000000-0005-0000-0000-0000D6060000}"/>
     <cellStyle name="Nuovo 26" xfId="322" xr:uid="{00000000-0005-0000-0000-0000D7060000}"/>
     <cellStyle name="Nuovo 26 2" xfId="1078" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
     <cellStyle name="Nuovo 26 3" xfId="1079" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
     <cellStyle name="Nuovo 26 3 2" xfId="1080" xr:uid="{00000000-0005-0000-0000-0000DA060000}"/>
-    <cellStyle name="Nuovo 26 3 2 2" xfId="2317" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
+    <cellStyle name="Nuovo 26 3 2 2" xfId="2316" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
     <cellStyle name="Nuovo 26 4" xfId="1081" xr:uid="{00000000-0005-0000-0000-0000DC060000}"/>
-    <cellStyle name="Nuovo 26 4 2" xfId="2318" xr:uid="{00000000-0005-0000-0000-0000DD060000}"/>
+    <cellStyle name="Nuovo 26 4 2" xfId="2317" xr:uid="{00000000-0005-0000-0000-0000DD060000}"/>
     <cellStyle name="Nuovo 26 5" xfId="1082" xr:uid="{00000000-0005-0000-0000-0000DE060000}"/>
     <cellStyle name="Nuovo 27" xfId="323" xr:uid="{00000000-0005-0000-0000-0000DF060000}"/>
     <cellStyle name="Nuovo 27 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-0000E0060000}"/>
     <cellStyle name="Nuovo 27 3" xfId="1084" xr:uid="{00000000-0005-0000-0000-0000E1060000}"/>
     <cellStyle name="Nuovo 27 3 2" xfId="1085" xr:uid="{00000000-0005-0000-0000-0000E2060000}"/>
-    <cellStyle name="Nuovo 27 3 2 2" xfId="2319" xr:uid="{00000000-0005-0000-0000-0000E3060000}"/>
+    <cellStyle name="Nuovo 27 3 2 2" xfId="2318" xr:uid="{00000000-0005-0000-0000-0000E3060000}"/>
     <cellStyle name="Nuovo 27 4" xfId="1086" xr:uid="{00000000-0005-0000-0000-0000E4060000}"/>
-    <cellStyle name="Nuovo 27 4 2" xfId="2320" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
+    <cellStyle name="Nuovo 27 4 2" xfId="2319" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
     <cellStyle name="Nuovo 27 5" xfId="1087" xr:uid="{00000000-0005-0000-0000-0000E6060000}"/>
     <cellStyle name="Nuovo 28" xfId="324" xr:uid="{00000000-0005-0000-0000-0000E7060000}"/>
     <cellStyle name="Nuovo 28 2" xfId="1088" xr:uid="{00000000-0005-0000-0000-0000E8060000}"/>
     <cellStyle name="Nuovo 28 3" xfId="1089" xr:uid="{00000000-0005-0000-0000-0000E9060000}"/>
     <cellStyle name="Nuovo 28 3 2" xfId="1090" xr:uid="{00000000-0005-0000-0000-0000EA060000}"/>
-    <cellStyle name="Nuovo 28 3 2 2" xfId="2321" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
+    <cellStyle name="Nuovo 28 3 2 2" xfId="2320" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
     <cellStyle name="Nuovo 28 4" xfId="1091" xr:uid="{00000000-0005-0000-0000-0000EC060000}"/>
-    <cellStyle name="Nuovo 28 4 2" xfId="2322" xr:uid="{00000000-0005-0000-0000-0000ED060000}"/>
+    <cellStyle name="Nuovo 28 4 2" xfId="2321" xr:uid="{00000000-0005-0000-0000-0000ED060000}"/>
     <cellStyle name="Nuovo 28 5" xfId="1092" xr:uid="{00000000-0005-0000-0000-0000EE060000}"/>
     <cellStyle name="Nuovo 29" xfId="325" xr:uid="{00000000-0005-0000-0000-0000EF060000}"/>
     <cellStyle name="Nuovo 29 2" xfId="1093" xr:uid="{00000000-0005-0000-0000-0000F0060000}"/>
     <cellStyle name="Nuovo 29 3" xfId="1094" xr:uid="{00000000-0005-0000-0000-0000F1060000}"/>
     <cellStyle name="Nuovo 29 3 2" xfId="1095" xr:uid="{00000000-0005-0000-0000-0000F2060000}"/>
-    <cellStyle name="Nuovo 29 3 2 2" xfId="2323" xr:uid="{00000000-0005-0000-0000-0000F3060000}"/>
+    <cellStyle name="Nuovo 29 3 2 2" xfId="2322" xr:uid="{00000000-0005-0000-0000-0000F3060000}"/>
     <cellStyle name="Nuovo 29 4" xfId="1096" xr:uid="{00000000-0005-0000-0000-0000F4060000}"/>
-    <cellStyle name="Nuovo 29 4 2" xfId="2324" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
+    <cellStyle name="Nuovo 29 4 2" xfId="2323" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
     <cellStyle name="Nuovo 29 5" xfId="1097" xr:uid="{00000000-0005-0000-0000-0000F6060000}"/>
     <cellStyle name="Nuovo 3" xfId="326" xr:uid="{00000000-0005-0000-0000-0000F7060000}"/>
     <cellStyle name="Nuovo 3 2" xfId="1098" xr:uid="{00000000-0005-0000-0000-0000F8060000}"/>
     <cellStyle name="Nuovo 3 3" xfId="1099" xr:uid="{00000000-0005-0000-0000-0000F9060000}"/>
     <cellStyle name="Nuovo 3 3 2" xfId="1100" xr:uid="{00000000-0005-0000-0000-0000FA060000}"/>
-    <cellStyle name="Nuovo 3 3 2 2" xfId="2325" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
+    <cellStyle name="Nuovo 3 3 2 2" xfId="2324" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
     <cellStyle name="Nuovo 3 4" xfId="1101" xr:uid="{00000000-0005-0000-0000-0000FC060000}"/>
-    <cellStyle name="Nuovo 3 4 2" xfId="2326" xr:uid="{00000000-0005-0000-0000-0000FD060000}"/>
+    <cellStyle name="Nuovo 3 4 2" xfId="2325" xr:uid="{00000000-0005-0000-0000-0000FD060000}"/>
     <cellStyle name="Nuovo 3 5" xfId="1102" xr:uid="{00000000-0005-0000-0000-0000FE060000}"/>
     <cellStyle name="Nuovo 30" xfId="327" xr:uid="{00000000-0005-0000-0000-0000FF060000}"/>
     <cellStyle name="Nuovo 30 2" xfId="1103" xr:uid="{00000000-0005-0000-0000-000000070000}"/>
     <cellStyle name="Nuovo 30 3" xfId="1104" xr:uid="{00000000-0005-0000-0000-000001070000}"/>
     <cellStyle name="Nuovo 30 3 2" xfId="1105" xr:uid="{00000000-0005-0000-0000-000002070000}"/>
-    <cellStyle name="Nuovo 30 3 2 2" xfId="2327" xr:uid="{00000000-0005-0000-0000-000003070000}"/>
+    <cellStyle name="Nuovo 30 3 2 2" xfId="2326" xr:uid="{00000000-0005-0000-0000-000003070000}"/>
     <cellStyle name="Nuovo 30 4" xfId="1106" xr:uid="{00000000-0005-0000-0000-000004070000}"/>
-    <cellStyle name="Nuovo 30 4 2" xfId="2328" xr:uid="{00000000-0005-0000-0000-000005070000}"/>
+    <cellStyle name="Nuovo 30 4 2" xfId="2327" xr:uid="{00000000-0005-0000-0000-000005070000}"/>
     <cellStyle name="Nuovo 30 5" xfId="1107" xr:uid="{00000000-0005-0000-0000-000006070000}"/>
     <cellStyle name="Nuovo 31" xfId="328" xr:uid="{00000000-0005-0000-0000-000007070000}"/>
     <cellStyle name="Nuovo 31 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-000008070000}"/>
     <cellStyle name="Nuovo 31 3" xfId="1109" xr:uid="{00000000-0005-0000-0000-000009070000}"/>
     <cellStyle name="Nuovo 31 3 2" xfId="1110" xr:uid="{00000000-0005-0000-0000-00000A070000}"/>
-    <cellStyle name="Nuovo 31 3 2 2" xfId="2329" xr:uid="{00000000-0005-0000-0000-00000B070000}"/>
+    <cellStyle name="Nuovo 31 3 2 2" xfId="2328" xr:uid="{00000000-0005-0000-0000-00000B070000}"/>
     <cellStyle name="Nuovo 31 4" xfId="1111" xr:uid="{00000000-0005-0000-0000-00000C070000}"/>
-    <cellStyle name="Nuovo 31 4 2" xfId="2330" xr:uid="{00000000-0005-0000-0000-00000D070000}"/>
+    <cellStyle name="Nuovo 31 4 2" xfId="2329" xr:uid="{00000000-0005-0000-0000-00000D070000}"/>
     <cellStyle name="Nuovo 31 5" xfId="1112" xr:uid="{00000000-0005-0000-0000-00000E070000}"/>
     <cellStyle name="Nuovo 32" xfId="329" xr:uid="{00000000-0005-0000-0000-00000F070000}"/>
     <cellStyle name="Nuovo 32 2" xfId="1113" xr:uid="{00000000-0005-0000-0000-000010070000}"/>
     <cellStyle name="Nuovo 32 3" xfId="1114" xr:uid="{00000000-0005-0000-0000-000011070000}"/>
     <cellStyle name="Nuovo 32 3 2" xfId="1115" xr:uid="{00000000-0005-0000-0000-000012070000}"/>
-    <cellStyle name="Nuovo 32 3 2 2" xfId="2331" xr:uid="{00000000-0005-0000-0000-000013070000}"/>
+    <cellStyle name="Nuovo 32 3 2 2" xfId="2330" xr:uid="{00000000-0005-0000-0000-000013070000}"/>
     <cellStyle name="Nuovo 32 4" xfId="1116" xr:uid="{00000000-0005-0000-0000-000014070000}"/>
-    <cellStyle name="Nuovo 32 4 2" xfId="2332" xr:uid="{00000000-0005-0000-0000-000015070000}"/>
+    <cellStyle name="Nuovo 32 4 2" xfId="2331" xr:uid="{00000000-0005-0000-0000-000015070000}"/>
     <cellStyle name="Nuovo 32 5" xfId="1117" xr:uid="{00000000-0005-0000-0000-000016070000}"/>
     <cellStyle name="Nuovo 33" xfId="330" xr:uid="{00000000-0005-0000-0000-000017070000}"/>
     <cellStyle name="Nuovo 33 2" xfId="1118" xr:uid="{00000000-0005-0000-0000-000018070000}"/>
     <cellStyle name="Nuovo 33 3" xfId="1119" xr:uid="{00000000-0005-0000-0000-000019070000}"/>
     <cellStyle name="Nuovo 33 3 2" xfId="1120" xr:uid="{00000000-0005-0000-0000-00001A070000}"/>
-    <cellStyle name="Nuovo 33 3 2 2" xfId="2333" xr:uid="{00000000-0005-0000-0000-00001B070000}"/>
+    <cellStyle name="Nuovo 33 3 2 2" xfId="2332" xr:uid="{00000000-0005-0000-0000-00001B070000}"/>
     <cellStyle name="Nuovo 33 4" xfId="1121" xr:uid="{00000000-0005-0000-0000-00001C070000}"/>
-    <cellStyle name="Nuovo 33 4 2" xfId="2334" xr:uid="{00000000-0005-0000-0000-00001D070000}"/>
+    <cellStyle name="Nuovo 33 4 2" xfId="2333" xr:uid="{00000000-0005-0000-0000-00001D070000}"/>
     <cellStyle name="Nuovo 33 5" xfId="1122" xr:uid="{00000000-0005-0000-0000-00001E070000}"/>
     <cellStyle name="Nuovo 34" xfId="331" xr:uid="{00000000-0005-0000-0000-00001F070000}"/>
     <cellStyle name="Nuovo 34 2" xfId="1123" xr:uid="{00000000-0005-0000-0000-000020070000}"/>
     <cellStyle name="Nuovo 34 3" xfId="1124" xr:uid="{00000000-0005-0000-0000-000021070000}"/>
     <cellStyle name="Nuovo 34 3 2" xfId="1125" xr:uid="{00000000-0005-0000-0000-000022070000}"/>
-    <cellStyle name="Nuovo 34 3 2 2" xfId="2335" xr:uid="{00000000-0005-0000-0000-000023070000}"/>
+    <cellStyle name="Nuovo 34 3 2 2" xfId="2334" xr:uid="{00000000-0005-0000-0000-000023070000}"/>
     <cellStyle name="Nuovo 34 4" xfId="1126" xr:uid="{00000000-0005-0000-0000-000024070000}"/>
-    <cellStyle name="Nuovo 34 4 2" xfId="2336" xr:uid="{00000000-0005-0000-0000-000025070000}"/>
+    <cellStyle name="Nuovo 34 4 2" xfId="2335" xr:uid="{00000000-0005-0000-0000-000025070000}"/>
     <cellStyle name="Nuovo 34 5" xfId="1127" xr:uid="{00000000-0005-0000-0000-000026070000}"/>
     <cellStyle name="Nuovo 35" xfId="332" xr:uid="{00000000-0005-0000-0000-000027070000}"/>
     <cellStyle name="Nuovo 35 2" xfId="1128" xr:uid="{00000000-0005-0000-0000-000028070000}"/>
     <cellStyle name="Nuovo 35 3" xfId="1129" xr:uid="{00000000-0005-0000-0000-000029070000}"/>
     <cellStyle name="Nuovo 35 3 2" xfId="1130" xr:uid="{00000000-0005-0000-0000-00002A070000}"/>
-    <cellStyle name="Nuovo 35 3 2 2" xfId="2337" xr:uid="{00000000-0005-0000-0000-00002B070000}"/>
+    <cellStyle name="Nuovo 35 3 2 2" xfId="2336" xr:uid="{00000000-0005-0000-0000-00002B070000}"/>
     <cellStyle name="Nuovo 35 4" xfId="1131" xr:uid="{00000000-0005-0000-0000-00002C070000}"/>
-    <cellStyle name="Nuovo 35 4 2" xfId="2338" xr:uid="{00000000-0005-0000-0000-00002D070000}"/>
+    <cellStyle name="Nuovo 35 4 2" xfId="2337" xr:uid="{00000000-0005-0000-0000-00002D070000}"/>
     <cellStyle name="Nuovo 35 5" xfId="1132" xr:uid="{00000000-0005-0000-0000-00002E070000}"/>
     <cellStyle name="Nuovo 36" xfId="333" xr:uid="{00000000-0005-0000-0000-00002F070000}"/>
     <cellStyle name="Nuovo 36 2" xfId="1133" xr:uid="{00000000-0005-0000-0000-000030070000}"/>
     <cellStyle name="Nuovo 36 3" xfId="1134" xr:uid="{00000000-0005-0000-0000-000031070000}"/>
     <cellStyle name="Nuovo 36 3 2" xfId="1135" xr:uid="{00000000-0005-0000-0000-000032070000}"/>
-    <cellStyle name="Nuovo 36 3 2 2" xfId="2339" xr:uid="{00000000-0005-0000-0000-000033070000}"/>
+    <cellStyle name="Nuovo 36 3 2 2" xfId="2338" xr:uid="{00000000-0005-0000-0000-000033070000}"/>
     <cellStyle name="Nuovo 36 4" xfId="1136" xr:uid="{00000000-0005-0000-0000-000034070000}"/>
-    <cellStyle name="Nuovo 36 4 2" xfId="2340" xr:uid="{00000000-0005-0000-0000-000035070000}"/>
+    <cellStyle name="Nuovo 36 4 2" xfId="2339" xr:uid="{00000000-0005-0000-0000-000035070000}"/>
     <cellStyle name="Nuovo 36 5" xfId="1137" xr:uid="{00000000-0005-0000-0000-000036070000}"/>
     <cellStyle name="Nuovo 37" xfId="334" xr:uid="{00000000-0005-0000-0000-000037070000}"/>
     <cellStyle name="Nuovo 37 2" xfId="1138" xr:uid="{00000000-0005-0000-0000-000038070000}"/>
     <cellStyle name="Nuovo 37 3" xfId="1139" xr:uid="{00000000-0005-0000-0000-000039070000}"/>
     <cellStyle name="Nuovo 37 3 2" xfId="1140" xr:uid="{00000000-0005-0000-0000-00003A070000}"/>
-    <cellStyle name="Nuovo 37 3 2 2" xfId="2341" xr:uid="{00000000-0005-0000-0000-00003B070000}"/>
+    <cellStyle name="Nuovo 37 3 2 2" xfId="2340" xr:uid="{00000000-0005-0000-0000-00003B070000}"/>
     <cellStyle name="Nuovo 37 4" xfId="1141" xr:uid="{00000000-0005-0000-0000-00003C070000}"/>
-    <cellStyle name="Nuovo 37 4 2" xfId="2342" xr:uid="{00000000-0005-0000-0000-00003D070000}"/>
+    <cellStyle name="Nuovo 37 4 2" xfId="2341" xr:uid="{00000000-0005-0000-0000-00003D070000}"/>
     <cellStyle name="Nuovo 37 5" xfId="1142" xr:uid="{00000000-0005-0000-0000-00003E070000}"/>
     <cellStyle name="Nuovo 38" xfId="335" xr:uid="{00000000-0005-0000-0000-00003F070000}"/>
     <cellStyle name="Nuovo 38 2" xfId="1143" xr:uid="{00000000-0005-0000-0000-000040070000}"/>
     <cellStyle name="Nuovo 38 3" xfId="1144" xr:uid="{00000000-0005-0000-0000-000041070000}"/>
     <cellStyle name="Nuovo 38 3 2" xfId="1145" xr:uid="{00000000-0005-0000-0000-000042070000}"/>
-    <cellStyle name="Nuovo 38 3 2 2" xfId="2343" xr:uid="{00000000-0005-0000-0000-000043070000}"/>
+    <cellStyle name="Nuovo 38 3 2 2" xfId="2342" xr:uid="{00000000-0005-0000-0000-000043070000}"/>
     <cellStyle name="Nuovo 38 4" xfId="1146" xr:uid="{00000000-0005-0000-0000-000044070000}"/>
-    <cellStyle name="Nuovo 38 4 2" xfId="2344" xr:uid="{00000000-0005-0000-0000-000045070000}"/>
+    <cellStyle name="Nuovo 38 4 2" xfId="2343" xr:uid="{00000000-0005-0000-0000-000045070000}"/>
     <cellStyle name="Nuovo 38 5" xfId="1147" xr:uid="{00000000-0005-0000-0000-000046070000}"/>
     <cellStyle name="Nuovo 39" xfId="336" xr:uid="{00000000-0005-0000-0000-000047070000}"/>
     <cellStyle name="Nuovo 39 2" xfId="1148" xr:uid="{00000000-0005-0000-0000-000048070000}"/>
     <cellStyle name="Nuovo 39 3" xfId="1149" xr:uid="{00000000-0005-0000-0000-000049070000}"/>
     <cellStyle name="Nuovo 39 3 2" xfId="1150" xr:uid="{00000000-0005-0000-0000-00004A070000}"/>
-    <cellStyle name="Nuovo 39 3 2 2" xfId="2345" xr:uid="{00000000-0005-0000-0000-00004B070000}"/>
+    <cellStyle name="Nuovo 39 3 2 2" xfId="2344" xr:uid="{00000000-0005-0000-0000-00004B070000}"/>
     <cellStyle name="Nuovo 39 4" xfId="1151" xr:uid="{00000000-0005-0000-0000-00004C070000}"/>
-    <cellStyle name="Nuovo 39 4 2" xfId="2346" xr:uid="{00000000-0005-0000-0000-00004D070000}"/>
+    <cellStyle name="Nuovo 39 4 2" xfId="2345" xr:uid="{00000000-0005-0000-0000-00004D070000}"/>
     <cellStyle name="Nuovo 39 5" xfId="1152" xr:uid="{00000000-0005-0000-0000-00004E070000}"/>
     <cellStyle name="Nuovo 4" xfId="337" xr:uid="{00000000-0005-0000-0000-00004F070000}"/>
     <cellStyle name="Nuovo 4 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-000050070000}"/>
     <cellStyle name="Nuovo 4 3" xfId="1154" xr:uid="{00000000-0005-0000-0000-000051070000}"/>
     <cellStyle name="Nuovo 4 3 2" xfId="1155" xr:uid="{00000000-0005-0000-0000-000052070000}"/>
-    <cellStyle name="Nuovo 4 3 2 2" xfId="2347" xr:uid="{00000000-0005-0000-0000-000053070000}"/>
+    <cellStyle name="Nuovo 4 3 2 2" xfId="2346" xr:uid="{00000000-0005-0000-0000-000053070000}"/>
     <cellStyle name="Nuovo 4 4" xfId="1156" xr:uid="{00000000-0005-0000-0000-000054070000}"/>
-    <cellStyle name="Nuovo 4 4 2" xfId="2348" xr:uid="{00000000-0005-0000-0000-000055070000}"/>
+    <cellStyle name="Nuovo 4 4 2" xfId="2347" xr:uid="{00000000-0005-0000-0000-000055070000}"/>
     <cellStyle name="Nuovo 4 5" xfId="1157" xr:uid="{00000000-0005-0000-0000-000056070000}"/>
     <cellStyle name="Nuovo 40" xfId="338" xr:uid="{00000000-0005-0000-0000-000057070000}"/>
     <cellStyle name="Nuovo 40 2" xfId="1158" xr:uid="{00000000-0005-0000-0000-000058070000}"/>
     <cellStyle name="Nuovo 40 3" xfId="1159" xr:uid="{00000000-0005-0000-0000-000059070000}"/>
     <cellStyle name="Nuovo 40 3 2" xfId="1160" xr:uid="{00000000-0005-0000-0000-00005A070000}"/>
-    <cellStyle name="Nuovo 40 3 2 2" xfId="2349" xr:uid="{00000000-0005-0000-0000-00005B070000}"/>
+    <cellStyle name="Nuovo 40 3 2 2" xfId="2348" xr:uid="{00000000-0005-0000-0000-00005B070000}"/>
     <cellStyle name="Nuovo 40 4" xfId="1161" xr:uid="{00000000-0005-0000-0000-00005C070000}"/>
-    <cellStyle name="Nuovo 40 4 2" xfId="2350" xr:uid="{00000000-0005-0000-0000-00005D070000}"/>
+    <cellStyle name="Nuovo 40 4 2" xfId="2349" xr:uid="{00000000-0005-0000-0000-00005D070000}"/>
     <cellStyle name="Nuovo 40 5" xfId="1162" xr:uid="{00000000-0005-0000-0000-00005E070000}"/>
     <cellStyle name="Nuovo 41" xfId="339" xr:uid="{00000000-0005-0000-0000-00005F070000}"/>
     <cellStyle name="Nuovo 41 2" xfId="1163" xr:uid="{00000000-0005-0000-0000-000060070000}"/>
     <cellStyle name="Nuovo 41 3" xfId="1164" xr:uid="{00000000-0005-0000-0000-000061070000}"/>
     <cellStyle name="Nuovo 41 3 2" xfId="1165" xr:uid="{00000000-0005-0000-0000-000062070000}"/>
-    <cellStyle name="Nuovo 41 3 2 2" xfId="2351" xr:uid="{00000000-0005-0000-0000-000063070000}"/>
+    <cellStyle name="Nuovo 41 3 2 2" xfId="2350" xr:uid="{00000000-0005-0000-0000-000063070000}"/>
     <cellStyle name="Nuovo 41 4" xfId="1166" xr:uid="{00000000-0005-0000-0000-000064070000}"/>
-    <cellStyle name="Nuovo 41 4 2" xfId="2352" xr:uid="{00000000-0005-0000-0000-000065070000}"/>
+    <cellStyle name="Nuovo 41 4 2" xfId="2351" xr:uid="{00000000-0005-0000-0000-000065070000}"/>
     <cellStyle name="Nuovo 41 5" xfId="1167" xr:uid="{00000000-0005-0000-0000-000066070000}"/>
     <cellStyle name="Nuovo 42" xfId="340" xr:uid="{00000000-0005-0000-0000-000067070000}"/>
     <cellStyle name="Nuovo 42 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-000068070000}"/>
     <cellStyle name="Nuovo 42 3" xfId="1169" xr:uid="{00000000-0005-0000-0000-000069070000}"/>
     <cellStyle name="Nuovo 42 3 2" xfId="1170" xr:uid="{00000000-0005-0000-0000-00006A070000}"/>
-    <cellStyle name="Nuovo 42 3 2 2" xfId="2353" xr:uid="{00000000-0005-0000-0000-00006B070000}"/>
+    <cellStyle name="Nuovo 42 3 2 2" xfId="2352" xr:uid="{00000000-0005-0000-0000-00006B070000}"/>
     <cellStyle name="Nuovo 42 4" xfId="1171" xr:uid="{00000000-0005-0000-0000-00006C070000}"/>
-    <cellStyle name="Nuovo 42 4 2" xfId="2354" xr:uid="{00000000-0005-0000-0000-00006D070000}"/>
+    <cellStyle name="Nuovo 42 4 2" xfId="2353" xr:uid="{00000000-0005-0000-0000-00006D070000}"/>
     <cellStyle name="Nuovo 42 5" xfId="1172" xr:uid="{00000000-0005-0000-0000-00006E070000}"/>
     <cellStyle name="Nuovo 43" xfId="341" xr:uid="{00000000-0005-0000-0000-00006F070000}"/>
     <cellStyle name="Nuovo 43 2" xfId="1173" xr:uid="{00000000-0005-0000-0000-000070070000}"/>
     <cellStyle name="Nuovo 43 3" xfId="1174" xr:uid="{00000000-0005-0000-0000-000071070000}"/>
     <cellStyle name="Nuovo 43 3 2" xfId="1175" xr:uid="{00000000-0005-0000-0000-000072070000}"/>
-    <cellStyle name="Nuovo 43 3 2 2" xfId="2355" xr:uid="{00000000-0005-0000-0000-000073070000}"/>
+    <cellStyle name="Nuovo 43 3 2 2" xfId="2354" xr:uid="{00000000-0005-0000-0000-000073070000}"/>
     <cellStyle name="Nuovo 43 4" xfId="1176" xr:uid="{00000000-0005-0000-0000-000074070000}"/>
-    <cellStyle name="Nuovo 43 4 2" xfId="2356" xr:uid="{00000000-0005-0000-0000-000075070000}"/>
+    <cellStyle name="Nuovo 43 4 2" xfId="2355" xr:uid="{00000000-0005-0000-0000-000075070000}"/>
     <cellStyle name="Nuovo 43 5" xfId="1177" xr:uid="{00000000-0005-0000-0000-000076070000}"/>
     <cellStyle name="Nuovo 44" xfId="342" xr:uid="{00000000-0005-0000-0000-000077070000}"/>
     <cellStyle name="Nuovo 44 2" xfId="1178" xr:uid="{00000000-0005-0000-0000-000078070000}"/>
     <cellStyle name="Nuovo 44 3" xfId="1179" xr:uid="{00000000-0005-0000-0000-000079070000}"/>
     <cellStyle name="Nuovo 44 3 2" xfId="1180" xr:uid="{00000000-0005-0000-0000-00007A070000}"/>
-    <cellStyle name="Nuovo 44 3 2 2" xfId="2357" xr:uid="{00000000-0005-0000-0000-00007B070000}"/>
+    <cellStyle name="Nuovo 44 3 2 2" xfId="2356" xr:uid="{00000000-0005-0000-0000-00007B070000}"/>
     <cellStyle name="Nuovo 44 4" xfId="1181" xr:uid="{00000000-0005-0000-0000-00007C070000}"/>
-    <cellStyle name="Nuovo 44 4 2" xfId="2358" xr:uid="{00000000-0005-0000-0000-00007D070000}"/>
+    <cellStyle name="Nuovo 44 4 2" xfId="2357" xr:uid="{00000000-0005-0000-0000-00007D070000}"/>
     <cellStyle name="Nuovo 44 5" xfId="1182" xr:uid="{00000000-0005-0000-0000-00007E070000}"/>
     <cellStyle name="Nuovo 45" xfId="1183" xr:uid="{00000000-0005-0000-0000-00007F070000}"/>
     <cellStyle name="Nuovo 46" xfId="1184" xr:uid="{00000000-0005-0000-0000-000080070000}"/>
     <cellStyle name="Nuovo 46 2" xfId="1185" xr:uid="{00000000-0005-0000-0000-000081070000}"/>
-    <cellStyle name="Nuovo 46 2 2" xfId="2359" xr:uid="{00000000-0005-0000-0000-000082070000}"/>
+    <cellStyle name="Nuovo 46 2 2" xfId="2358" xr:uid="{00000000-0005-0000-0000-000082070000}"/>
     <cellStyle name="Nuovo 47" xfId="1186" xr:uid="{00000000-0005-0000-0000-000083070000}"/>
-    <cellStyle name="Nuovo 47 2" xfId="2360" xr:uid="{00000000-0005-0000-0000-000084070000}"/>
+    <cellStyle name="Nuovo 47 2" xfId="2359" xr:uid="{00000000-0005-0000-0000-000084070000}"/>
     <cellStyle name="Nuovo 48" xfId="1187" xr:uid="{00000000-0005-0000-0000-000085070000}"/>
     <cellStyle name="Nuovo 5" xfId="343" xr:uid="{00000000-0005-0000-0000-000086070000}"/>
     <cellStyle name="Nuovo 5 2" xfId="1188" xr:uid="{00000000-0005-0000-0000-000087070000}"/>
     <cellStyle name="Nuovo 5 3" xfId="1189" xr:uid="{00000000-0005-0000-0000-000088070000}"/>
     <cellStyle name="Nuovo 5 3 2" xfId="1190" xr:uid="{00000000-0005-0000-0000-000089070000}"/>
-    <cellStyle name="Nuovo 5 3 2 2" xfId="2361" xr:uid="{00000000-0005-0000-0000-00008A070000}"/>
+    <cellStyle name="Nuovo 5 3 2 2" xfId="2360" xr:uid="{00000000-0005-0000-0000-00008A070000}"/>
     <cellStyle name="Nuovo 5 4" xfId="1191" xr:uid="{00000000-0005-0000-0000-00008B070000}"/>
-    <cellStyle name="Nuovo 5 4 2" xfId="2362" xr:uid="{00000000-0005-0000-0000-00008C070000}"/>
+    <cellStyle name="Nuovo 5 4 2" xfId="2361" xr:uid="{00000000-0005-0000-0000-00008C070000}"/>
     <cellStyle name="Nuovo 5 5" xfId="1192" xr:uid="{00000000-0005-0000-0000-00008D070000}"/>
     <cellStyle name="Nuovo 6" xfId="344" xr:uid="{00000000-0005-0000-0000-00008E070000}"/>
     <cellStyle name="Nuovo 6 2" xfId="1193" xr:uid="{00000000-0005-0000-0000-00008F070000}"/>
     <cellStyle name="Nuovo 6 3" xfId="1194" xr:uid="{00000000-0005-0000-0000-000090070000}"/>
     <cellStyle name="Nuovo 6 3 2" xfId="1195" xr:uid="{00000000-0005-0000-0000-000091070000}"/>
-    <cellStyle name="Nuovo 6 3 2 2" xfId="2363" xr:uid="{00000000-0005-0000-0000-000092070000}"/>
+    <cellStyle name="Nuovo 6 3 2 2" xfId="2362" xr:uid="{00000000-0005-0000-0000-000092070000}"/>
     <cellStyle name="Nuovo 6 4" xfId="1196" xr:uid="{00000000-0005-0000-0000-000093070000}"/>
-    <cellStyle name="Nuovo 6 4 2" xfId="2364" xr:uid="{00000000-0005-0000-0000-000094070000}"/>
+    <cellStyle name="Nuovo 6 4 2" xfId="2363" xr:uid="{00000000-0005-0000-0000-000094070000}"/>
     <cellStyle name="Nuovo 6 5" xfId="1197" xr:uid="{00000000-0005-0000-0000-000095070000}"/>
     <cellStyle name="Nuovo 7" xfId="345" xr:uid="{00000000-0005-0000-0000-000096070000}"/>
     <cellStyle name="Nuovo 7 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-000097070000}"/>
     <cellStyle name="Nuovo 7 3" xfId="1199" xr:uid="{00000000-0005-0000-0000-000098070000}"/>
     <cellStyle name="Nuovo 7 3 2" xfId="1200" xr:uid="{00000000-0005-0000-0000-000099070000}"/>
-    <cellStyle name="Nuovo 7 3 2 2" xfId="2365" xr:uid="{00000000-0005-0000-0000-00009A070000}"/>
+    <cellStyle name="Nuovo 7 3 2 2" xfId="2364" xr:uid="{00000000-0005-0000-0000-00009A070000}"/>
     <cellStyle name="Nuovo 7 4" xfId="1201" xr:uid="{00000000-0005-0000-0000-00009B070000}"/>
-    <cellStyle name="Nuovo 7 4 2" xfId="2366" xr:uid="{00000000-0005-0000-0000-00009C070000}"/>
+    <cellStyle name="Nuovo 7 4 2" xfId="2365" xr:uid="{00000000-0005-0000-0000-00009C070000}"/>
     <cellStyle name="Nuovo 7 5" xfId="1202" xr:uid="{00000000-0005-0000-0000-00009D070000}"/>
     <cellStyle name="Nuovo 8" xfId="346" xr:uid="{00000000-0005-0000-0000-00009E070000}"/>
     <cellStyle name="Nuovo 8 2" xfId="1203" xr:uid="{00000000-0005-0000-0000-00009F070000}"/>
     <cellStyle name="Nuovo 8 3" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000A0070000}"/>
     <cellStyle name="Nuovo 8 3 2" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000A1070000}"/>
-    <cellStyle name="Nuovo 8 3 2 2" xfId="2367" xr:uid="{00000000-0005-0000-0000-0000A2070000}"/>
+    <cellStyle name="Nuovo 8 3 2 2" xfId="2366" xr:uid="{00000000-0005-0000-0000-0000A2070000}"/>
     <cellStyle name="Nuovo 8 4" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000A3070000}"/>
-    <cellStyle name="Nuovo 8 4 2" xfId="2368" xr:uid="{00000000-0005-0000-0000-0000A4070000}"/>
+    <cellStyle name="Nuovo 8 4 2" xfId="2367" xr:uid="{00000000-0005-0000-0000-0000A4070000}"/>
     <cellStyle name="Nuovo 8 5" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000A5070000}"/>
     <cellStyle name="Nuovo 9" xfId="347" xr:uid="{00000000-0005-0000-0000-0000A6070000}"/>
     <cellStyle name="Nuovo 9 2" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000A7070000}"/>
     <cellStyle name="Nuovo 9 3" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000A8070000}"/>
     <cellStyle name="Nuovo 9 3 2" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000A9070000}"/>
-    <cellStyle name="Nuovo 9 3 2 2" xfId="2369" xr:uid="{00000000-0005-0000-0000-0000AA070000}"/>
+    <cellStyle name="Nuovo 9 3 2 2" xfId="2368" xr:uid="{00000000-0005-0000-0000-0000AA070000}"/>
     <cellStyle name="Nuovo 9 4" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000AB070000}"/>
-    <cellStyle name="Nuovo 9 4 2" xfId="2370" xr:uid="{00000000-0005-0000-0000-0000AC070000}"/>
+    <cellStyle name="Nuovo 9 4 2" xfId="2369" xr:uid="{00000000-0005-0000-0000-0000AC070000}"/>
     <cellStyle name="Nuovo 9 5" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000AD070000}"/>
     <cellStyle name="Output 2" xfId="348" xr:uid="{00000000-0005-0000-0000-0000AE070000}"/>
     <cellStyle name="Output 2 2" xfId="431" xr:uid="{00000000-0005-0000-0000-0000AF070000}"/>
-    <cellStyle name="Output 2 2 2" xfId="2371" xr:uid="{00000000-0005-0000-0000-0000B0070000}"/>
-    <cellStyle name="Output 2 3" xfId="2372" xr:uid="{00000000-0005-0000-0000-0000B1070000}"/>
+    <cellStyle name="Output 2 2 2" xfId="2370" xr:uid="{00000000-0005-0000-0000-0000B0070000}"/>
+    <cellStyle name="Output 2 3" xfId="2371" xr:uid="{00000000-0005-0000-0000-0000B1070000}"/>
     <cellStyle name="Output 3" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000B2070000}"/>
-    <cellStyle name="Output 3 2" xfId="2373" xr:uid="{00000000-0005-0000-0000-0000B3070000}"/>
+    <cellStyle name="Output 3 2" xfId="2372" xr:uid="{00000000-0005-0000-0000-0000B3070000}"/>
     <cellStyle name="Percen - Type1" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000B4070000}"/>
     <cellStyle name="Percent 2" xfId="349" xr:uid="{00000000-0005-0000-0000-0000B5070000}"/>
-    <cellStyle name="Percent 2 2" xfId="2374" xr:uid="{00000000-0005-0000-0000-0000B6070000}"/>
-    <cellStyle name="Percent 2 2 2" xfId="2375" xr:uid="{00000000-0005-0000-0000-0000B7070000}"/>
-    <cellStyle name="Percent 2 2 3" xfId="2376" xr:uid="{00000000-0005-0000-0000-0000B8070000}"/>
-    <cellStyle name="Percent 2 2 3 2" xfId="2377" xr:uid="{00000000-0005-0000-0000-0000B9070000}"/>
-    <cellStyle name="Percent 2 2 4" xfId="2378" xr:uid="{00000000-0005-0000-0000-0000BA070000}"/>
-    <cellStyle name="Percent 2 3" xfId="2379" xr:uid="{00000000-0005-0000-0000-0000BB070000}"/>
-    <cellStyle name="Percent 2 3 2" xfId="2380" xr:uid="{00000000-0005-0000-0000-0000BC070000}"/>
+    <cellStyle name="Percent 2 2" xfId="2373" xr:uid="{00000000-0005-0000-0000-0000B6070000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="2374" xr:uid="{00000000-0005-0000-0000-0000B7070000}"/>
+    <cellStyle name="Percent 2 2 3" xfId="2375" xr:uid="{00000000-0005-0000-0000-0000B8070000}"/>
+    <cellStyle name="Percent 2 2 3 2" xfId="2376" xr:uid="{00000000-0005-0000-0000-0000B9070000}"/>
+    <cellStyle name="Percent 2 2 4" xfId="2377" xr:uid="{00000000-0005-0000-0000-0000BA070000}"/>
+    <cellStyle name="Percent 2 3" xfId="2378" xr:uid="{00000000-0005-0000-0000-0000BB070000}"/>
+    <cellStyle name="Percent 2 3 2" xfId="2379" xr:uid="{00000000-0005-0000-0000-0000BC070000}"/>
     <cellStyle name="Percent 3" xfId="350" xr:uid="{00000000-0005-0000-0000-0000BD070000}"/>
     <cellStyle name="Percent 3 2" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000BE070000}"/>
     <cellStyle name="Percent 3 3" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000BF070000}"/>
     <cellStyle name="Percent 3 3 2" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C0070000}"/>
-    <cellStyle name="Percent 3 3 2 2" xfId="2381" xr:uid="{00000000-0005-0000-0000-0000C1070000}"/>
+    <cellStyle name="Percent 3 3 2 2" xfId="2380" xr:uid="{00000000-0005-0000-0000-0000C1070000}"/>
     <cellStyle name="Percent 3 4" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C2070000}"/>
-    <cellStyle name="Percent 3 4 2" xfId="2382" xr:uid="{00000000-0005-0000-0000-0000C3070000}"/>
+    <cellStyle name="Percent 3 4 2" xfId="2381" xr:uid="{00000000-0005-0000-0000-0000C3070000}"/>
     <cellStyle name="Percent 4" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000C4070000}"/>
     <cellStyle name="Percent 5" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000C5070000}"/>
     <cellStyle name="Percent 6" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000C6070000}"/>
@@ -7366,589 +7367,589 @@
     <cellStyle name="Percentuale 10 2" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000C8070000}"/>
     <cellStyle name="Percentuale 10 3" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000C9070000}"/>
     <cellStyle name="Percentuale 10 3 2" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000CA070000}"/>
-    <cellStyle name="Percentuale 10 3 2 2" xfId="2383" xr:uid="{00000000-0005-0000-0000-0000CB070000}"/>
+    <cellStyle name="Percentuale 10 3 2 2" xfId="2382" xr:uid="{00000000-0005-0000-0000-0000CB070000}"/>
     <cellStyle name="Percentuale 10 4" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000CC070000}"/>
-    <cellStyle name="Percentuale 10 4 2" xfId="2384" xr:uid="{00000000-0005-0000-0000-0000CD070000}"/>
+    <cellStyle name="Percentuale 10 4 2" xfId="2383" xr:uid="{00000000-0005-0000-0000-0000CD070000}"/>
     <cellStyle name="Percentuale 10 5" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000CE070000}"/>
     <cellStyle name="Percentuale 11" xfId="352" xr:uid="{00000000-0005-0000-0000-0000CF070000}"/>
     <cellStyle name="Percentuale 11 2" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000D0070000}"/>
     <cellStyle name="Percentuale 11 3" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000D1070000}"/>
     <cellStyle name="Percentuale 11 3 2" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000D2070000}"/>
-    <cellStyle name="Percentuale 11 3 2 2" xfId="2385" xr:uid="{00000000-0005-0000-0000-0000D3070000}"/>
+    <cellStyle name="Percentuale 11 3 2 2" xfId="2384" xr:uid="{00000000-0005-0000-0000-0000D3070000}"/>
     <cellStyle name="Percentuale 11 4" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000D4070000}"/>
-    <cellStyle name="Percentuale 11 4 2" xfId="2386" xr:uid="{00000000-0005-0000-0000-0000D5070000}"/>
+    <cellStyle name="Percentuale 11 4 2" xfId="2385" xr:uid="{00000000-0005-0000-0000-0000D5070000}"/>
     <cellStyle name="Percentuale 11 5" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000D6070000}"/>
     <cellStyle name="Percentuale 12" xfId="353" xr:uid="{00000000-0005-0000-0000-0000D7070000}"/>
     <cellStyle name="Percentuale 12 2" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000D8070000}"/>
     <cellStyle name="Percentuale 12 3" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000D9070000}"/>
     <cellStyle name="Percentuale 12 3 2" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000DA070000}"/>
-    <cellStyle name="Percentuale 12 3 2 2" xfId="2387" xr:uid="{00000000-0005-0000-0000-0000DB070000}"/>
+    <cellStyle name="Percentuale 12 3 2 2" xfId="2386" xr:uid="{00000000-0005-0000-0000-0000DB070000}"/>
     <cellStyle name="Percentuale 12 4" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000DC070000}"/>
-    <cellStyle name="Percentuale 12 4 2" xfId="2388" xr:uid="{00000000-0005-0000-0000-0000DD070000}"/>
+    <cellStyle name="Percentuale 12 4 2" xfId="2387" xr:uid="{00000000-0005-0000-0000-0000DD070000}"/>
     <cellStyle name="Percentuale 12 5" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000DE070000}"/>
     <cellStyle name="Percentuale 13" xfId="354" xr:uid="{00000000-0005-0000-0000-0000DF070000}"/>
     <cellStyle name="Percentuale 13 2" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000E0070000}"/>
     <cellStyle name="Percentuale 13 3" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000E1070000}"/>
     <cellStyle name="Percentuale 13 3 2" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000E2070000}"/>
-    <cellStyle name="Percentuale 13 3 2 2" xfId="2389" xr:uid="{00000000-0005-0000-0000-0000E3070000}"/>
+    <cellStyle name="Percentuale 13 3 2 2" xfId="2388" xr:uid="{00000000-0005-0000-0000-0000E3070000}"/>
     <cellStyle name="Percentuale 13 4" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000E4070000}"/>
-    <cellStyle name="Percentuale 13 4 2" xfId="2390" xr:uid="{00000000-0005-0000-0000-0000E5070000}"/>
+    <cellStyle name="Percentuale 13 4 2" xfId="2389" xr:uid="{00000000-0005-0000-0000-0000E5070000}"/>
     <cellStyle name="Percentuale 13 5" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000E6070000}"/>
     <cellStyle name="Percentuale 14" xfId="355" xr:uid="{00000000-0005-0000-0000-0000E7070000}"/>
     <cellStyle name="Percentuale 14 2" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000E8070000}"/>
     <cellStyle name="Percentuale 14 3" xfId="1243" xr:uid="{00000000-0005-0000-0000-0000E9070000}"/>
     <cellStyle name="Percentuale 14 3 2" xfId="1244" xr:uid="{00000000-0005-0000-0000-0000EA070000}"/>
-    <cellStyle name="Percentuale 14 3 2 2" xfId="2391" xr:uid="{00000000-0005-0000-0000-0000EB070000}"/>
+    <cellStyle name="Percentuale 14 3 2 2" xfId="2390" xr:uid="{00000000-0005-0000-0000-0000EB070000}"/>
     <cellStyle name="Percentuale 14 4" xfId="1245" xr:uid="{00000000-0005-0000-0000-0000EC070000}"/>
-    <cellStyle name="Percentuale 14 4 2" xfId="2392" xr:uid="{00000000-0005-0000-0000-0000ED070000}"/>
+    <cellStyle name="Percentuale 14 4 2" xfId="2391" xr:uid="{00000000-0005-0000-0000-0000ED070000}"/>
     <cellStyle name="Percentuale 14 5" xfId="1246" xr:uid="{00000000-0005-0000-0000-0000EE070000}"/>
     <cellStyle name="Percentuale 15" xfId="356" xr:uid="{00000000-0005-0000-0000-0000EF070000}"/>
     <cellStyle name="Percentuale 15 2" xfId="1247" xr:uid="{00000000-0005-0000-0000-0000F0070000}"/>
     <cellStyle name="Percentuale 15 3" xfId="1248" xr:uid="{00000000-0005-0000-0000-0000F1070000}"/>
     <cellStyle name="Percentuale 15 3 2" xfId="1249" xr:uid="{00000000-0005-0000-0000-0000F2070000}"/>
-    <cellStyle name="Percentuale 15 3 2 2" xfId="2393" xr:uid="{00000000-0005-0000-0000-0000F3070000}"/>
+    <cellStyle name="Percentuale 15 3 2 2" xfId="2392" xr:uid="{00000000-0005-0000-0000-0000F3070000}"/>
     <cellStyle name="Percentuale 15 4" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000F4070000}"/>
-    <cellStyle name="Percentuale 15 4 2" xfId="2394" xr:uid="{00000000-0005-0000-0000-0000F5070000}"/>
+    <cellStyle name="Percentuale 15 4 2" xfId="2393" xr:uid="{00000000-0005-0000-0000-0000F5070000}"/>
     <cellStyle name="Percentuale 15 5" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000F6070000}"/>
     <cellStyle name="Percentuale 16" xfId="357" xr:uid="{00000000-0005-0000-0000-0000F7070000}"/>
     <cellStyle name="Percentuale 16 2" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000F8070000}"/>
     <cellStyle name="Percentuale 16 3" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000F9070000}"/>
     <cellStyle name="Percentuale 16 3 2" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000FA070000}"/>
-    <cellStyle name="Percentuale 16 3 2 2" xfId="2395" xr:uid="{00000000-0005-0000-0000-0000FB070000}"/>
+    <cellStyle name="Percentuale 16 3 2 2" xfId="2394" xr:uid="{00000000-0005-0000-0000-0000FB070000}"/>
     <cellStyle name="Percentuale 16 4" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000FC070000}"/>
-    <cellStyle name="Percentuale 16 4 2" xfId="2396" xr:uid="{00000000-0005-0000-0000-0000FD070000}"/>
+    <cellStyle name="Percentuale 16 4 2" xfId="2395" xr:uid="{00000000-0005-0000-0000-0000FD070000}"/>
     <cellStyle name="Percentuale 16 5" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000FE070000}"/>
     <cellStyle name="Percentuale 17" xfId="358" xr:uid="{00000000-0005-0000-0000-0000FF070000}"/>
     <cellStyle name="Percentuale 17 2" xfId="1257" xr:uid="{00000000-0005-0000-0000-000000080000}"/>
     <cellStyle name="Percentuale 17 3" xfId="1258" xr:uid="{00000000-0005-0000-0000-000001080000}"/>
     <cellStyle name="Percentuale 17 3 2" xfId="1259" xr:uid="{00000000-0005-0000-0000-000002080000}"/>
-    <cellStyle name="Percentuale 17 3 2 2" xfId="2397" xr:uid="{00000000-0005-0000-0000-000003080000}"/>
+    <cellStyle name="Percentuale 17 3 2 2" xfId="2396" xr:uid="{00000000-0005-0000-0000-000003080000}"/>
     <cellStyle name="Percentuale 17 4" xfId="1260" xr:uid="{00000000-0005-0000-0000-000004080000}"/>
-    <cellStyle name="Percentuale 17 4 2" xfId="2398" xr:uid="{00000000-0005-0000-0000-000005080000}"/>
+    <cellStyle name="Percentuale 17 4 2" xfId="2397" xr:uid="{00000000-0005-0000-0000-000005080000}"/>
     <cellStyle name="Percentuale 17 5" xfId="1261" xr:uid="{00000000-0005-0000-0000-000006080000}"/>
     <cellStyle name="Percentuale 18" xfId="359" xr:uid="{00000000-0005-0000-0000-000007080000}"/>
     <cellStyle name="Percentuale 18 2" xfId="1262" xr:uid="{00000000-0005-0000-0000-000008080000}"/>
     <cellStyle name="Percentuale 18 3" xfId="1263" xr:uid="{00000000-0005-0000-0000-000009080000}"/>
     <cellStyle name="Percentuale 18 3 2" xfId="1264" xr:uid="{00000000-0005-0000-0000-00000A080000}"/>
-    <cellStyle name="Percentuale 18 3 2 2" xfId="2399" xr:uid="{00000000-0005-0000-0000-00000B080000}"/>
+    <cellStyle name="Percentuale 18 3 2 2" xfId="2398" xr:uid="{00000000-0005-0000-0000-00000B080000}"/>
     <cellStyle name="Percentuale 18 4" xfId="1265" xr:uid="{00000000-0005-0000-0000-00000C080000}"/>
-    <cellStyle name="Percentuale 18 4 2" xfId="2400" xr:uid="{00000000-0005-0000-0000-00000D080000}"/>
+    <cellStyle name="Percentuale 18 4 2" xfId="2399" xr:uid="{00000000-0005-0000-0000-00000D080000}"/>
     <cellStyle name="Percentuale 18 5" xfId="1266" xr:uid="{00000000-0005-0000-0000-00000E080000}"/>
     <cellStyle name="Percentuale 19" xfId="360" xr:uid="{00000000-0005-0000-0000-00000F080000}"/>
     <cellStyle name="Percentuale 19 2" xfId="1267" xr:uid="{00000000-0005-0000-0000-000010080000}"/>
     <cellStyle name="Percentuale 19 3" xfId="1268" xr:uid="{00000000-0005-0000-0000-000011080000}"/>
     <cellStyle name="Percentuale 19 3 2" xfId="1269" xr:uid="{00000000-0005-0000-0000-000012080000}"/>
-    <cellStyle name="Percentuale 19 3 2 2" xfId="2401" xr:uid="{00000000-0005-0000-0000-000013080000}"/>
+    <cellStyle name="Percentuale 19 3 2 2" xfId="2400" xr:uid="{00000000-0005-0000-0000-000013080000}"/>
     <cellStyle name="Percentuale 19 4" xfId="1270" xr:uid="{00000000-0005-0000-0000-000014080000}"/>
-    <cellStyle name="Percentuale 19 4 2" xfId="2402" xr:uid="{00000000-0005-0000-0000-000015080000}"/>
+    <cellStyle name="Percentuale 19 4 2" xfId="2401" xr:uid="{00000000-0005-0000-0000-000015080000}"/>
     <cellStyle name="Percentuale 19 5" xfId="1271" xr:uid="{00000000-0005-0000-0000-000016080000}"/>
     <cellStyle name="Percentuale 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000017080000}"/>
     <cellStyle name="Percentuale 2 2" xfId="1272" xr:uid="{00000000-0005-0000-0000-000018080000}"/>
     <cellStyle name="Percentuale 2 3" xfId="1273" xr:uid="{00000000-0005-0000-0000-000019080000}"/>
     <cellStyle name="Percentuale 2 3 2" xfId="1274" xr:uid="{00000000-0005-0000-0000-00001A080000}"/>
-    <cellStyle name="Percentuale 2 3 2 2" xfId="2403" xr:uid="{00000000-0005-0000-0000-00001B080000}"/>
+    <cellStyle name="Percentuale 2 3 2 2" xfId="2402" xr:uid="{00000000-0005-0000-0000-00001B080000}"/>
     <cellStyle name="Percentuale 2 4" xfId="1275" xr:uid="{00000000-0005-0000-0000-00001C080000}"/>
-    <cellStyle name="Percentuale 2 4 2" xfId="2404" xr:uid="{00000000-0005-0000-0000-00001D080000}"/>
+    <cellStyle name="Percentuale 2 4 2" xfId="2403" xr:uid="{00000000-0005-0000-0000-00001D080000}"/>
     <cellStyle name="Percentuale 2 5" xfId="1276" xr:uid="{00000000-0005-0000-0000-00001E080000}"/>
     <cellStyle name="Percentuale 20" xfId="362" xr:uid="{00000000-0005-0000-0000-00001F080000}"/>
     <cellStyle name="Percentuale 20 2" xfId="1277" xr:uid="{00000000-0005-0000-0000-000020080000}"/>
     <cellStyle name="Percentuale 20 3" xfId="1278" xr:uid="{00000000-0005-0000-0000-000021080000}"/>
     <cellStyle name="Percentuale 20 3 2" xfId="1279" xr:uid="{00000000-0005-0000-0000-000022080000}"/>
-    <cellStyle name="Percentuale 20 3 2 2" xfId="2405" xr:uid="{00000000-0005-0000-0000-000023080000}"/>
+    <cellStyle name="Percentuale 20 3 2 2" xfId="2404" xr:uid="{00000000-0005-0000-0000-000023080000}"/>
     <cellStyle name="Percentuale 20 4" xfId="1280" xr:uid="{00000000-0005-0000-0000-000024080000}"/>
-    <cellStyle name="Percentuale 20 4 2" xfId="2406" xr:uid="{00000000-0005-0000-0000-000025080000}"/>
+    <cellStyle name="Percentuale 20 4 2" xfId="2405" xr:uid="{00000000-0005-0000-0000-000025080000}"/>
     <cellStyle name="Percentuale 20 5" xfId="1281" xr:uid="{00000000-0005-0000-0000-000026080000}"/>
     <cellStyle name="Percentuale 21" xfId="363" xr:uid="{00000000-0005-0000-0000-000027080000}"/>
     <cellStyle name="Percentuale 21 2" xfId="1282" xr:uid="{00000000-0005-0000-0000-000028080000}"/>
     <cellStyle name="Percentuale 21 3" xfId="1283" xr:uid="{00000000-0005-0000-0000-000029080000}"/>
     <cellStyle name="Percentuale 21 3 2" xfId="1284" xr:uid="{00000000-0005-0000-0000-00002A080000}"/>
-    <cellStyle name="Percentuale 21 3 2 2" xfId="2407" xr:uid="{00000000-0005-0000-0000-00002B080000}"/>
+    <cellStyle name="Percentuale 21 3 2 2" xfId="2406" xr:uid="{00000000-0005-0000-0000-00002B080000}"/>
     <cellStyle name="Percentuale 21 4" xfId="1285" xr:uid="{00000000-0005-0000-0000-00002C080000}"/>
-    <cellStyle name="Percentuale 21 4 2" xfId="2408" xr:uid="{00000000-0005-0000-0000-00002D080000}"/>
+    <cellStyle name="Percentuale 21 4 2" xfId="2407" xr:uid="{00000000-0005-0000-0000-00002D080000}"/>
     <cellStyle name="Percentuale 21 5" xfId="1286" xr:uid="{00000000-0005-0000-0000-00002E080000}"/>
     <cellStyle name="Percentuale 22" xfId="364" xr:uid="{00000000-0005-0000-0000-00002F080000}"/>
     <cellStyle name="Percentuale 22 2" xfId="1287" xr:uid="{00000000-0005-0000-0000-000030080000}"/>
     <cellStyle name="Percentuale 22 3" xfId="1288" xr:uid="{00000000-0005-0000-0000-000031080000}"/>
     <cellStyle name="Percentuale 22 3 2" xfId="1289" xr:uid="{00000000-0005-0000-0000-000032080000}"/>
-    <cellStyle name="Percentuale 22 3 2 2" xfId="2409" xr:uid="{00000000-0005-0000-0000-000033080000}"/>
+    <cellStyle name="Percentuale 22 3 2 2" xfId="2408" xr:uid="{00000000-0005-0000-0000-000033080000}"/>
     <cellStyle name="Percentuale 22 4" xfId="1290" xr:uid="{00000000-0005-0000-0000-000034080000}"/>
-    <cellStyle name="Percentuale 22 4 2" xfId="2410" xr:uid="{00000000-0005-0000-0000-000035080000}"/>
+    <cellStyle name="Percentuale 22 4 2" xfId="2409" xr:uid="{00000000-0005-0000-0000-000035080000}"/>
     <cellStyle name="Percentuale 22 5" xfId="1291" xr:uid="{00000000-0005-0000-0000-000036080000}"/>
     <cellStyle name="Percentuale 23" xfId="365" xr:uid="{00000000-0005-0000-0000-000037080000}"/>
     <cellStyle name="Percentuale 23 2" xfId="1292" xr:uid="{00000000-0005-0000-0000-000038080000}"/>
     <cellStyle name="Percentuale 23 3" xfId="1293" xr:uid="{00000000-0005-0000-0000-000039080000}"/>
     <cellStyle name="Percentuale 23 3 2" xfId="1294" xr:uid="{00000000-0005-0000-0000-00003A080000}"/>
-    <cellStyle name="Percentuale 23 3 2 2" xfId="2411" xr:uid="{00000000-0005-0000-0000-00003B080000}"/>
+    <cellStyle name="Percentuale 23 3 2 2" xfId="2410" xr:uid="{00000000-0005-0000-0000-00003B080000}"/>
     <cellStyle name="Percentuale 23 4" xfId="1295" xr:uid="{00000000-0005-0000-0000-00003C080000}"/>
-    <cellStyle name="Percentuale 23 4 2" xfId="2412" xr:uid="{00000000-0005-0000-0000-00003D080000}"/>
+    <cellStyle name="Percentuale 23 4 2" xfId="2411" xr:uid="{00000000-0005-0000-0000-00003D080000}"/>
     <cellStyle name="Percentuale 23 5" xfId="1296" xr:uid="{00000000-0005-0000-0000-00003E080000}"/>
     <cellStyle name="Percentuale 24" xfId="366" xr:uid="{00000000-0005-0000-0000-00003F080000}"/>
     <cellStyle name="Percentuale 24 2" xfId="1297" xr:uid="{00000000-0005-0000-0000-000040080000}"/>
     <cellStyle name="Percentuale 24 3" xfId="1298" xr:uid="{00000000-0005-0000-0000-000041080000}"/>
     <cellStyle name="Percentuale 24 3 2" xfId="1299" xr:uid="{00000000-0005-0000-0000-000042080000}"/>
-    <cellStyle name="Percentuale 24 3 2 2" xfId="2413" xr:uid="{00000000-0005-0000-0000-000043080000}"/>
+    <cellStyle name="Percentuale 24 3 2 2" xfId="2412" xr:uid="{00000000-0005-0000-0000-000043080000}"/>
     <cellStyle name="Percentuale 24 4" xfId="1300" xr:uid="{00000000-0005-0000-0000-000044080000}"/>
-    <cellStyle name="Percentuale 24 4 2" xfId="2414" xr:uid="{00000000-0005-0000-0000-000045080000}"/>
+    <cellStyle name="Percentuale 24 4 2" xfId="2413" xr:uid="{00000000-0005-0000-0000-000045080000}"/>
     <cellStyle name="Percentuale 24 5" xfId="1301" xr:uid="{00000000-0005-0000-0000-000046080000}"/>
     <cellStyle name="Percentuale 25" xfId="367" xr:uid="{00000000-0005-0000-0000-000047080000}"/>
     <cellStyle name="Percentuale 25 2" xfId="1302" xr:uid="{00000000-0005-0000-0000-000048080000}"/>
     <cellStyle name="Percentuale 25 3" xfId="1303" xr:uid="{00000000-0005-0000-0000-000049080000}"/>
     <cellStyle name="Percentuale 25 3 2" xfId="1304" xr:uid="{00000000-0005-0000-0000-00004A080000}"/>
-    <cellStyle name="Percentuale 25 3 2 2" xfId="2415" xr:uid="{00000000-0005-0000-0000-00004B080000}"/>
+    <cellStyle name="Percentuale 25 3 2 2" xfId="2414" xr:uid="{00000000-0005-0000-0000-00004B080000}"/>
     <cellStyle name="Percentuale 25 4" xfId="1305" xr:uid="{00000000-0005-0000-0000-00004C080000}"/>
-    <cellStyle name="Percentuale 25 4 2" xfId="2416" xr:uid="{00000000-0005-0000-0000-00004D080000}"/>
+    <cellStyle name="Percentuale 25 4 2" xfId="2415" xr:uid="{00000000-0005-0000-0000-00004D080000}"/>
     <cellStyle name="Percentuale 25 5" xfId="1306" xr:uid="{00000000-0005-0000-0000-00004E080000}"/>
     <cellStyle name="Percentuale 26" xfId="368" xr:uid="{00000000-0005-0000-0000-00004F080000}"/>
     <cellStyle name="Percentuale 26 2" xfId="1307" xr:uid="{00000000-0005-0000-0000-000050080000}"/>
     <cellStyle name="Percentuale 26 3" xfId="1308" xr:uid="{00000000-0005-0000-0000-000051080000}"/>
     <cellStyle name="Percentuale 26 3 2" xfId="1309" xr:uid="{00000000-0005-0000-0000-000052080000}"/>
-    <cellStyle name="Percentuale 26 3 2 2" xfId="2417" xr:uid="{00000000-0005-0000-0000-000053080000}"/>
+    <cellStyle name="Percentuale 26 3 2 2" xfId="2416" xr:uid="{00000000-0005-0000-0000-000053080000}"/>
     <cellStyle name="Percentuale 26 4" xfId="1310" xr:uid="{00000000-0005-0000-0000-000054080000}"/>
-    <cellStyle name="Percentuale 26 4 2" xfId="2418" xr:uid="{00000000-0005-0000-0000-000055080000}"/>
+    <cellStyle name="Percentuale 26 4 2" xfId="2417" xr:uid="{00000000-0005-0000-0000-000055080000}"/>
     <cellStyle name="Percentuale 26 5" xfId="1311" xr:uid="{00000000-0005-0000-0000-000056080000}"/>
     <cellStyle name="Percentuale 27" xfId="369" xr:uid="{00000000-0005-0000-0000-000057080000}"/>
     <cellStyle name="Percentuale 27 2" xfId="1312" xr:uid="{00000000-0005-0000-0000-000058080000}"/>
     <cellStyle name="Percentuale 27 3" xfId="1313" xr:uid="{00000000-0005-0000-0000-000059080000}"/>
     <cellStyle name="Percentuale 27 3 2" xfId="1314" xr:uid="{00000000-0005-0000-0000-00005A080000}"/>
-    <cellStyle name="Percentuale 27 3 2 2" xfId="2419" xr:uid="{00000000-0005-0000-0000-00005B080000}"/>
+    <cellStyle name="Percentuale 27 3 2 2" xfId="2418" xr:uid="{00000000-0005-0000-0000-00005B080000}"/>
     <cellStyle name="Percentuale 27 4" xfId="1315" xr:uid="{00000000-0005-0000-0000-00005C080000}"/>
-    <cellStyle name="Percentuale 27 4 2" xfId="2420" xr:uid="{00000000-0005-0000-0000-00005D080000}"/>
+    <cellStyle name="Percentuale 27 4 2" xfId="2419" xr:uid="{00000000-0005-0000-0000-00005D080000}"/>
     <cellStyle name="Percentuale 27 5" xfId="1316" xr:uid="{00000000-0005-0000-0000-00005E080000}"/>
     <cellStyle name="Percentuale 28" xfId="370" xr:uid="{00000000-0005-0000-0000-00005F080000}"/>
     <cellStyle name="Percentuale 28 2" xfId="1317" xr:uid="{00000000-0005-0000-0000-000060080000}"/>
     <cellStyle name="Percentuale 28 3" xfId="1318" xr:uid="{00000000-0005-0000-0000-000061080000}"/>
     <cellStyle name="Percentuale 28 3 2" xfId="1319" xr:uid="{00000000-0005-0000-0000-000062080000}"/>
-    <cellStyle name="Percentuale 28 3 2 2" xfId="2421" xr:uid="{00000000-0005-0000-0000-000063080000}"/>
+    <cellStyle name="Percentuale 28 3 2 2" xfId="2420" xr:uid="{00000000-0005-0000-0000-000063080000}"/>
     <cellStyle name="Percentuale 28 4" xfId="1320" xr:uid="{00000000-0005-0000-0000-000064080000}"/>
-    <cellStyle name="Percentuale 28 4 2" xfId="2422" xr:uid="{00000000-0005-0000-0000-000065080000}"/>
+    <cellStyle name="Percentuale 28 4 2" xfId="2421" xr:uid="{00000000-0005-0000-0000-000065080000}"/>
     <cellStyle name="Percentuale 28 5" xfId="1321" xr:uid="{00000000-0005-0000-0000-000066080000}"/>
     <cellStyle name="Percentuale 29" xfId="371" xr:uid="{00000000-0005-0000-0000-000067080000}"/>
     <cellStyle name="Percentuale 29 2" xfId="1322" xr:uid="{00000000-0005-0000-0000-000068080000}"/>
     <cellStyle name="Percentuale 29 3" xfId="1323" xr:uid="{00000000-0005-0000-0000-000069080000}"/>
     <cellStyle name="Percentuale 29 3 2" xfId="1324" xr:uid="{00000000-0005-0000-0000-00006A080000}"/>
-    <cellStyle name="Percentuale 29 3 2 2" xfId="2423" xr:uid="{00000000-0005-0000-0000-00006B080000}"/>
+    <cellStyle name="Percentuale 29 3 2 2" xfId="2422" xr:uid="{00000000-0005-0000-0000-00006B080000}"/>
     <cellStyle name="Percentuale 29 4" xfId="1325" xr:uid="{00000000-0005-0000-0000-00006C080000}"/>
-    <cellStyle name="Percentuale 29 4 2" xfId="2424" xr:uid="{00000000-0005-0000-0000-00006D080000}"/>
+    <cellStyle name="Percentuale 29 4 2" xfId="2423" xr:uid="{00000000-0005-0000-0000-00006D080000}"/>
     <cellStyle name="Percentuale 29 5" xfId="1326" xr:uid="{00000000-0005-0000-0000-00006E080000}"/>
     <cellStyle name="Percentuale 3" xfId="372" xr:uid="{00000000-0005-0000-0000-00006F080000}"/>
     <cellStyle name="Percentuale 3 2" xfId="1327" xr:uid="{00000000-0005-0000-0000-000070080000}"/>
     <cellStyle name="Percentuale 3 3" xfId="1328" xr:uid="{00000000-0005-0000-0000-000071080000}"/>
     <cellStyle name="Percentuale 3 3 2" xfId="1329" xr:uid="{00000000-0005-0000-0000-000072080000}"/>
-    <cellStyle name="Percentuale 3 3 2 2" xfId="2425" xr:uid="{00000000-0005-0000-0000-000073080000}"/>
+    <cellStyle name="Percentuale 3 3 2 2" xfId="2424" xr:uid="{00000000-0005-0000-0000-000073080000}"/>
     <cellStyle name="Percentuale 3 4" xfId="1330" xr:uid="{00000000-0005-0000-0000-000074080000}"/>
-    <cellStyle name="Percentuale 3 4 2" xfId="2426" xr:uid="{00000000-0005-0000-0000-000075080000}"/>
+    <cellStyle name="Percentuale 3 4 2" xfId="2425" xr:uid="{00000000-0005-0000-0000-000075080000}"/>
     <cellStyle name="Percentuale 3 5" xfId="1331" xr:uid="{00000000-0005-0000-0000-000076080000}"/>
     <cellStyle name="Percentuale 30" xfId="373" xr:uid="{00000000-0005-0000-0000-000077080000}"/>
     <cellStyle name="Percentuale 30 2" xfId="1332" xr:uid="{00000000-0005-0000-0000-000078080000}"/>
     <cellStyle name="Percentuale 30 3" xfId="1333" xr:uid="{00000000-0005-0000-0000-000079080000}"/>
     <cellStyle name="Percentuale 30 3 2" xfId="1334" xr:uid="{00000000-0005-0000-0000-00007A080000}"/>
-    <cellStyle name="Percentuale 30 3 2 2" xfId="2427" xr:uid="{00000000-0005-0000-0000-00007B080000}"/>
+    <cellStyle name="Percentuale 30 3 2 2" xfId="2426" xr:uid="{00000000-0005-0000-0000-00007B080000}"/>
     <cellStyle name="Percentuale 30 4" xfId="1335" xr:uid="{00000000-0005-0000-0000-00007C080000}"/>
-    <cellStyle name="Percentuale 30 4 2" xfId="2428" xr:uid="{00000000-0005-0000-0000-00007D080000}"/>
+    <cellStyle name="Percentuale 30 4 2" xfId="2427" xr:uid="{00000000-0005-0000-0000-00007D080000}"/>
     <cellStyle name="Percentuale 30 5" xfId="1336" xr:uid="{00000000-0005-0000-0000-00007E080000}"/>
     <cellStyle name="Percentuale 31" xfId="374" xr:uid="{00000000-0005-0000-0000-00007F080000}"/>
     <cellStyle name="Percentuale 31 2" xfId="1337" xr:uid="{00000000-0005-0000-0000-000080080000}"/>
     <cellStyle name="Percentuale 31 3" xfId="1338" xr:uid="{00000000-0005-0000-0000-000081080000}"/>
     <cellStyle name="Percentuale 31 3 2" xfId="1339" xr:uid="{00000000-0005-0000-0000-000082080000}"/>
-    <cellStyle name="Percentuale 31 3 2 2" xfId="2429" xr:uid="{00000000-0005-0000-0000-000083080000}"/>
+    <cellStyle name="Percentuale 31 3 2 2" xfId="2428" xr:uid="{00000000-0005-0000-0000-000083080000}"/>
     <cellStyle name="Percentuale 31 4" xfId="1340" xr:uid="{00000000-0005-0000-0000-000084080000}"/>
-    <cellStyle name="Percentuale 31 4 2" xfId="2430" xr:uid="{00000000-0005-0000-0000-000085080000}"/>
+    <cellStyle name="Percentuale 31 4 2" xfId="2429" xr:uid="{00000000-0005-0000-0000-000085080000}"/>
     <cellStyle name="Percentuale 31 5" xfId="1341" xr:uid="{00000000-0005-0000-0000-000086080000}"/>
     <cellStyle name="Percentuale 32" xfId="375" xr:uid="{00000000-0005-0000-0000-000087080000}"/>
     <cellStyle name="Percentuale 32 2" xfId="1342" xr:uid="{00000000-0005-0000-0000-000088080000}"/>
     <cellStyle name="Percentuale 32 3" xfId="1343" xr:uid="{00000000-0005-0000-0000-000089080000}"/>
     <cellStyle name="Percentuale 32 3 2" xfId="1344" xr:uid="{00000000-0005-0000-0000-00008A080000}"/>
-    <cellStyle name="Percentuale 32 3 2 2" xfId="2431" xr:uid="{00000000-0005-0000-0000-00008B080000}"/>
+    <cellStyle name="Percentuale 32 3 2 2" xfId="2430" xr:uid="{00000000-0005-0000-0000-00008B080000}"/>
     <cellStyle name="Percentuale 32 4" xfId="1345" xr:uid="{00000000-0005-0000-0000-00008C080000}"/>
-    <cellStyle name="Percentuale 32 4 2" xfId="2432" xr:uid="{00000000-0005-0000-0000-00008D080000}"/>
+    <cellStyle name="Percentuale 32 4 2" xfId="2431" xr:uid="{00000000-0005-0000-0000-00008D080000}"/>
     <cellStyle name="Percentuale 32 5" xfId="1346" xr:uid="{00000000-0005-0000-0000-00008E080000}"/>
     <cellStyle name="Percentuale 33" xfId="376" xr:uid="{00000000-0005-0000-0000-00008F080000}"/>
     <cellStyle name="Percentuale 33 2" xfId="1347" xr:uid="{00000000-0005-0000-0000-000090080000}"/>
     <cellStyle name="Percentuale 33 3" xfId="1348" xr:uid="{00000000-0005-0000-0000-000091080000}"/>
     <cellStyle name="Percentuale 33 3 2" xfId="1349" xr:uid="{00000000-0005-0000-0000-000092080000}"/>
-    <cellStyle name="Percentuale 33 3 2 2" xfId="2433" xr:uid="{00000000-0005-0000-0000-000093080000}"/>
+    <cellStyle name="Percentuale 33 3 2 2" xfId="2432" xr:uid="{00000000-0005-0000-0000-000093080000}"/>
     <cellStyle name="Percentuale 33 4" xfId="1350" xr:uid="{00000000-0005-0000-0000-000094080000}"/>
-    <cellStyle name="Percentuale 33 4 2" xfId="2434" xr:uid="{00000000-0005-0000-0000-000095080000}"/>
+    <cellStyle name="Percentuale 33 4 2" xfId="2433" xr:uid="{00000000-0005-0000-0000-000095080000}"/>
     <cellStyle name="Percentuale 33 5" xfId="1351" xr:uid="{00000000-0005-0000-0000-000096080000}"/>
     <cellStyle name="Percentuale 34" xfId="377" xr:uid="{00000000-0005-0000-0000-000097080000}"/>
     <cellStyle name="Percentuale 34 2" xfId="1352" xr:uid="{00000000-0005-0000-0000-000098080000}"/>
     <cellStyle name="Percentuale 34 3" xfId="1353" xr:uid="{00000000-0005-0000-0000-000099080000}"/>
     <cellStyle name="Percentuale 34 3 2" xfId="1354" xr:uid="{00000000-0005-0000-0000-00009A080000}"/>
-    <cellStyle name="Percentuale 34 3 2 2" xfId="2435" xr:uid="{00000000-0005-0000-0000-00009B080000}"/>
+    <cellStyle name="Percentuale 34 3 2 2" xfId="2434" xr:uid="{00000000-0005-0000-0000-00009B080000}"/>
     <cellStyle name="Percentuale 34 4" xfId="1355" xr:uid="{00000000-0005-0000-0000-00009C080000}"/>
-    <cellStyle name="Percentuale 34 4 2" xfId="2436" xr:uid="{00000000-0005-0000-0000-00009D080000}"/>
+    <cellStyle name="Percentuale 34 4 2" xfId="2435" xr:uid="{00000000-0005-0000-0000-00009D080000}"/>
     <cellStyle name="Percentuale 34 5" xfId="1356" xr:uid="{00000000-0005-0000-0000-00009E080000}"/>
     <cellStyle name="Percentuale 35" xfId="378" xr:uid="{00000000-0005-0000-0000-00009F080000}"/>
     <cellStyle name="Percentuale 35 2" xfId="1357" xr:uid="{00000000-0005-0000-0000-0000A0080000}"/>
     <cellStyle name="Percentuale 35 3" xfId="1358" xr:uid="{00000000-0005-0000-0000-0000A1080000}"/>
     <cellStyle name="Percentuale 35 3 2" xfId="1359" xr:uid="{00000000-0005-0000-0000-0000A2080000}"/>
-    <cellStyle name="Percentuale 35 3 2 2" xfId="2437" xr:uid="{00000000-0005-0000-0000-0000A3080000}"/>
+    <cellStyle name="Percentuale 35 3 2 2" xfId="2436" xr:uid="{00000000-0005-0000-0000-0000A3080000}"/>
     <cellStyle name="Percentuale 35 4" xfId="1360" xr:uid="{00000000-0005-0000-0000-0000A4080000}"/>
-    <cellStyle name="Percentuale 35 4 2" xfId="2438" xr:uid="{00000000-0005-0000-0000-0000A5080000}"/>
+    <cellStyle name="Percentuale 35 4 2" xfId="2437" xr:uid="{00000000-0005-0000-0000-0000A5080000}"/>
     <cellStyle name="Percentuale 35 5" xfId="1361" xr:uid="{00000000-0005-0000-0000-0000A6080000}"/>
     <cellStyle name="Percentuale 36" xfId="379" xr:uid="{00000000-0005-0000-0000-0000A7080000}"/>
     <cellStyle name="Percentuale 36 2" xfId="1362" xr:uid="{00000000-0005-0000-0000-0000A8080000}"/>
     <cellStyle name="Percentuale 36 3" xfId="1363" xr:uid="{00000000-0005-0000-0000-0000A9080000}"/>
     <cellStyle name="Percentuale 36 3 2" xfId="1364" xr:uid="{00000000-0005-0000-0000-0000AA080000}"/>
-    <cellStyle name="Percentuale 36 3 2 2" xfId="2439" xr:uid="{00000000-0005-0000-0000-0000AB080000}"/>
+    <cellStyle name="Percentuale 36 3 2 2" xfId="2438" xr:uid="{00000000-0005-0000-0000-0000AB080000}"/>
     <cellStyle name="Percentuale 36 4" xfId="1365" xr:uid="{00000000-0005-0000-0000-0000AC080000}"/>
-    <cellStyle name="Percentuale 36 4 2" xfId="2440" xr:uid="{00000000-0005-0000-0000-0000AD080000}"/>
+    <cellStyle name="Percentuale 36 4 2" xfId="2439" xr:uid="{00000000-0005-0000-0000-0000AD080000}"/>
     <cellStyle name="Percentuale 36 5" xfId="1366" xr:uid="{00000000-0005-0000-0000-0000AE080000}"/>
     <cellStyle name="Percentuale 37" xfId="380" xr:uid="{00000000-0005-0000-0000-0000AF080000}"/>
     <cellStyle name="Percentuale 37 2" xfId="1367" xr:uid="{00000000-0005-0000-0000-0000B0080000}"/>
     <cellStyle name="Percentuale 37 3" xfId="1368" xr:uid="{00000000-0005-0000-0000-0000B1080000}"/>
     <cellStyle name="Percentuale 37 3 2" xfId="1369" xr:uid="{00000000-0005-0000-0000-0000B2080000}"/>
-    <cellStyle name="Percentuale 37 3 2 2" xfId="2441" xr:uid="{00000000-0005-0000-0000-0000B3080000}"/>
+    <cellStyle name="Percentuale 37 3 2 2" xfId="2440" xr:uid="{00000000-0005-0000-0000-0000B3080000}"/>
     <cellStyle name="Percentuale 37 4" xfId="1370" xr:uid="{00000000-0005-0000-0000-0000B4080000}"/>
-    <cellStyle name="Percentuale 37 4 2" xfId="2442" xr:uid="{00000000-0005-0000-0000-0000B5080000}"/>
+    <cellStyle name="Percentuale 37 4 2" xfId="2441" xr:uid="{00000000-0005-0000-0000-0000B5080000}"/>
     <cellStyle name="Percentuale 37 5" xfId="1371" xr:uid="{00000000-0005-0000-0000-0000B6080000}"/>
     <cellStyle name="Percentuale 38" xfId="381" xr:uid="{00000000-0005-0000-0000-0000B7080000}"/>
     <cellStyle name="Percentuale 38 2" xfId="1372" xr:uid="{00000000-0005-0000-0000-0000B8080000}"/>
     <cellStyle name="Percentuale 38 3" xfId="1373" xr:uid="{00000000-0005-0000-0000-0000B9080000}"/>
     <cellStyle name="Percentuale 38 3 2" xfId="1374" xr:uid="{00000000-0005-0000-0000-0000BA080000}"/>
-    <cellStyle name="Percentuale 38 3 2 2" xfId="2443" xr:uid="{00000000-0005-0000-0000-0000BB080000}"/>
+    <cellStyle name="Percentuale 38 3 2 2" xfId="2442" xr:uid="{00000000-0005-0000-0000-0000BB080000}"/>
     <cellStyle name="Percentuale 38 4" xfId="1375" xr:uid="{00000000-0005-0000-0000-0000BC080000}"/>
-    <cellStyle name="Percentuale 38 4 2" xfId="2444" xr:uid="{00000000-0005-0000-0000-0000BD080000}"/>
+    <cellStyle name="Percentuale 38 4 2" xfId="2443" xr:uid="{00000000-0005-0000-0000-0000BD080000}"/>
     <cellStyle name="Percentuale 38 5" xfId="1376" xr:uid="{00000000-0005-0000-0000-0000BE080000}"/>
     <cellStyle name="Percentuale 39" xfId="382" xr:uid="{00000000-0005-0000-0000-0000BF080000}"/>
     <cellStyle name="Percentuale 39 2" xfId="1377" xr:uid="{00000000-0005-0000-0000-0000C0080000}"/>
     <cellStyle name="Percentuale 39 3" xfId="1378" xr:uid="{00000000-0005-0000-0000-0000C1080000}"/>
     <cellStyle name="Percentuale 39 3 2" xfId="1379" xr:uid="{00000000-0005-0000-0000-0000C2080000}"/>
-    <cellStyle name="Percentuale 39 3 2 2" xfId="2445" xr:uid="{00000000-0005-0000-0000-0000C3080000}"/>
+    <cellStyle name="Percentuale 39 3 2 2" xfId="2444" xr:uid="{00000000-0005-0000-0000-0000C3080000}"/>
     <cellStyle name="Percentuale 39 4" xfId="1380" xr:uid="{00000000-0005-0000-0000-0000C4080000}"/>
-    <cellStyle name="Percentuale 39 4 2" xfId="2446" xr:uid="{00000000-0005-0000-0000-0000C5080000}"/>
+    <cellStyle name="Percentuale 39 4 2" xfId="2445" xr:uid="{00000000-0005-0000-0000-0000C5080000}"/>
     <cellStyle name="Percentuale 39 5" xfId="1381" xr:uid="{00000000-0005-0000-0000-0000C6080000}"/>
     <cellStyle name="Percentuale 4" xfId="383" xr:uid="{00000000-0005-0000-0000-0000C7080000}"/>
     <cellStyle name="Percentuale 4 2" xfId="1382" xr:uid="{00000000-0005-0000-0000-0000C8080000}"/>
     <cellStyle name="Percentuale 4 3" xfId="1383" xr:uid="{00000000-0005-0000-0000-0000C9080000}"/>
     <cellStyle name="Percentuale 4 3 2" xfId="1384" xr:uid="{00000000-0005-0000-0000-0000CA080000}"/>
-    <cellStyle name="Percentuale 4 3 2 2" xfId="2447" xr:uid="{00000000-0005-0000-0000-0000CB080000}"/>
+    <cellStyle name="Percentuale 4 3 2 2" xfId="2446" xr:uid="{00000000-0005-0000-0000-0000CB080000}"/>
     <cellStyle name="Percentuale 4 4" xfId="1385" xr:uid="{00000000-0005-0000-0000-0000CC080000}"/>
-    <cellStyle name="Percentuale 4 4 2" xfId="2448" xr:uid="{00000000-0005-0000-0000-0000CD080000}"/>
+    <cellStyle name="Percentuale 4 4 2" xfId="2447" xr:uid="{00000000-0005-0000-0000-0000CD080000}"/>
     <cellStyle name="Percentuale 4 5" xfId="1386" xr:uid="{00000000-0005-0000-0000-0000CE080000}"/>
     <cellStyle name="Percentuale 40" xfId="384" xr:uid="{00000000-0005-0000-0000-0000CF080000}"/>
     <cellStyle name="Percentuale 40 2" xfId="1387" xr:uid="{00000000-0005-0000-0000-0000D0080000}"/>
     <cellStyle name="Percentuale 40 3" xfId="1388" xr:uid="{00000000-0005-0000-0000-0000D1080000}"/>
     <cellStyle name="Percentuale 40 3 2" xfId="1389" xr:uid="{00000000-0005-0000-0000-0000D2080000}"/>
-    <cellStyle name="Percentuale 40 3 2 2" xfId="2449" xr:uid="{00000000-0005-0000-0000-0000D3080000}"/>
+    <cellStyle name="Percentuale 40 3 2 2" xfId="2448" xr:uid="{00000000-0005-0000-0000-0000D3080000}"/>
     <cellStyle name="Percentuale 40 4" xfId="1390" xr:uid="{00000000-0005-0000-0000-0000D4080000}"/>
-    <cellStyle name="Percentuale 40 4 2" xfId="2450" xr:uid="{00000000-0005-0000-0000-0000D5080000}"/>
+    <cellStyle name="Percentuale 40 4 2" xfId="2449" xr:uid="{00000000-0005-0000-0000-0000D5080000}"/>
     <cellStyle name="Percentuale 40 5" xfId="1391" xr:uid="{00000000-0005-0000-0000-0000D6080000}"/>
     <cellStyle name="Percentuale 41" xfId="385" xr:uid="{00000000-0005-0000-0000-0000D7080000}"/>
     <cellStyle name="Percentuale 41 2" xfId="1392" xr:uid="{00000000-0005-0000-0000-0000D8080000}"/>
     <cellStyle name="Percentuale 41 3" xfId="1393" xr:uid="{00000000-0005-0000-0000-0000D9080000}"/>
     <cellStyle name="Percentuale 41 3 2" xfId="1394" xr:uid="{00000000-0005-0000-0000-0000DA080000}"/>
-    <cellStyle name="Percentuale 41 3 2 2" xfId="2451" xr:uid="{00000000-0005-0000-0000-0000DB080000}"/>
+    <cellStyle name="Percentuale 41 3 2 2" xfId="2450" xr:uid="{00000000-0005-0000-0000-0000DB080000}"/>
     <cellStyle name="Percentuale 41 4" xfId="1395" xr:uid="{00000000-0005-0000-0000-0000DC080000}"/>
-    <cellStyle name="Percentuale 41 4 2" xfId="2452" xr:uid="{00000000-0005-0000-0000-0000DD080000}"/>
+    <cellStyle name="Percentuale 41 4 2" xfId="2451" xr:uid="{00000000-0005-0000-0000-0000DD080000}"/>
     <cellStyle name="Percentuale 41 5" xfId="1396" xr:uid="{00000000-0005-0000-0000-0000DE080000}"/>
     <cellStyle name="Percentuale 42" xfId="386" xr:uid="{00000000-0005-0000-0000-0000DF080000}"/>
     <cellStyle name="Percentuale 42 2" xfId="1397" xr:uid="{00000000-0005-0000-0000-0000E0080000}"/>
     <cellStyle name="Percentuale 42 3" xfId="1398" xr:uid="{00000000-0005-0000-0000-0000E1080000}"/>
     <cellStyle name="Percentuale 42 3 2" xfId="1399" xr:uid="{00000000-0005-0000-0000-0000E2080000}"/>
-    <cellStyle name="Percentuale 42 3 2 2" xfId="2453" xr:uid="{00000000-0005-0000-0000-0000E3080000}"/>
+    <cellStyle name="Percentuale 42 3 2 2" xfId="2452" xr:uid="{00000000-0005-0000-0000-0000E3080000}"/>
     <cellStyle name="Percentuale 42 4" xfId="1400" xr:uid="{00000000-0005-0000-0000-0000E4080000}"/>
-    <cellStyle name="Percentuale 42 4 2" xfId="2454" xr:uid="{00000000-0005-0000-0000-0000E5080000}"/>
+    <cellStyle name="Percentuale 42 4 2" xfId="2453" xr:uid="{00000000-0005-0000-0000-0000E5080000}"/>
     <cellStyle name="Percentuale 42 5" xfId="1401" xr:uid="{00000000-0005-0000-0000-0000E6080000}"/>
     <cellStyle name="Percentuale 43" xfId="387" xr:uid="{00000000-0005-0000-0000-0000E7080000}"/>
     <cellStyle name="Percentuale 43 2" xfId="1402" xr:uid="{00000000-0005-0000-0000-0000E8080000}"/>
     <cellStyle name="Percentuale 43 3" xfId="1403" xr:uid="{00000000-0005-0000-0000-0000E9080000}"/>
     <cellStyle name="Percentuale 43 3 2" xfId="1404" xr:uid="{00000000-0005-0000-0000-0000EA080000}"/>
-    <cellStyle name="Percentuale 43 3 2 2" xfId="2455" xr:uid="{00000000-0005-0000-0000-0000EB080000}"/>
+    <cellStyle name="Percentuale 43 3 2 2" xfId="2454" xr:uid="{00000000-0005-0000-0000-0000EB080000}"/>
     <cellStyle name="Percentuale 43 4" xfId="1405" xr:uid="{00000000-0005-0000-0000-0000EC080000}"/>
-    <cellStyle name="Percentuale 43 4 2" xfId="2456" xr:uid="{00000000-0005-0000-0000-0000ED080000}"/>
+    <cellStyle name="Percentuale 43 4 2" xfId="2455" xr:uid="{00000000-0005-0000-0000-0000ED080000}"/>
     <cellStyle name="Percentuale 43 5" xfId="1406" xr:uid="{00000000-0005-0000-0000-0000EE080000}"/>
     <cellStyle name="Percentuale 44" xfId="388" xr:uid="{00000000-0005-0000-0000-0000EF080000}"/>
     <cellStyle name="Percentuale 44 2" xfId="1407" xr:uid="{00000000-0005-0000-0000-0000F0080000}"/>
     <cellStyle name="Percentuale 44 3" xfId="1408" xr:uid="{00000000-0005-0000-0000-0000F1080000}"/>
     <cellStyle name="Percentuale 44 3 2" xfId="1409" xr:uid="{00000000-0005-0000-0000-0000F2080000}"/>
-    <cellStyle name="Percentuale 44 3 2 2" xfId="2457" xr:uid="{00000000-0005-0000-0000-0000F3080000}"/>
+    <cellStyle name="Percentuale 44 3 2 2" xfId="2456" xr:uid="{00000000-0005-0000-0000-0000F3080000}"/>
     <cellStyle name="Percentuale 44 4" xfId="1410" xr:uid="{00000000-0005-0000-0000-0000F4080000}"/>
-    <cellStyle name="Percentuale 44 4 2" xfId="2458" xr:uid="{00000000-0005-0000-0000-0000F5080000}"/>
+    <cellStyle name="Percentuale 44 4 2" xfId="2457" xr:uid="{00000000-0005-0000-0000-0000F5080000}"/>
     <cellStyle name="Percentuale 44 5" xfId="1411" xr:uid="{00000000-0005-0000-0000-0000F6080000}"/>
     <cellStyle name="Percentuale 45" xfId="389" xr:uid="{00000000-0005-0000-0000-0000F7080000}"/>
     <cellStyle name="Percentuale 45 2" xfId="1412" xr:uid="{00000000-0005-0000-0000-0000F8080000}"/>
     <cellStyle name="Percentuale 45 3" xfId="1413" xr:uid="{00000000-0005-0000-0000-0000F9080000}"/>
     <cellStyle name="Percentuale 45 3 2" xfId="1414" xr:uid="{00000000-0005-0000-0000-0000FA080000}"/>
-    <cellStyle name="Percentuale 45 3 2 2" xfId="2459" xr:uid="{00000000-0005-0000-0000-0000FB080000}"/>
+    <cellStyle name="Percentuale 45 3 2 2" xfId="2458" xr:uid="{00000000-0005-0000-0000-0000FB080000}"/>
     <cellStyle name="Percentuale 45 4" xfId="1415" xr:uid="{00000000-0005-0000-0000-0000FC080000}"/>
-    <cellStyle name="Percentuale 45 4 2" xfId="2460" xr:uid="{00000000-0005-0000-0000-0000FD080000}"/>
+    <cellStyle name="Percentuale 45 4 2" xfId="2459" xr:uid="{00000000-0005-0000-0000-0000FD080000}"/>
     <cellStyle name="Percentuale 45 5" xfId="1416" xr:uid="{00000000-0005-0000-0000-0000FE080000}"/>
     <cellStyle name="Percentuale 46" xfId="390" xr:uid="{00000000-0005-0000-0000-0000FF080000}"/>
     <cellStyle name="Percentuale 46 2" xfId="1417" xr:uid="{00000000-0005-0000-0000-000000090000}"/>
     <cellStyle name="Percentuale 46 3" xfId="1418" xr:uid="{00000000-0005-0000-0000-000001090000}"/>
     <cellStyle name="Percentuale 46 3 2" xfId="1419" xr:uid="{00000000-0005-0000-0000-000002090000}"/>
-    <cellStyle name="Percentuale 46 3 2 2" xfId="2461" xr:uid="{00000000-0005-0000-0000-000003090000}"/>
+    <cellStyle name="Percentuale 46 3 2 2" xfId="2460" xr:uid="{00000000-0005-0000-0000-000003090000}"/>
     <cellStyle name="Percentuale 46 4" xfId="1420" xr:uid="{00000000-0005-0000-0000-000004090000}"/>
-    <cellStyle name="Percentuale 46 4 2" xfId="2462" xr:uid="{00000000-0005-0000-0000-000005090000}"/>
+    <cellStyle name="Percentuale 46 4 2" xfId="2461" xr:uid="{00000000-0005-0000-0000-000005090000}"/>
     <cellStyle name="Percentuale 46 5" xfId="1421" xr:uid="{00000000-0005-0000-0000-000006090000}"/>
     <cellStyle name="Percentuale 47" xfId="391" xr:uid="{00000000-0005-0000-0000-000007090000}"/>
     <cellStyle name="Percentuale 47 2" xfId="1422" xr:uid="{00000000-0005-0000-0000-000008090000}"/>
     <cellStyle name="Percentuale 47 3" xfId="1423" xr:uid="{00000000-0005-0000-0000-000009090000}"/>
     <cellStyle name="Percentuale 47 3 2" xfId="1424" xr:uid="{00000000-0005-0000-0000-00000A090000}"/>
-    <cellStyle name="Percentuale 47 3 2 2" xfId="2463" xr:uid="{00000000-0005-0000-0000-00000B090000}"/>
+    <cellStyle name="Percentuale 47 3 2 2" xfId="2462" xr:uid="{00000000-0005-0000-0000-00000B090000}"/>
     <cellStyle name="Percentuale 47 4" xfId="1425" xr:uid="{00000000-0005-0000-0000-00000C090000}"/>
-    <cellStyle name="Percentuale 47 4 2" xfId="2464" xr:uid="{00000000-0005-0000-0000-00000D090000}"/>
+    <cellStyle name="Percentuale 47 4 2" xfId="2463" xr:uid="{00000000-0005-0000-0000-00000D090000}"/>
     <cellStyle name="Percentuale 47 5" xfId="1426" xr:uid="{00000000-0005-0000-0000-00000E090000}"/>
     <cellStyle name="Percentuale 48" xfId="392" xr:uid="{00000000-0005-0000-0000-00000F090000}"/>
     <cellStyle name="Percentuale 48 2" xfId="1427" xr:uid="{00000000-0005-0000-0000-000010090000}"/>
     <cellStyle name="Percentuale 48 3" xfId="1428" xr:uid="{00000000-0005-0000-0000-000011090000}"/>
     <cellStyle name="Percentuale 48 3 2" xfId="1429" xr:uid="{00000000-0005-0000-0000-000012090000}"/>
-    <cellStyle name="Percentuale 48 3 2 2" xfId="2465" xr:uid="{00000000-0005-0000-0000-000013090000}"/>
+    <cellStyle name="Percentuale 48 3 2 2" xfId="2464" xr:uid="{00000000-0005-0000-0000-000013090000}"/>
     <cellStyle name="Percentuale 48 4" xfId="1430" xr:uid="{00000000-0005-0000-0000-000014090000}"/>
-    <cellStyle name="Percentuale 48 4 2" xfId="2466" xr:uid="{00000000-0005-0000-0000-000015090000}"/>
+    <cellStyle name="Percentuale 48 4 2" xfId="2465" xr:uid="{00000000-0005-0000-0000-000015090000}"/>
     <cellStyle name="Percentuale 48 5" xfId="1431" xr:uid="{00000000-0005-0000-0000-000016090000}"/>
     <cellStyle name="Percentuale 49" xfId="393" xr:uid="{00000000-0005-0000-0000-000017090000}"/>
     <cellStyle name="Percentuale 49 2" xfId="1432" xr:uid="{00000000-0005-0000-0000-000018090000}"/>
     <cellStyle name="Percentuale 49 3" xfId="1433" xr:uid="{00000000-0005-0000-0000-000019090000}"/>
     <cellStyle name="Percentuale 49 3 2" xfId="1434" xr:uid="{00000000-0005-0000-0000-00001A090000}"/>
-    <cellStyle name="Percentuale 49 3 2 2" xfId="2467" xr:uid="{00000000-0005-0000-0000-00001B090000}"/>
+    <cellStyle name="Percentuale 49 3 2 2" xfId="2466" xr:uid="{00000000-0005-0000-0000-00001B090000}"/>
     <cellStyle name="Percentuale 49 4" xfId="1435" xr:uid="{00000000-0005-0000-0000-00001C090000}"/>
-    <cellStyle name="Percentuale 49 4 2" xfId="2468" xr:uid="{00000000-0005-0000-0000-00001D090000}"/>
+    <cellStyle name="Percentuale 49 4 2" xfId="2467" xr:uid="{00000000-0005-0000-0000-00001D090000}"/>
     <cellStyle name="Percentuale 49 5" xfId="1436" xr:uid="{00000000-0005-0000-0000-00001E090000}"/>
     <cellStyle name="Percentuale 5" xfId="394" xr:uid="{00000000-0005-0000-0000-00001F090000}"/>
     <cellStyle name="Percentuale 5 2" xfId="1437" xr:uid="{00000000-0005-0000-0000-000020090000}"/>
     <cellStyle name="Percentuale 5 3" xfId="1438" xr:uid="{00000000-0005-0000-0000-000021090000}"/>
     <cellStyle name="Percentuale 5 3 2" xfId="1439" xr:uid="{00000000-0005-0000-0000-000022090000}"/>
-    <cellStyle name="Percentuale 5 3 2 2" xfId="2469" xr:uid="{00000000-0005-0000-0000-000023090000}"/>
+    <cellStyle name="Percentuale 5 3 2 2" xfId="2468" xr:uid="{00000000-0005-0000-0000-000023090000}"/>
     <cellStyle name="Percentuale 5 4" xfId="1440" xr:uid="{00000000-0005-0000-0000-000024090000}"/>
-    <cellStyle name="Percentuale 5 4 2" xfId="2470" xr:uid="{00000000-0005-0000-0000-000025090000}"/>
+    <cellStyle name="Percentuale 5 4 2" xfId="2469" xr:uid="{00000000-0005-0000-0000-000025090000}"/>
     <cellStyle name="Percentuale 5 5" xfId="1441" xr:uid="{00000000-0005-0000-0000-000026090000}"/>
     <cellStyle name="Percentuale 50" xfId="395" xr:uid="{00000000-0005-0000-0000-000027090000}"/>
     <cellStyle name="Percentuale 50 2" xfId="1442" xr:uid="{00000000-0005-0000-0000-000028090000}"/>
     <cellStyle name="Percentuale 50 3" xfId="1443" xr:uid="{00000000-0005-0000-0000-000029090000}"/>
     <cellStyle name="Percentuale 50 3 2" xfId="1444" xr:uid="{00000000-0005-0000-0000-00002A090000}"/>
-    <cellStyle name="Percentuale 50 3 2 2" xfId="2471" xr:uid="{00000000-0005-0000-0000-00002B090000}"/>
+    <cellStyle name="Percentuale 50 3 2 2" xfId="2470" xr:uid="{00000000-0005-0000-0000-00002B090000}"/>
     <cellStyle name="Percentuale 50 4" xfId="1445" xr:uid="{00000000-0005-0000-0000-00002C090000}"/>
-    <cellStyle name="Percentuale 50 4 2" xfId="2472" xr:uid="{00000000-0005-0000-0000-00002D090000}"/>
+    <cellStyle name="Percentuale 50 4 2" xfId="2471" xr:uid="{00000000-0005-0000-0000-00002D090000}"/>
     <cellStyle name="Percentuale 50 5" xfId="1446" xr:uid="{00000000-0005-0000-0000-00002E090000}"/>
     <cellStyle name="Percentuale 51" xfId="396" xr:uid="{00000000-0005-0000-0000-00002F090000}"/>
     <cellStyle name="Percentuale 51 2" xfId="1447" xr:uid="{00000000-0005-0000-0000-000030090000}"/>
     <cellStyle name="Percentuale 51 3" xfId="1448" xr:uid="{00000000-0005-0000-0000-000031090000}"/>
     <cellStyle name="Percentuale 51 3 2" xfId="1449" xr:uid="{00000000-0005-0000-0000-000032090000}"/>
-    <cellStyle name="Percentuale 51 3 2 2" xfId="2473" xr:uid="{00000000-0005-0000-0000-000033090000}"/>
+    <cellStyle name="Percentuale 51 3 2 2" xfId="2472" xr:uid="{00000000-0005-0000-0000-000033090000}"/>
     <cellStyle name="Percentuale 51 4" xfId="1450" xr:uid="{00000000-0005-0000-0000-000034090000}"/>
-    <cellStyle name="Percentuale 51 4 2" xfId="2474" xr:uid="{00000000-0005-0000-0000-000035090000}"/>
+    <cellStyle name="Percentuale 51 4 2" xfId="2473" xr:uid="{00000000-0005-0000-0000-000035090000}"/>
     <cellStyle name="Percentuale 51 5" xfId="1451" xr:uid="{00000000-0005-0000-0000-000036090000}"/>
     <cellStyle name="Percentuale 52" xfId="397" xr:uid="{00000000-0005-0000-0000-000037090000}"/>
     <cellStyle name="Percentuale 52 2" xfId="1452" xr:uid="{00000000-0005-0000-0000-000038090000}"/>
     <cellStyle name="Percentuale 52 3" xfId="1453" xr:uid="{00000000-0005-0000-0000-000039090000}"/>
     <cellStyle name="Percentuale 52 3 2" xfId="1454" xr:uid="{00000000-0005-0000-0000-00003A090000}"/>
-    <cellStyle name="Percentuale 52 3 2 2" xfId="2475" xr:uid="{00000000-0005-0000-0000-00003B090000}"/>
+    <cellStyle name="Percentuale 52 3 2 2" xfId="2474" xr:uid="{00000000-0005-0000-0000-00003B090000}"/>
     <cellStyle name="Percentuale 52 4" xfId="1455" xr:uid="{00000000-0005-0000-0000-00003C090000}"/>
-    <cellStyle name="Percentuale 52 4 2" xfId="2476" xr:uid="{00000000-0005-0000-0000-00003D090000}"/>
+    <cellStyle name="Percentuale 52 4 2" xfId="2475" xr:uid="{00000000-0005-0000-0000-00003D090000}"/>
     <cellStyle name="Percentuale 52 5" xfId="1456" xr:uid="{00000000-0005-0000-0000-00003E090000}"/>
     <cellStyle name="Percentuale 53" xfId="398" xr:uid="{00000000-0005-0000-0000-00003F090000}"/>
     <cellStyle name="Percentuale 53 2" xfId="1457" xr:uid="{00000000-0005-0000-0000-000040090000}"/>
     <cellStyle name="Percentuale 53 3" xfId="1458" xr:uid="{00000000-0005-0000-0000-000041090000}"/>
     <cellStyle name="Percentuale 53 3 2" xfId="1459" xr:uid="{00000000-0005-0000-0000-000042090000}"/>
-    <cellStyle name="Percentuale 53 3 2 2" xfId="2477" xr:uid="{00000000-0005-0000-0000-000043090000}"/>
+    <cellStyle name="Percentuale 53 3 2 2" xfId="2476" xr:uid="{00000000-0005-0000-0000-000043090000}"/>
     <cellStyle name="Percentuale 53 4" xfId="1460" xr:uid="{00000000-0005-0000-0000-000044090000}"/>
-    <cellStyle name="Percentuale 53 4 2" xfId="2478" xr:uid="{00000000-0005-0000-0000-000045090000}"/>
+    <cellStyle name="Percentuale 53 4 2" xfId="2477" xr:uid="{00000000-0005-0000-0000-000045090000}"/>
     <cellStyle name="Percentuale 53 5" xfId="1461" xr:uid="{00000000-0005-0000-0000-000046090000}"/>
     <cellStyle name="Percentuale 54" xfId="399" xr:uid="{00000000-0005-0000-0000-000047090000}"/>
     <cellStyle name="Percentuale 54 2" xfId="1462" xr:uid="{00000000-0005-0000-0000-000048090000}"/>
     <cellStyle name="Percentuale 54 3" xfId="1463" xr:uid="{00000000-0005-0000-0000-000049090000}"/>
     <cellStyle name="Percentuale 54 3 2" xfId="1464" xr:uid="{00000000-0005-0000-0000-00004A090000}"/>
-    <cellStyle name="Percentuale 54 3 2 2" xfId="2479" xr:uid="{00000000-0005-0000-0000-00004B090000}"/>
+    <cellStyle name="Percentuale 54 3 2 2" xfId="2478" xr:uid="{00000000-0005-0000-0000-00004B090000}"/>
     <cellStyle name="Percentuale 54 4" xfId="1465" xr:uid="{00000000-0005-0000-0000-00004C090000}"/>
-    <cellStyle name="Percentuale 54 4 2" xfId="2480" xr:uid="{00000000-0005-0000-0000-00004D090000}"/>
+    <cellStyle name="Percentuale 54 4 2" xfId="2479" xr:uid="{00000000-0005-0000-0000-00004D090000}"/>
     <cellStyle name="Percentuale 54 5" xfId="1466" xr:uid="{00000000-0005-0000-0000-00004E090000}"/>
     <cellStyle name="Percentuale 55" xfId="400" xr:uid="{00000000-0005-0000-0000-00004F090000}"/>
     <cellStyle name="Percentuale 55 2" xfId="1467" xr:uid="{00000000-0005-0000-0000-000050090000}"/>
     <cellStyle name="Percentuale 55 3" xfId="1468" xr:uid="{00000000-0005-0000-0000-000051090000}"/>
     <cellStyle name="Percentuale 55 3 2" xfId="1469" xr:uid="{00000000-0005-0000-0000-000052090000}"/>
-    <cellStyle name="Percentuale 55 3 2 2" xfId="2481" xr:uid="{00000000-0005-0000-0000-000053090000}"/>
+    <cellStyle name="Percentuale 55 3 2 2" xfId="2480" xr:uid="{00000000-0005-0000-0000-000053090000}"/>
     <cellStyle name="Percentuale 55 4" xfId="1470" xr:uid="{00000000-0005-0000-0000-000054090000}"/>
-    <cellStyle name="Percentuale 55 4 2" xfId="2482" xr:uid="{00000000-0005-0000-0000-000055090000}"/>
+    <cellStyle name="Percentuale 55 4 2" xfId="2481" xr:uid="{00000000-0005-0000-0000-000055090000}"/>
     <cellStyle name="Percentuale 55 5" xfId="1471" xr:uid="{00000000-0005-0000-0000-000056090000}"/>
     <cellStyle name="Percentuale 56" xfId="401" xr:uid="{00000000-0005-0000-0000-000057090000}"/>
     <cellStyle name="Percentuale 56 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-000058090000}"/>
     <cellStyle name="Percentuale 56 3" xfId="1473" xr:uid="{00000000-0005-0000-0000-000059090000}"/>
     <cellStyle name="Percentuale 56 3 2" xfId="1474" xr:uid="{00000000-0005-0000-0000-00005A090000}"/>
-    <cellStyle name="Percentuale 56 3 2 2" xfId="2483" xr:uid="{00000000-0005-0000-0000-00005B090000}"/>
+    <cellStyle name="Percentuale 56 3 2 2" xfId="2482" xr:uid="{00000000-0005-0000-0000-00005B090000}"/>
     <cellStyle name="Percentuale 56 4" xfId="1475" xr:uid="{00000000-0005-0000-0000-00005C090000}"/>
-    <cellStyle name="Percentuale 56 4 2" xfId="2484" xr:uid="{00000000-0005-0000-0000-00005D090000}"/>
+    <cellStyle name="Percentuale 56 4 2" xfId="2483" xr:uid="{00000000-0005-0000-0000-00005D090000}"/>
     <cellStyle name="Percentuale 56 5" xfId="1476" xr:uid="{00000000-0005-0000-0000-00005E090000}"/>
     <cellStyle name="Percentuale 57" xfId="402" xr:uid="{00000000-0005-0000-0000-00005F090000}"/>
     <cellStyle name="Percentuale 57 2" xfId="1477" xr:uid="{00000000-0005-0000-0000-000060090000}"/>
     <cellStyle name="Percentuale 57 3" xfId="1478" xr:uid="{00000000-0005-0000-0000-000061090000}"/>
     <cellStyle name="Percentuale 57 3 2" xfId="1479" xr:uid="{00000000-0005-0000-0000-000062090000}"/>
-    <cellStyle name="Percentuale 57 3 2 2" xfId="2485" xr:uid="{00000000-0005-0000-0000-000063090000}"/>
+    <cellStyle name="Percentuale 57 3 2 2" xfId="2484" xr:uid="{00000000-0005-0000-0000-000063090000}"/>
     <cellStyle name="Percentuale 57 4" xfId="1480" xr:uid="{00000000-0005-0000-0000-000064090000}"/>
-    <cellStyle name="Percentuale 57 4 2" xfId="2486" xr:uid="{00000000-0005-0000-0000-000065090000}"/>
+    <cellStyle name="Percentuale 57 4 2" xfId="2485" xr:uid="{00000000-0005-0000-0000-000065090000}"/>
     <cellStyle name="Percentuale 57 5" xfId="1481" xr:uid="{00000000-0005-0000-0000-000066090000}"/>
     <cellStyle name="Percentuale 58" xfId="403" xr:uid="{00000000-0005-0000-0000-000067090000}"/>
     <cellStyle name="Percentuale 58 2" xfId="1482" xr:uid="{00000000-0005-0000-0000-000068090000}"/>
     <cellStyle name="Percentuale 58 3" xfId="1483" xr:uid="{00000000-0005-0000-0000-000069090000}"/>
     <cellStyle name="Percentuale 58 3 2" xfId="1484" xr:uid="{00000000-0005-0000-0000-00006A090000}"/>
-    <cellStyle name="Percentuale 58 3 2 2" xfId="2487" xr:uid="{00000000-0005-0000-0000-00006B090000}"/>
+    <cellStyle name="Percentuale 58 3 2 2" xfId="2486" xr:uid="{00000000-0005-0000-0000-00006B090000}"/>
     <cellStyle name="Percentuale 58 4" xfId="1485" xr:uid="{00000000-0005-0000-0000-00006C090000}"/>
-    <cellStyle name="Percentuale 58 4 2" xfId="2488" xr:uid="{00000000-0005-0000-0000-00006D090000}"/>
+    <cellStyle name="Percentuale 58 4 2" xfId="2487" xr:uid="{00000000-0005-0000-0000-00006D090000}"/>
     <cellStyle name="Percentuale 58 5" xfId="1486" xr:uid="{00000000-0005-0000-0000-00006E090000}"/>
     <cellStyle name="Percentuale 59" xfId="404" xr:uid="{00000000-0005-0000-0000-00006F090000}"/>
     <cellStyle name="Percentuale 59 2" xfId="1487" xr:uid="{00000000-0005-0000-0000-000070090000}"/>
     <cellStyle name="Percentuale 59 3" xfId="1488" xr:uid="{00000000-0005-0000-0000-000071090000}"/>
     <cellStyle name="Percentuale 59 3 2" xfId="1489" xr:uid="{00000000-0005-0000-0000-000072090000}"/>
-    <cellStyle name="Percentuale 59 3 2 2" xfId="2489" xr:uid="{00000000-0005-0000-0000-000073090000}"/>
+    <cellStyle name="Percentuale 59 3 2 2" xfId="2488" xr:uid="{00000000-0005-0000-0000-000073090000}"/>
     <cellStyle name="Percentuale 59 4" xfId="1490" xr:uid="{00000000-0005-0000-0000-000074090000}"/>
-    <cellStyle name="Percentuale 59 4 2" xfId="2490" xr:uid="{00000000-0005-0000-0000-000075090000}"/>
+    <cellStyle name="Percentuale 59 4 2" xfId="2489" xr:uid="{00000000-0005-0000-0000-000075090000}"/>
     <cellStyle name="Percentuale 59 5" xfId="1491" xr:uid="{00000000-0005-0000-0000-000076090000}"/>
     <cellStyle name="Percentuale 6" xfId="405" xr:uid="{00000000-0005-0000-0000-000077090000}"/>
     <cellStyle name="Percentuale 6 2" xfId="1492" xr:uid="{00000000-0005-0000-0000-000078090000}"/>
     <cellStyle name="Percentuale 6 3" xfId="1493" xr:uid="{00000000-0005-0000-0000-000079090000}"/>
     <cellStyle name="Percentuale 6 3 2" xfId="1494" xr:uid="{00000000-0005-0000-0000-00007A090000}"/>
-    <cellStyle name="Percentuale 6 3 2 2" xfId="2491" xr:uid="{00000000-0005-0000-0000-00007B090000}"/>
+    <cellStyle name="Percentuale 6 3 2 2" xfId="2490" xr:uid="{00000000-0005-0000-0000-00007B090000}"/>
     <cellStyle name="Percentuale 6 4" xfId="1495" xr:uid="{00000000-0005-0000-0000-00007C090000}"/>
-    <cellStyle name="Percentuale 6 4 2" xfId="2492" xr:uid="{00000000-0005-0000-0000-00007D090000}"/>
+    <cellStyle name="Percentuale 6 4 2" xfId="2491" xr:uid="{00000000-0005-0000-0000-00007D090000}"/>
     <cellStyle name="Percentuale 6 5" xfId="1496" xr:uid="{00000000-0005-0000-0000-00007E090000}"/>
     <cellStyle name="Percentuale 60" xfId="406" xr:uid="{00000000-0005-0000-0000-00007F090000}"/>
     <cellStyle name="Percentuale 60 2" xfId="1497" xr:uid="{00000000-0005-0000-0000-000080090000}"/>
     <cellStyle name="Percentuale 60 3" xfId="1498" xr:uid="{00000000-0005-0000-0000-000081090000}"/>
     <cellStyle name="Percentuale 60 3 2" xfId="1499" xr:uid="{00000000-0005-0000-0000-000082090000}"/>
-    <cellStyle name="Percentuale 60 3 2 2" xfId="2493" xr:uid="{00000000-0005-0000-0000-000083090000}"/>
+    <cellStyle name="Percentuale 60 3 2 2" xfId="2492" xr:uid="{00000000-0005-0000-0000-000083090000}"/>
     <cellStyle name="Percentuale 60 4" xfId="1500" xr:uid="{00000000-0005-0000-0000-000084090000}"/>
-    <cellStyle name="Percentuale 60 4 2" xfId="2494" xr:uid="{00000000-0005-0000-0000-000085090000}"/>
+    <cellStyle name="Percentuale 60 4 2" xfId="2493" xr:uid="{00000000-0005-0000-0000-000085090000}"/>
     <cellStyle name="Percentuale 60 5" xfId="1501" xr:uid="{00000000-0005-0000-0000-000086090000}"/>
     <cellStyle name="Percentuale 61" xfId="407" xr:uid="{00000000-0005-0000-0000-000087090000}"/>
     <cellStyle name="Percentuale 61 2" xfId="1502" xr:uid="{00000000-0005-0000-0000-000088090000}"/>
     <cellStyle name="Percentuale 61 3" xfId="1503" xr:uid="{00000000-0005-0000-0000-000089090000}"/>
     <cellStyle name="Percentuale 61 3 2" xfId="1504" xr:uid="{00000000-0005-0000-0000-00008A090000}"/>
-    <cellStyle name="Percentuale 61 3 2 2" xfId="2495" xr:uid="{00000000-0005-0000-0000-00008B090000}"/>
+    <cellStyle name="Percentuale 61 3 2 2" xfId="2494" xr:uid="{00000000-0005-0000-0000-00008B090000}"/>
     <cellStyle name="Percentuale 61 4" xfId="1505" xr:uid="{00000000-0005-0000-0000-00008C090000}"/>
-    <cellStyle name="Percentuale 61 4 2" xfId="2496" xr:uid="{00000000-0005-0000-0000-00008D090000}"/>
+    <cellStyle name="Percentuale 61 4 2" xfId="2495" xr:uid="{00000000-0005-0000-0000-00008D090000}"/>
     <cellStyle name="Percentuale 61 5" xfId="1506" xr:uid="{00000000-0005-0000-0000-00008E090000}"/>
     <cellStyle name="Percentuale 62" xfId="408" xr:uid="{00000000-0005-0000-0000-00008F090000}"/>
-    <cellStyle name="Percentuale 62 2" xfId="2497" xr:uid="{00000000-0005-0000-0000-000090090000}"/>
+    <cellStyle name="Percentuale 62 2" xfId="2496" xr:uid="{00000000-0005-0000-0000-000090090000}"/>
     <cellStyle name="Percentuale 63" xfId="409" xr:uid="{00000000-0005-0000-0000-000091090000}"/>
-    <cellStyle name="Percentuale 63 2" xfId="2498" xr:uid="{00000000-0005-0000-0000-000092090000}"/>
+    <cellStyle name="Percentuale 63 2" xfId="2497" xr:uid="{00000000-0005-0000-0000-000092090000}"/>
     <cellStyle name="Percentuale 64" xfId="410" xr:uid="{00000000-0005-0000-0000-000093090000}"/>
-    <cellStyle name="Percentuale 64 2" xfId="2499" xr:uid="{00000000-0005-0000-0000-000094090000}"/>
+    <cellStyle name="Percentuale 64 2" xfId="2498" xr:uid="{00000000-0005-0000-0000-000094090000}"/>
     <cellStyle name="Percentuale 65" xfId="411" xr:uid="{00000000-0005-0000-0000-000095090000}"/>
-    <cellStyle name="Percentuale 65 2" xfId="2500" xr:uid="{00000000-0005-0000-0000-000096090000}"/>
+    <cellStyle name="Percentuale 65 2" xfId="2499" xr:uid="{00000000-0005-0000-0000-000096090000}"/>
     <cellStyle name="Percentuale 66" xfId="412" xr:uid="{00000000-0005-0000-0000-000097090000}"/>
-    <cellStyle name="Percentuale 66 2" xfId="2501" xr:uid="{00000000-0005-0000-0000-000098090000}"/>
+    <cellStyle name="Percentuale 66 2" xfId="2500" xr:uid="{00000000-0005-0000-0000-000098090000}"/>
     <cellStyle name="Percentuale 67" xfId="413" xr:uid="{00000000-0005-0000-0000-000099090000}"/>
-    <cellStyle name="Percentuale 67 2" xfId="2502" xr:uid="{00000000-0005-0000-0000-00009A090000}"/>
+    <cellStyle name="Percentuale 67 2" xfId="2501" xr:uid="{00000000-0005-0000-0000-00009A090000}"/>
     <cellStyle name="Percentuale 68" xfId="414" xr:uid="{00000000-0005-0000-0000-00009B090000}"/>
     <cellStyle name="Percentuale 68 2" xfId="1507" xr:uid="{00000000-0005-0000-0000-00009C090000}"/>
     <cellStyle name="Percentuale 68 3" xfId="1508" xr:uid="{00000000-0005-0000-0000-00009D090000}"/>
     <cellStyle name="Percentuale 68 3 2" xfId="1509" xr:uid="{00000000-0005-0000-0000-00009E090000}"/>
-    <cellStyle name="Percentuale 68 3 2 2" xfId="2503" xr:uid="{00000000-0005-0000-0000-00009F090000}"/>
+    <cellStyle name="Percentuale 68 3 2 2" xfId="2502" xr:uid="{00000000-0005-0000-0000-00009F090000}"/>
     <cellStyle name="Percentuale 68 4" xfId="1510" xr:uid="{00000000-0005-0000-0000-0000A0090000}"/>
-    <cellStyle name="Percentuale 68 4 2" xfId="2504" xr:uid="{00000000-0005-0000-0000-0000A1090000}"/>
+    <cellStyle name="Percentuale 68 4 2" xfId="2503" xr:uid="{00000000-0005-0000-0000-0000A1090000}"/>
     <cellStyle name="Percentuale 68 5" xfId="1511" xr:uid="{00000000-0005-0000-0000-0000A2090000}"/>
     <cellStyle name="Percentuale 69" xfId="415" xr:uid="{00000000-0005-0000-0000-0000A3090000}"/>
     <cellStyle name="Percentuale 69 2" xfId="1512" xr:uid="{00000000-0005-0000-0000-0000A4090000}"/>
     <cellStyle name="Percentuale 69 3" xfId="1513" xr:uid="{00000000-0005-0000-0000-0000A5090000}"/>
     <cellStyle name="Percentuale 69 3 2" xfId="1514" xr:uid="{00000000-0005-0000-0000-0000A6090000}"/>
-    <cellStyle name="Percentuale 69 3 2 2" xfId="2505" xr:uid="{00000000-0005-0000-0000-0000A7090000}"/>
+    <cellStyle name="Percentuale 69 3 2 2" xfId="2504" xr:uid="{00000000-0005-0000-0000-0000A7090000}"/>
     <cellStyle name="Percentuale 69 4" xfId="1515" xr:uid="{00000000-0005-0000-0000-0000A8090000}"/>
-    <cellStyle name="Percentuale 69 4 2" xfId="2506" xr:uid="{00000000-0005-0000-0000-0000A9090000}"/>
+    <cellStyle name="Percentuale 69 4 2" xfId="2505" xr:uid="{00000000-0005-0000-0000-0000A9090000}"/>
     <cellStyle name="Percentuale 69 5" xfId="1516" xr:uid="{00000000-0005-0000-0000-0000AA090000}"/>
     <cellStyle name="Percentuale 7" xfId="416" xr:uid="{00000000-0005-0000-0000-0000AB090000}"/>
     <cellStyle name="Percentuale 7 2" xfId="1517" xr:uid="{00000000-0005-0000-0000-0000AC090000}"/>
     <cellStyle name="Percentuale 7 3" xfId="1518" xr:uid="{00000000-0005-0000-0000-0000AD090000}"/>
     <cellStyle name="Percentuale 7 3 2" xfId="1519" xr:uid="{00000000-0005-0000-0000-0000AE090000}"/>
-    <cellStyle name="Percentuale 7 3 2 2" xfId="2507" xr:uid="{00000000-0005-0000-0000-0000AF090000}"/>
+    <cellStyle name="Percentuale 7 3 2 2" xfId="2506" xr:uid="{00000000-0005-0000-0000-0000AF090000}"/>
     <cellStyle name="Percentuale 7 4" xfId="1520" xr:uid="{00000000-0005-0000-0000-0000B0090000}"/>
-    <cellStyle name="Percentuale 7 4 2" xfId="2508" xr:uid="{00000000-0005-0000-0000-0000B1090000}"/>
+    <cellStyle name="Percentuale 7 4 2" xfId="2507" xr:uid="{00000000-0005-0000-0000-0000B1090000}"/>
     <cellStyle name="Percentuale 7 5" xfId="1521" xr:uid="{00000000-0005-0000-0000-0000B2090000}"/>
     <cellStyle name="Percentuale 8" xfId="417" xr:uid="{00000000-0005-0000-0000-0000B3090000}"/>
     <cellStyle name="Percentuale 8 2" xfId="1522" xr:uid="{00000000-0005-0000-0000-0000B4090000}"/>
     <cellStyle name="Percentuale 8 3" xfId="1523" xr:uid="{00000000-0005-0000-0000-0000B5090000}"/>
     <cellStyle name="Percentuale 8 3 2" xfId="1524" xr:uid="{00000000-0005-0000-0000-0000B6090000}"/>
-    <cellStyle name="Percentuale 8 3 2 2" xfId="2509" xr:uid="{00000000-0005-0000-0000-0000B7090000}"/>
+    <cellStyle name="Percentuale 8 3 2 2" xfId="2508" xr:uid="{00000000-0005-0000-0000-0000B7090000}"/>
     <cellStyle name="Percentuale 8 4" xfId="1525" xr:uid="{00000000-0005-0000-0000-0000B8090000}"/>
-    <cellStyle name="Percentuale 8 4 2" xfId="2510" xr:uid="{00000000-0005-0000-0000-0000B9090000}"/>
+    <cellStyle name="Percentuale 8 4 2" xfId="2509" xr:uid="{00000000-0005-0000-0000-0000B9090000}"/>
     <cellStyle name="Percentuale 8 5" xfId="1526" xr:uid="{00000000-0005-0000-0000-0000BA090000}"/>
     <cellStyle name="Percentuale 9" xfId="418" xr:uid="{00000000-0005-0000-0000-0000BB090000}"/>
     <cellStyle name="Percentuale 9 2" xfId="1527" xr:uid="{00000000-0005-0000-0000-0000BC090000}"/>
     <cellStyle name="Percentuale 9 3" xfId="1528" xr:uid="{00000000-0005-0000-0000-0000BD090000}"/>
     <cellStyle name="Percentuale 9 3 2" xfId="1529" xr:uid="{00000000-0005-0000-0000-0000BE090000}"/>
-    <cellStyle name="Percentuale 9 3 2 2" xfId="2511" xr:uid="{00000000-0005-0000-0000-0000BF090000}"/>
+    <cellStyle name="Percentuale 9 3 2 2" xfId="2510" xr:uid="{00000000-0005-0000-0000-0000BF090000}"/>
     <cellStyle name="Percentuale 9 4" xfId="1530" xr:uid="{00000000-0005-0000-0000-0000C0090000}"/>
-    <cellStyle name="Percentuale 9 4 2" xfId="2512" xr:uid="{00000000-0005-0000-0000-0000C1090000}"/>
+    <cellStyle name="Percentuale 9 4 2" xfId="2511" xr:uid="{00000000-0005-0000-0000-0000C1090000}"/>
     <cellStyle name="Percentuale 9 5" xfId="1531" xr:uid="{00000000-0005-0000-0000-0000C2090000}"/>
     <cellStyle name="Procent 2" xfId="1532" xr:uid="{00000000-0005-0000-0000-0000C3090000}"/>
-    <cellStyle name="Procent 2 2" xfId="2513" xr:uid="{00000000-0005-0000-0000-0000C4090000}"/>
-    <cellStyle name="Procent 2 2 2" xfId="2514" xr:uid="{00000000-0005-0000-0000-0000C5090000}"/>
-    <cellStyle name="Procent 3" xfId="2515" xr:uid="{00000000-0005-0000-0000-0000C6090000}"/>
-    <cellStyle name="Procent 3 2" xfId="2516" xr:uid="{00000000-0005-0000-0000-0000C7090000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="1533" xr:uid="{00000000-0005-0000-0000-0000C8090000}"/>
-    <cellStyle name="Style 155" xfId="2517" xr:uid="{00000000-0005-0000-0000-0000C9090000}"/>
-    <cellStyle name="Style 156" xfId="2518" xr:uid="{00000000-0005-0000-0000-0000CA090000}"/>
-    <cellStyle name="Style 157" xfId="2519" xr:uid="{00000000-0005-0000-0000-0000CB090000}"/>
-    <cellStyle name="Style 158" xfId="2520" xr:uid="{00000000-0005-0000-0000-0000CC090000}"/>
-    <cellStyle name="Style 159" xfId="2521" xr:uid="{00000000-0005-0000-0000-0000CD090000}"/>
-    <cellStyle name="Style 161" xfId="2522" xr:uid="{00000000-0005-0000-0000-0000CE090000}"/>
-    <cellStyle name="Style 162" xfId="2523" xr:uid="{00000000-0005-0000-0000-0000CF090000}"/>
-    <cellStyle name="Style 163" xfId="2524" xr:uid="{00000000-0005-0000-0000-0000D0090000}"/>
-    <cellStyle name="Style 223" xfId="2525" xr:uid="{00000000-0005-0000-0000-0000D1090000}"/>
-    <cellStyle name="Style 224" xfId="2526" xr:uid="{00000000-0005-0000-0000-0000D2090000}"/>
-    <cellStyle name="Style 225" xfId="2527" xr:uid="{00000000-0005-0000-0000-0000D3090000}"/>
-    <cellStyle name="Style 226" xfId="2528" xr:uid="{00000000-0005-0000-0000-0000D4090000}"/>
-    <cellStyle name="Style 227" xfId="2529" xr:uid="{00000000-0005-0000-0000-0000D5090000}"/>
-    <cellStyle name="Style 229" xfId="2530" xr:uid="{00000000-0005-0000-0000-0000D6090000}"/>
-    <cellStyle name="Style 230" xfId="2531" xr:uid="{00000000-0005-0000-0000-0000D7090000}"/>
-    <cellStyle name="Style 231" xfId="2532" xr:uid="{00000000-0005-0000-0000-0000D8090000}"/>
-    <cellStyle name="Style 257" xfId="2533" xr:uid="{00000000-0005-0000-0000-0000D9090000}"/>
-    <cellStyle name="Style 258" xfId="2534" xr:uid="{00000000-0005-0000-0000-0000DA090000}"/>
-    <cellStyle name="Style 259" xfId="2535" xr:uid="{00000000-0005-0000-0000-0000DB090000}"/>
-    <cellStyle name="Style 260" xfId="2536" xr:uid="{00000000-0005-0000-0000-0000DC090000}"/>
-    <cellStyle name="Style 261" xfId="2537" xr:uid="{00000000-0005-0000-0000-0000DD090000}"/>
-    <cellStyle name="Style 263" xfId="2538" xr:uid="{00000000-0005-0000-0000-0000DE090000}"/>
-    <cellStyle name="Style 264" xfId="2539" xr:uid="{00000000-0005-0000-0000-0000DF090000}"/>
-    <cellStyle name="Style 265" xfId="2540" xr:uid="{00000000-0005-0000-0000-0000E0090000}"/>
-    <cellStyle name="Style 461" xfId="2541" xr:uid="{00000000-0005-0000-0000-0000E1090000}"/>
-    <cellStyle name="Style 467" xfId="2542" xr:uid="{00000000-0005-0000-0000-0000E2090000}"/>
-    <cellStyle name="Style 468" xfId="2543" xr:uid="{00000000-0005-0000-0000-0000E3090000}"/>
-    <cellStyle name="Style 469" xfId="2544" xr:uid="{00000000-0005-0000-0000-0000E4090000}"/>
-    <cellStyle name="Style 478" xfId="2545" xr:uid="{00000000-0005-0000-0000-0000E5090000}"/>
-    <cellStyle name="Style 479" xfId="2546" xr:uid="{00000000-0005-0000-0000-0000E6090000}"/>
-    <cellStyle name="Style 480" xfId="2547" xr:uid="{00000000-0005-0000-0000-0000E7090000}"/>
-    <cellStyle name="Style 481" xfId="2548" xr:uid="{00000000-0005-0000-0000-0000E8090000}"/>
-    <cellStyle name="Style 482" xfId="2549" xr:uid="{00000000-0005-0000-0000-0000E9090000}"/>
-    <cellStyle name="Style 484" xfId="2550" xr:uid="{00000000-0005-0000-0000-0000EA090000}"/>
-    <cellStyle name="Style 485" xfId="2551" xr:uid="{00000000-0005-0000-0000-0000EB090000}"/>
-    <cellStyle name="Style 486" xfId="2552" xr:uid="{00000000-0005-0000-0000-0000EC090000}"/>
-    <cellStyle name="Style 495" xfId="2553" xr:uid="{00000000-0005-0000-0000-0000ED090000}"/>
-    <cellStyle name="Style 496" xfId="2554" xr:uid="{00000000-0005-0000-0000-0000EE090000}"/>
-    <cellStyle name="Style 497" xfId="2555" xr:uid="{00000000-0005-0000-0000-0000EF090000}"/>
-    <cellStyle name="Style 498" xfId="2556" xr:uid="{00000000-0005-0000-0000-0000F0090000}"/>
-    <cellStyle name="Style 499" xfId="2557" xr:uid="{00000000-0005-0000-0000-0000F1090000}"/>
-    <cellStyle name="Style 501" xfId="2558" xr:uid="{00000000-0005-0000-0000-0000F2090000}"/>
-    <cellStyle name="Style 502" xfId="2559" xr:uid="{00000000-0005-0000-0000-0000F3090000}"/>
-    <cellStyle name="Style 503" xfId="2560" xr:uid="{00000000-0005-0000-0000-0000F4090000}"/>
-    <cellStyle name="Style 580" xfId="2561" xr:uid="{00000000-0005-0000-0000-0000F5090000}"/>
-    <cellStyle name="Style 581" xfId="2562" xr:uid="{00000000-0005-0000-0000-0000F6090000}"/>
-    <cellStyle name="Style 582" xfId="2563" xr:uid="{00000000-0005-0000-0000-0000F7090000}"/>
-    <cellStyle name="Style 583" xfId="2564" xr:uid="{00000000-0005-0000-0000-0000F8090000}"/>
-    <cellStyle name="Style 584" xfId="2565" xr:uid="{00000000-0005-0000-0000-0000F9090000}"/>
-    <cellStyle name="Style 586" xfId="2566" xr:uid="{00000000-0005-0000-0000-0000FA090000}"/>
-    <cellStyle name="Style 587" xfId="2567" xr:uid="{00000000-0005-0000-0000-0000FB090000}"/>
-    <cellStyle name="Style 588" xfId="2568" xr:uid="{00000000-0005-0000-0000-0000FC090000}"/>
+    <cellStyle name="Procent 2 2" xfId="2512" xr:uid="{00000000-0005-0000-0000-0000C4090000}"/>
+    <cellStyle name="Procent 2 2 2" xfId="2513" xr:uid="{00000000-0005-0000-0000-0000C5090000}"/>
+    <cellStyle name="Procent 3" xfId="2514" xr:uid="{00000000-0005-0000-0000-0000C6090000}"/>
+    <cellStyle name="Procent 3 2" xfId="2515" xr:uid="{00000000-0005-0000-0000-0000C7090000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 155" xfId="2516" xr:uid="{00000000-0005-0000-0000-0000C9090000}"/>
+    <cellStyle name="Style 156" xfId="2517" xr:uid="{00000000-0005-0000-0000-0000CA090000}"/>
+    <cellStyle name="Style 157" xfId="2518" xr:uid="{00000000-0005-0000-0000-0000CB090000}"/>
+    <cellStyle name="Style 158" xfId="2519" xr:uid="{00000000-0005-0000-0000-0000CC090000}"/>
+    <cellStyle name="Style 159" xfId="2520" xr:uid="{00000000-0005-0000-0000-0000CD090000}"/>
+    <cellStyle name="Style 161" xfId="2521" xr:uid="{00000000-0005-0000-0000-0000CE090000}"/>
+    <cellStyle name="Style 162" xfId="2522" xr:uid="{00000000-0005-0000-0000-0000CF090000}"/>
+    <cellStyle name="Style 163" xfId="2523" xr:uid="{00000000-0005-0000-0000-0000D0090000}"/>
+    <cellStyle name="Style 223" xfId="2524" xr:uid="{00000000-0005-0000-0000-0000D1090000}"/>
+    <cellStyle name="Style 224" xfId="2525" xr:uid="{00000000-0005-0000-0000-0000D2090000}"/>
+    <cellStyle name="Style 225" xfId="2526" xr:uid="{00000000-0005-0000-0000-0000D3090000}"/>
+    <cellStyle name="Style 226" xfId="2527" xr:uid="{00000000-0005-0000-0000-0000D4090000}"/>
+    <cellStyle name="Style 227" xfId="2528" xr:uid="{00000000-0005-0000-0000-0000D5090000}"/>
+    <cellStyle name="Style 229" xfId="2529" xr:uid="{00000000-0005-0000-0000-0000D6090000}"/>
+    <cellStyle name="Style 230" xfId="2530" xr:uid="{00000000-0005-0000-0000-0000D7090000}"/>
+    <cellStyle name="Style 231" xfId="2531" xr:uid="{00000000-0005-0000-0000-0000D8090000}"/>
+    <cellStyle name="Style 257" xfId="2532" xr:uid="{00000000-0005-0000-0000-0000D9090000}"/>
+    <cellStyle name="Style 258" xfId="2533" xr:uid="{00000000-0005-0000-0000-0000DA090000}"/>
+    <cellStyle name="Style 259" xfId="2534" xr:uid="{00000000-0005-0000-0000-0000DB090000}"/>
+    <cellStyle name="Style 260" xfId="2535" xr:uid="{00000000-0005-0000-0000-0000DC090000}"/>
+    <cellStyle name="Style 261" xfId="2536" xr:uid="{00000000-0005-0000-0000-0000DD090000}"/>
+    <cellStyle name="Style 263" xfId="2537" xr:uid="{00000000-0005-0000-0000-0000DE090000}"/>
+    <cellStyle name="Style 264" xfId="2538" xr:uid="{00000000-0005-0000-0000-0000DF090000}"/>
+    <cellStyle name="Style 265" xfId="2539" xr:uid="{00000000-0005-0000-0000-0000E0090000}"/>
+    <cellStyle name="Style 461" xfId="2540" xr:uid="{00000000-0005-0000-0000-0000E1090000}"/>
+    <cellStyle name="Style 467" xfId="2541" xr:uid="{00000000-0005-0000-0000-0000E2090000}"/>
+    <cellStyle name="Style 468" xfId="2542" xr:uid="{00000000-0005-0000-0000-0000E3090000}"/>
+    <cellStyle name="Style 469" xfId="2543" xr:uid="{00000000-0005-0000-0000-0000E4090000}"/>
+    <cellStyle name="Style 478" xfId="2544" xr:uid="{00000000-0005-0000-0000-0000E5090000}"/>
+    <cellStyle name="Style 479" xfId="2545" xr:uid="{00000000-0005-0000-0000-0000E6090000}"/>
+    <cellStyle name="Style 480" xfId="2546" xr:uid="{00000000-0005-0000-0000-0000E7090000}"/>
+    <cellStyle name="Style 481" xfId="2547" xr:uid="{00000000-0005-0000-0000-0000E8090000}"/>
+    <cellStyle name="Style 482" xfId="2548" xr:uid="{00000000-0005-0000-0000-0000E9090000}"/>
+    <cellStyle name="Style 484" xfId="2549" xr:uid="{00000000-0005-0000-0000-0000EA090000}"/>
+    <cellStyle name="Style 485" xfId="2550" xr:uid="{00000000-0005-0000-0000-0000EB090000}"/>
+    <cellStyle name="Style 486" xfId="2551" xr:uid="{00000000-0005-0000-0000-0000EC090000}"/>
+    <cellStyle name="Style 495" xfId="2552" xr:uid="{00000000-0005-0000-0000-0000ED090000}"/>
+    <cellStyle name="Style 496" xfId="2553" xr:uid="{00000000-0005-0000-0000-0000EE090000}"/>
+    <cellStyle name="Style 497" xfId="2554" xr:uid="{00000000-0005-0000-0000-0000EF090000}"/>
+    <cellStyle name="Style 498" xfId="2555" xr:uid="{00000000-0005-0000-0000-0000F0090000}"/>
+    <cellStyle name="Style 499" xfId="2556" xr:uid="{00000000-0005-0000-0000-0000F1090000}"/>
+    <cellStyle name="Style 501" xfId="2557" xr:uid="{00000000-0005-0000-0000-0000F2090000}"/>
+    <cellStyle name="Style 502" xfId="2558" xr:uid="{00000000-0005-0000-0000-0000F3090000}"/>
+    <cellStyle name="Style 503" xfId="2559" xr:uid="{00000000-0005-0000-0000-0000F4090000}"/>
+    <cellStyle name="Style 580" xfId="2560" xr:uid="{00000000-0005-0000-0000-0000F5090000}"/>
+    <cellStyle name="Style 581" xfId="2561" xr:uid="{00000000-0005-0000-0000-0000F6090000}"/>
+    <cellStyle name="Style 582" xfId="2562" xr:uid="{00000000-0005-0000-0000-0000F7090000}"/>
+    <cellStyle name="Style 583" xfId="2563" xr:uid="{00000000-0005-0000-0000-0000F8090000}"/>
+    <cellStyle name="Style 584" xfId="2564" xr:uid="{00000000-0005-0000-0000-0000F9090000}"/>
+    <cellStyle name="Style 586" xfId="2565" xr:uid="{00000000-0005-0000-0000-0000FA090000}"/>
+    <cellStyle name="Style 587" xfId="2566" xr:uid="{00000000-0005-0000-0000-0000FB090000}"/>
+    <cellStyle name="Style 588" xfId="2567" xr:uid="{00000000-0005-0000-0000-0000FC090000}"/>
     <cellStyle name="Testo avviso" xfId="419" xr:uid="{00000000-0005-0000-0000-0000FD090000}"/>
     <cellStyle name="Testo descrittivo" xfId="420" xr:uid="{00000000-0005-0000-0000-0000FE090000}"/>
     <cellStyle name="Titolo" xfId="421" xr:uid="{00000000-0005-0000-0000-0000FF090000}"/>
     <cellStyle name="Titolo 1" xfId="422" xr:uid="{00000000-0005-0000-0000-0000000A0000}"/>
-    <cellStyle name="Titolo 1 2" xfId="2569" xr:uid="{00000000-0005-0000-0000-0000010A0000}"/>
+    <cellStyle name="Titolo 1 2" xfId="2568" xr:uid="{00000000-0005-0000-0000-0000010A0000}"/>
     <cellStyle name="Titolo 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000020A0000}"/>
-    <cellStyle name="Titolo 2 2" xfId="2570" xr:uid="{00000000-0005-0000-0000-0000030A0000}"/>
+    <cellStyle name="Titolo 2 2" xfId="2569" xr:uid="{00000000-0005-0000-0000-0000030A0000}"/>
     <cellStyle name="Titolo 3" xfId="424" xr:uid="{00000000-0005-0000-0000-0000040A0000}"/>
-    <cellStyle name="Titolo 3 2" xfId="2571" xr:uid="{00000000-0005-0000-0000-0000050A0000}"/>
+    <cellStyle name="Titolo 3 2" xfId="2570" xr:uid="{00000000-0005-0000-0000-0000050A0000}"/>
     <cellStyle name="Titolo 4" xfId="425" xr:uid="{00000000-0005-0000-0000-0000060A0000}"/>
-    <cellStyle name="Total 2" xfId="2572" xr:uid="{00000000-0005-0000-0000-0000070A0000}"/>
-    <cellStyle name="Total 2 2" xfId="2573" xr:uid="{00000000-0005-0000-0000-0000080A0000}"/>
+    <cellStyle name="Total 2" xfId="2571" xr:uid="{00000000-0005-0000-0000-0000070A0000}"/>
+    <cellStyle name="Total 2 2" xfId="2572" xr:uid="{00000000-0005-0000-0000-0000080A0000}"/>
     <cellStyle name="Totale" xfId="426" xr:uid="{00000000-0005-0000-0000-0000090A0000}"/>
     <cellStyle name="Totale 2" xfId="430" xr:uid="{00000000-0005-0000-0000-00000A0A0000}"/>
-    <cellStyle name="Totale 2 2" xfId="2574" xr:uid="{00000000-0005-0000-0000-00000B0A0000}"/>
-    <cellStyle name="Totale 3" xfId="2575" xr:uid="{00000000-0005-0000-0000-00000C0A0000}"/>
-    <cellStyle name="Totale 3 2" xfId="2576" xr:uid="{00000000-0005-0000-0000-00000D0A0000}"/>
-    <cellStyle name="Totale 4" xfId="2577" xr:uid="{00000000-0005-0000-0000-00000E0A0000}"/>
+    <cellStyle name="Totale 2 2" xfId="2573" xr:uid="{00000000-0005-0000-0000-00000B0A0000}"/>
+    <cellStyle name="Totale 3" xfId="2574" xr:uid="{00000000-0005-0000-0000-00000C0A0000}"/>
+    <cellStyle name="Totale 3 2" xfId="2575" xr:uid="{00000000-0005-0000-0000-00000D0A0000}"/>
+    <cellStyle name="Totale 4" xfId="2576" xr:uid="{00000000-0005-0000-0000-00000E0A0000}"/>
     <cellStyle name="Valore non valido" xfId="427" xr:uid="{00000000-0005-0000-0000-00000F0A0000}"/>
     <cellStyle name="Valore valido" xfId="428" xr:uid="{00000000-0005-0000-0000-0000100A0000}"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="1534" xr:uid="{00000000-0005-0000-0000-0000110A0000}"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="1533" xr:uid="{00000000-0005-0000-0000-0000110A0000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -8923,7 +8924,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9252,17 +9253,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="108" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="108" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="108" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="108" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" style="108" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="108"/>
+    <col min="1" max="1" width="11.59765625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" style="108" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="108" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" style="108" customWidth="1"/>
+    <col min="5" max="5" width="60.265625" style="108" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="108"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="121" t="s">
         <v>121</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="122">
         <v>42992</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="122">
         <v>42814</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="122">
         <v>42479</v>
       </c>
@@ -9326,7 +9327,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="122">
         <v>42479</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="122">
         <v>42264</v>
       </c>
@@ -9374,20 +9375,20 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="127"/>
+    <col min="1" max="1" width="9.1328125" style="127"/>
     <col min="2" max="2" width="24" style="127" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.42578125" style="127" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="127"/>
+    <col min="3" max="3" width="138.3984375" style="127" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="126" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B3" s="128" t="s">
         <v>134</v>
       </c>
@@ -9395,15 +9396,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B4" s="128" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="128"/>
     </row>
-    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="128" t="s">
         <v>136</v>
       </c>
@@ -9411,18 +9412,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="128"/>
     </row>
-    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="129" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="128"/>
     </row>
-    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B10" s="130" t="s">
         <v>139</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="132" t="s">
         <v>140</v>
       </c>
@@ -9454,15 +9455,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D6AC78-F220-49AE-89C1-010838484A04}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="9" max="9" width="9.06640625" style="108"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="134" t="s">
         <v>147</v>
       </c>
@@ -9470,7 +9474,7 @@
       <c r="D2" s="136"/>
       <c r="E2" s="108"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="137" t="s">
         <v>148</v>
       </c>
@@ -9480,23 +9484,26 @@
       <c r="D3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="172" t="s">
+      <c r="E3" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="173" t="s">
+      <c r="F3" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="H3" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="171" t="s">
+      <c r="I3" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="138" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="108">
         <v>0</v>
       </c>
@@ -9518,7 +9525,10 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="108">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9539,24 +9549,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="108" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -9579,7 +9589,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -9618,7 +9628,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>13</v>
@@ -9657,7 +9667,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>13</v>
@@ -9696,7 +9706,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
@@ -9735,7 +9745,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
@@ -9774,7 +9784,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>13</v>
@@ -9813,7 +9823,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>13</v>
@@ -9852,7 +9862,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
@@ -9891,7 +9901,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
@@ -9930,7 +9940,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
@@ -9969,7 +9979,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
         <v>13</v>
@@ -10008,7 +10018,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>13</v>
@@ -10047,7 +10057,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>13</v>
@@ -10086,7 +10096,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
         <v>13</v>
@@ -10121,7 +10131,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
@@ -10158,7 +10168,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
@@ -10195,7 +10205,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
@@ -10232,7 +10242,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
@@ -10269,7 +10279,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
@@ -10306,7 +10316,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
@@ -10343,7 +10353,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
@@ -10380,7 +10390,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
@@ -10417,7 +10427,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
@@ -10454,7 +10464,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
@@ -10491,7 +10501,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
@@ -10528,7 +10538,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="16" t="s">
@@ -10565,7 +10575,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5" t="s">
@@ -10598,7 +10608,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5" t="s">
@@ -10631,7 +10641,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5" t="s">
@@ -10664,7 +10674,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
@@ -10697,7 +10707,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
@@ -10730,7 +10740,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
@@ -10763,7 +10773,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5" t="s">
@@ -10796,7 +10806,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5" t="s">
@@ -10829,7 +10839,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5" t="s">
@@ -10862,7 +10872,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5" t="s">
@@ -10895,7 +10905,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5" t="s">
@@ -10928,7 +10938,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="16" t="s">
@@ -10961,7 +10971,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
         <v>13</v>
@@ -11000,7 +11010,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
         <v>13</v>
@@ -11039,7 +11049,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
         <v>13</v>
@@ -11078,7 +11088,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
         <v>13</v>
@@ -11112,7 +11122,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
         <v>13</v>
@@ -11146,7 +11156,7 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
         <v>13</v>
@@ -11180,7 +11190,7 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
         <v>13</v>
@@ -11214,7 +11224,7 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
         <v>13</v>
@@ -11248,7 +11258,7 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
         <v>13</v>
@@ -11282,7 +11292,7 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>13</v>
@@ -11316,7 +11326,7 @@
       <c r="N51" s="6"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
         <v>13</v>
@@ -11350,7 +11360,7 @@
       <c r="N52" s="6"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
         <v>13</v>
@@ -11384,7 +11394,7 @@
       <c r="N53" s="6"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
         <v>13</v>
@@ -11414,7 +11424,7 @@
       <c r="N54" s="6"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
@@ -11446,7 +11456,7 @@
       <c r="N55" s="6"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5" t="s">
@@ -11478,7 +11488,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
@@ -11510,7 +11520,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5" t="s">
@@ -11542,7 +11552,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5" t="s">
@@ -11574,7 +11584,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B60" s="4"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5" t="s">
@@ -11606,7 +11616,7 @@
       <c r="N60" s="6"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5" t="s">
@@ -11637,7 +11647,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5" t="s">
@@ -11668,7 +11678,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5" t="s">
@@ -11699,7 +11709,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5" t="s">
@@ -11730,7 +11740,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5" t="s">
@@ -11761,7 +11771,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="16" t="s">
@@ -11792,7 +11802,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="5" t="s">
@@ -11825,7 +11835,7 @@
       <c r="O67" s="13"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5" t="s">
@@ -11859,7 +11869,7 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="108"/>
     </row>
-    <row r="69" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="5" t="s">
@@ -11893,7 +11903,7 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="108"/>
     </row>
-    <row r="70" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5" t="s">
@@ -11927,7 +11937,7 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="108"/>
     </row>
-    <row r="71" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="5" t="s">
@@ -11961,7 +11971,7 @@
       <c r="P71" s="6"/>
       <c r="Q71" s="108"/>
     </row>
-    <row r="72" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5" t="s">
@@ -11995,7 +12005,7 @@
       <c r="P72" s="6"/>
       <c r="Q72" s="108"/>
     </row>
-    <row r="73" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="5" t="s">
@@ -12029,7 +12039,7 @@
       <c r="P73" s="6"/>
       <c r="Q73" s="108"/>
     </row>
-    <row r="74" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5" t="s">
@@ -12063,7 +12073,7 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="108"/>
     </row>
-    <row r="75" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="5" t="s">
@@ -12097,7 +12107,7 @@
       <c r="P75" s="6"/>
       <c r="Q75" s="108"/>
     </row>
-    <row r="76" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="5" t="s">
@@ -12131,7 +12141,7 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="108"/>
     </row>
-    <row r="77" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="5" t="s">
@@ -12165,7 +12175,7 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="108"/>
     </row>
-    <row r="78" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="16" t="s">
@@ -12199,7 +12209,7 @@
       <c r="P78" s="6"/>
       <c r="Q78" s="108"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
         <v>13</v>
@@ -12232,7 +12242,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
         <v>13</v>
@@ -12265,7 +12275,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
         <v>13</v>
@@ -12298,7 +12308,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B82" s="6"/>
       <c r="C82" s="6" t="s">
         <v>13</v>
@@ -12331,7 +12341,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
         <v>13</v>
@@ -12364,7 +12374,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
         <v>13</v>
@@ -12397,7 +12407,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
         <v>13</v>
@@ -12430,7 +12440,7 @@
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="s">
         <v>13</v>
@@ -12463,7 +12473,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="s">
         <v>13</v>
@@ -12496,7 +12506,7 @@
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
         <v>13</v>
@@ -12529,7 +12539,7 @@
       <c r="M88" s="5"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
         <v>13</v>
@@ -12562,7 +12572,7 @@
       <c r="M89" s="5"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
         <v>13</v>
@@ -12595,7 +12605,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B91" s="14"/>
       <c r="C91" s="14" t="s">
         <v>13</v>
@@ -12624,7 +12634,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5" t="s">
@@ -12655,7 +12665,7 @@
       <c r="M92" s="5"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="5" t="s">
@@ -12686,7 +12696,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5" t="s">
@@ -12717,7 +12727,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="5" t="s">
@@ -12748,7 +12758,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="5" t="s">
@@ -12779,7 +12789,7 @@
       <c r="M96" s="5"/>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B97" s="4"/>
       <c r="C97" s="6"/>
       <c r="D97" s="5" t="s">
@@ -12810,7 +12820,7 @@
       <c r="M97" s="5"/>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5" t="s">
@@ -12841,7 +12851,7 @@
       <c r="M98" s="5"/>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="5" t="s">
@@ -12872,7 +12882,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="5" t="s">
@@ -12903,7 +12913,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="5" t="s">
@@ -12934,7 +12944,7 @@
       <c r="M101" s="5"/>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="5" t="s">
@@ -12965,7 +12975,7 @@
       <c r="M102" s="5"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="16" t="s">
@@ -12996,7 +13006,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="5" t="s">
@@ -13027,7 +13037,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D105" s="5" t="s">
         <v>52</v>
       </c>
@@ -13056,7 +13066,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D106" s="5" t="s">
         <v>52</v>
       </c>
@@ -13085,7 +13095,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D107" s="5" t="s">
         <v>52</v>
       </c>
@@ -13114,7 +13124,7 @@
       <c r="M107" s="5"/>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D108" s="5" t="s">
         <v>52</v>
       </c>
@@ -13143,7 +13153,7 @@
       <c r="M108" s="5"/>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D109" s="5" t="s">
         <v>52</v>
       </c>
@@ -13172,7 +13182,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D110" s="5" t="s">
         <v>52</v>
       </c>
@@ -13201,7 +13211,7 @@
       <c r="M110" s="5"/>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D111" s="5" t="s">
         <v>52</v>
       </c>
@@ -13230,7 +13240,7 @@
       <c r="M111" s="5"/>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D112" s="5" t="s">
         <v>52</v>
       </c>
@@ -13259,7 +13269,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D113" s="5" t="s">
         <v>52</v>
       </c>
@@ -13288,7 +13298,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.45">
       <c r="D114" s="5" t="s">
         <v>52</v>
       </c>
@@ -13317,7 +13327,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
       <c r="D115" s="16" t="s">
@@ -13348,7 +13358,7 @@
       <c r="M115" s="5"/>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -13362,35 +13372,35 @@
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.45">
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.45">
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.45">
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.45">
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.45">
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -13415,25 +13425,25 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="4"/>
+    <col min="2" max="2" width="25.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="4" customWidth="1"/>
     <col min="4" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="9.140625" style="4"/>
-    <col min="25" max="25" width="7.28515625" style="4" customWidth="1"/>
-    <col min="26" max="29" width="9.140625" style="4"/>
-    <col min="30" max="30" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="24" width="9.1328125" style="4"/>
+    <col min="25" max="25" width="7.265625" style="4" customWidth="1"/>
+    <col min="26" max="29" width="9.1328125" style="4"/>
+    <col min="30" max="30" width="12.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="108"/>
       <c r="B1" s="108"/>
       <c r="C1" s="108" t="s">
@@ -13464,7 +13474,7 @@
       <c r="Z1" s="108"/>
       <c r="AA1" s="108"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="108"/>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -13493,127 +13503,127 @@
       <c r="Z2" s="108"/>
       <c r="AA2" s="108"/>
     </row>
-    <row r="3" spans="1:35" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="108"/>
       <c r="B3" s="108"/>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="143"/>
       <c r="AA3" s="108"/>
-      <c r="AD3" s="140" t="s">
+      <c r="AD3" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="141"/>
-      <c r="AI3" s="142"/>
-    </row>
-    <row r="4" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
+    </row>
+    <row r="4" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="108"/>
       <c r="B4" s="108"/>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="161" t="s">
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="162"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="150"/>
       <c r="AA4" s="108"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="20"/>
-      <c r="AF4" s="143" t="s">
+      <c r="AF4" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="AG4" s="144"/>
+      <c r="AG4" s="152"/>
       <c r="AH4" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AI4" s="22"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="108"/>
       <c r="B5" s="108"/>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="165" t="s">
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="164" t="s">
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="169" t="s">
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="165" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="164" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="170"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="154"/>
       <c r="AA5" s="108"/>
       <c r="AD5" s="23"/>
       <c r="AE5" s="6"/>
@@ -13630,59 +13640,59 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="108"/>
       <c r="B6" s="108"/>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153" t="s">
+      <c r="D6" s="156"/>
+      <c r="E6" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="154" t="s">
+      <c r="F6" s="156"/>
+      <c r="G6" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153" t="s">
+      <c r="H6" s="156"/>
+      <c r="I6" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="155"/>
-      <c r="K6" s="153" t="s">
+      <c r="J6" s="158"/>
+      <c r="K6" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153" t="s">
+      <c r="L6" s="156"/>
+      <c r="M6" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="153"/>
-      <c r="O6" s="152" t="s">
+      <c r="N6" s="156"/>
+      <c r="O6" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153" t="s">
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="153"/>
-      <c r="S6" s="154" t="s">
+      <c r="R6" s="156"/>
+      <c r="S6" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153" t="s">
+      <c r="T6" s="156"/>
+      <c r="U6" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="155"/>
-      <c r="W6" s="153" t="s">
+      <c r="V6" s="158"/>
+      <c r="W6" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153" t="s">
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="168"/>
+      <c r="Z6" s="164"/>
       <c r="AA6" s="108"/>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="165" t="s">
         <v>2</v>
       </c>
       <c r="AE6" s="25" t="s">
@@ -13701,7 +13711,7 @@
         <v>21.315135762203379</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="108"/>
       <c r="B7" s="108"/>
       <c r="C7" s="28" t="s">
@@ -13777,7 +13787,7 @@
         <v>68</v>
       </c>
       <c r="AA7" s="108"/>
-      <c r="AD7" s="148"/>
+      <c r="AD7" s="166"/>
       <c r="AE7" s="25" t="s">
         <v>4</v>
       </c>
@@ -13794,8 +13804,8 @@
         <v>15.84696230373755</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="138" t="s">
+    <row r="8" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="168" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -13874,7 +13884,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AA8" s="108"/>
-      <c r="AD8" s="149"/>
+      <c r="AD8" s="167"/>
       <c r="AE8" s="25" t="s">
         <v>0</v>
       </c>
@@ -13891,8 +13901,8 @@
         <v>11.550181131908179</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A9" s="169"/>
       <c r="B9" s="124" t="s">
         <v>77</v>
       </c>
@@ -13969,7 +13979,7 @@
         <v>1498.8565458526366</v>
       </c>
       <c r="AA9" s="108"/>
-      <c r="AD9" s="147" t="s">
+      <c r="AD9" s="165" t="s">
         <v>1</v>
       </c>
       <c r="AE9" s="25" t="s">
@@ -13988,8 +13998,8 @@
         <v>3.2947212563397263</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139"/>
+    <row r="10" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="169"/>
       <c r="B10" s="41" t="s">
         <v>71</v>
       </c>
@@ -14066,7 +14076,7 @@
         <v>25.784078898824173</v>
       </c>
       <c r="AA10" s="108"/>
-      <c r="AD10" s="148"/>
+      <c r="AD10" s="166"/>
       <c r="AE10" s="25" t="s">
         <v>4</v>
       </c>
@@ -14083,8 +14093,8 @@
         <v>5.1367738966410732</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="145" t="s">
+    <row r="11" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="171" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -14163,7 +14173,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="AA11" s="108"/>
-      <c r="AD11" s="151"/>
+      <c r="AD11" s="170"/>
       <c r="AE11" s="57" t="s">
         <v>0</v>
       </c>
@@ -14180,8 +14190,8 @@
         <v>0.35546674720410998</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
+    <row r="12" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="169"/>
       <c r="B12" s="124" t="s">
         <v>77</v>
       </c>
@@ -14259,8 +14269,8 @@
       </c>
       <c r="AA12" s="108"/>
     </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="172"/>
       <c r="B13" s="41" t="s">
         <v>71</v>
       </c>
@@ -14338,8 +14348,8 @@
       </c>
       <c r="AA13" s="108"/>
     </row>
-    <row r="14" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="139" t="s">
+    <row r="14" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="169" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -14418,17 +14428,17 @@
         <v>2.4694546524051571E-2</v>
       </c>
       <c r="AA14" s="108"/>
-      <c r="AD14" s="140" t="s">
+      <c r="AD14" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
-    </row>
-    <row r="15" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="145"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="146"/>
+    </row>
+    <row r="15" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="169"/>
       <c r="B15" s="124" t="s">
         <v>77</v>
       </c>
@@ -14507,17 +14517,17 @@
       <c r="AA15" s="108"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="20"/>
-      <c r="AF15" s="143" t="s">
+      <c r="AF15" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="AG15" s="144"/>
+      <c r="AG15" s="152"/>
       <c r="AH15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AI15" s="22"/>
     </row>
-    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="150"/>
+    <row r="16" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="173"/>
       <c r="B16" s="41" t="s">
         <v>71</v>
       </c>
@@ -14609,7 +14619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A17" s="75"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
@@ -14637,7 +14647,7 @@
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="6"/>
-      <c r="AD17" s="147" t="s">
+      <c r="AD17" s="165" t="s">
         <v>2</v>
       </c>
       <c r="AE17" s="25" t="s">
@@ -14656,7 +14666,7 @@
         <v>8.1202636786615034</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="75"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
@@ -14684,7 +14694,7 @@
       <c r="Y18" s="76"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="6"/>
-      <c r="AD18" s="148"/>
+      <c r="AD18" s="166"/>
       <c r="AE18" s="25" t="s">
         <v>4</v>
       </c>
@@ -14701,37 +14711,37 @@
         <v>5.9452210330257413</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="108"/>
       <c r="B19" s="108"/>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="157"/>
-      <c r="S19" s="157"/>
-      <c r="T19" s="157"/>
-      <c r="U19" s="157"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="157"/>
-      <c r="Z19" s="158"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="142"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="142"/>
+      <c r="Y19" s="142"/>
+      <c r="Z19" s="143"/>
       <c r="AA19" s="6"/>
-      <c r="AD19" s="149"/>
+      <c r="AD19" s="167"/>
       <c r="AE19" s="25" t="s">
         <v>0</v>
       </c>
@@ -14748,39 +14758,39 @@
         <v>4.4847162382110861</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="108"/>
       <c r="B20" s="108"/>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="161" t="s">
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="148"/>
+      <c r="O20" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="162"/>
+      <c r="P20" s="148"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="150"/>
       <c r="AA20" s="108"/>
-      <c r="AD20" s="147" t="s">
+      <c r="AD20" s="165" t="s">
         <v>1</v>
       </c>
       <c r="AE20" s="25" t="s">
@@ -14799,47 +14809,47 @@
         <v>1.148592335548104</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="108"/>
       <c r="B21" s="108"/>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="165" t="s">
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="164" t="s">
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="169" t="s">
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="165" t="s">
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="T21" s="164"/>
-      <c r="U21" s="164"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="164" t="s">
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="164"/>
-      <c r="Z21" s="170"/>
+      <c r="X21" s="153"/>
+      <c r="Y21" s="153"/>
+      <c r="Z21" s="154"/>
       <c r="AA21" s="108"/>
-      <c r="AD21" s="148"/>
+      <c r="AD21" s="166"/>
       <c r="AE21" s="25" t="s">
         <v>4</v>
       </c>
@@ -14856,59 +14866,59 @@
         <v>1.8422863010476525</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="108"/>
       <c r="B22" s="108"/>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153" t="s">
+      <c r="D22" s="156"/>
+      <c r="E22" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154" t="s">
+      <c r="F22" s="156"/>
+      <c r="G22" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153" t="s">
+      <c r="H22" s="156"/>
+      <c r="I22" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="155"/>
-      <c r="K22" s="153" t="s">
+      <c r="J22" s="158"/>
+      <c r="K22" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153" t="s">
+      <c r="L22" s="156"/>
+      <c r="M22" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="153"/>
-      <c r="O22" s="152" t="s">
+      <c r="N22" s="156"/>
+      <c r="O22" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153" t="s">
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="153"/>
-      <c r="S22" s="154" t="s">
+      <c r="R22" s="156"/>
+      <c r="S22" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153" t="s">
+      <c r="T22" s="156"/>
+      <c r="U22" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="155"/>
-      <c r="W22" s="153" t="s">
+      <c r="V22" s="158"/>
+      <c r="W22" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153" t="s">
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="Z22" s="168"/>
+      <c r="Z22" s="164"/>
       <c r="AA22" s="108"/>
-      <c r="AD22" s="151"/>
+      <c r="AD22" s="170"/>
       <c r="AE22" s="57" t="s">
         <v>0</v>
       </c>
@@ -14925,7 +14935,7 @@
         <v>0.11635913277974096</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="108"/>
       <c r="B23" s="108"/>
       <c r="C23" s="28" t="s">
@@ -15002,8 +15012,8 @@
       </c>
       <c r="AA23" s="108"/>
     </row>
-    <row r="24" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138" t="s">
+    <row r="24" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="168" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -15083,8 +15093,8 @@
       </c>
       <c r="AA24" s="108"/>
     </row>
-    <row r="25" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="139"/>
+    <row r="25" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="169"/>
       <c r="B25" s="124" t="s">
         <v>77</v>
       </c>
@@ -15161,17 +15171,17 @@
         <v>5285.3643541100637</v>
       </c>
       <c r="AA25" s="108"/>
-      <c r="AD25" s="140" t="s">
+      <c r="AD25" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="142"/>
-    </row>
-    <row r="26" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="139"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="146"/>
+    </row>
+    <row r="26" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="169"/>
       <c r="B26" s="41" t="s">
         <v>71</v>
       </c>
@@ -15250,17 +15260,17 @@
       <c r="AA26" s="108"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="20"/>
-      <c r="AF26" s="143" t="s">
+      <c r="AF26" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="AG26" s="144"/>
+      <c r="AG26" s="152"/>
       <c r="AH26" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AI26" s="22"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="145" t="s">
+    <row r="27" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="171" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -15354,8 +15364,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A28" s="169"/>
       <c r="B28" s="124" t="s">
         <v>77</v>
       </c>
@@ -15432,7 +15442,7 @@
         <v>6167.6673132257747</v>
       </c>
       <c r="AA28" s="108"/>
-      <c r="AD28" s="147" t="s">
+      <c r="AD28" s="165" t="s">
         <v>2</v>
       </c>
       <c r="AE28" s="25" t="s">
@@ -15455,8 +15465,8 @@
         <v>0.38096232504700211</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="146"/>
+    <row r="29" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="172"/>
       <c r="B29" s="41" t="s">
         <v>71</v>
       </c>
@@ -15533,7 +15543,7 @@
         <v>21.650203815422461</v>
       </c>
       <c r="AA29" s="108"/>
-      <c r="AD29" s="148"/>
+      <c r="AD29" s="166"/>
       <c r="AE29" s="25" t="s">
         <v>4</v>
       </c>
@@ -15554,8 +15564,8 @@
         <v>0.3751647110073294</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="139" t="s">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A30" s="169" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -15634,7 +15644,7 @@
         <v>3.5494546524051582E-2</v>
       </c>
       <c r="AA30" s="108"/>
-      <c r="AD30" s="149"/>
+      <c r="AD30" s="167"/>
       <c r="AE30" s="25" t="s">
         <v>0</v>
       </c>
@@ -15655,8 +15665,8 @@
         <v>0.38828103100666927</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="139"/>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A31" s="169"/>
       <c r="B31" s="124" t="s">
         <v>77</v>
       </c>
@@ -15733,7 +15743,7 @@
         <v>22027.134242709195</v>
       </c>
       <c r="AA31" s="108"/>
-      <c r="AD31" s="147" t="s">
+      <c r="AD31" s="165" t="s">
         <v>1</v>
       </c>
       <c r="AE31" s="25" t="s">
@@ -15756,8 +15766,8 @@
         <v>0.34861593627624016</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="150"/>
+    <row r="32" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="173"/>
       <c r="B32" s="41" t="s">
         <v>71</v>
       </c>
@@ -15834,7 +15844,7 @@
         <v>32.948863965993311</v>
       </c>
       <c r="AA32" s="108"/>
-      <c r="AD32" s="148"/>
+      <c r="AD32" s="166"/>
       <c r="AE32" s="25" t="s">
         <v>4</v>
       </c>
@@ -15855,7 +15865,7 @@
         <v>0.35864656263191186</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="108"/>
       <c r="B33" s="108"/>
       <c r="C33" s="108"/>
@@ -15883,7 +15893,7 @@
       <c r="Y33" s="108"/>
       <c r="Z33" s="108"/>
       <c r="AA33" s="108"/>
-      <c r="AD33" s="151"/>
+      <c r="AD33" s="170"/>
       <c r="AE33" s="57" t="s">
         <v>0</v>
       </c>
@@ -15904,7 +15914,7 @@
         <v>0.3273418222518778</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C34" s="116"/>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -15913,7 +15923,7 @@
       <c r="H34" s="116"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C35" s="116"/>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -15922,7 +15932,7 @@
       <c r="H35" s="116"/>
       <c r="I35" s="116"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C36" s="116"/>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -15931,7 +15941,7 @@
       <c r="H36" s="116"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C37" s="119"/>
       <c r="D37" s="116"/>
       <c r="E37" s="116"/>
@@ -15940,7 +15950,7 @@
       <c r="H37" s="116"/>
       <c r="I37" s="116"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C38" s="116"/>
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
@@ -15949,7 +15959,7 @@
       <c r="H38" s="116"/>
       <c r="I38" s="116"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C39" s="118"/>
       <c r="D39" s="118"/>
       <c r="E39" s="118"/>
@@ -15975,7 +15985,7 @@
       <c r="Y39" s="109"/>
       <c r="Z39" s="109"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C40" s="118"/>
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
@@ -16001,7 +16011,7 @@
       <c r="Y40" s="109"/>
       <c r="Z40" s="109"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C41" s="118"/>
       <c r="D41" s="118"/>
       <c r="E41" s="118"/>
@@ -16027,7 +16037,7 @@
       <c r="Y41" s="109"/>
       <c r="Z41" s="109"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C42" s="118"/>
       <c r="D42" s="118"/>
       <c r="E42" s="118"/>
@@ -16053,7 +16063,7 @@
       <c r="Y42" s="109"/>
       <c r="Z42" s="109"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C43" s="108"/>
       <c r="D43" s="108"/>
       <c r="E43" s="108"/>
@@ -16079,16 +16089,50 @@
       <c r="Y43" s="108"/>
       <c r="Z43" s="108"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C53" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="AD3:AI3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="AD25:AI25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="AD31:AD33"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="AD14:AI14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="O20:Z20"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AD6:AD8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="W5:Z5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
@@ -16105,45 +16149,11 @@
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AD6:AD8"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C20:N20"/>
-    <mergeCell ref="O20:Z20"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="AD14:AI14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="AD25:AI25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="AD31:AD33"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="AD3:AI3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="AF4:AG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
